--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2004DB06-83D3-4735-B0D3-9EC833E1BCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1BD9F-48AE-459A-96C5-256D7F6A90D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6559,17 +6559,6 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6593,6 +6582,17 @@
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6922,10 +6922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU370"/>
+  <dimension ref="A1:AV370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="AC327" sqref="AC327"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -6969,7 +6969,7 @@
     <col min="48" max="16384" width="12.625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="17.25" customHeight="1">
+    <row r="1" spans="1:48" ht="17.25" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J1" s="80">
         <v>40</v>
@@ -7088,10 +7088,10 @@
         <v>3</v>
       </c>
       <c r="AO1" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ1" s="89">
         <v>0</v>
@@ -7106,8 +7106,9 @@
         <v>0</v>
       </c>
       <c r="AU1" s="90"/>
-    </row>
-    <row r="2" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV1" s="90"/>
+    </row>
+    <row r="2" spans="1:48" ht="17.25" customHeight="1">
       <c r="A2" s="66" t="s">
         <v>4</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" s="80">
         <v>0</v>
@@ -7226,10 +7227,10 @@
         <v>7</v>
       </c>
       <c r="AO2" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="89">
         <v>0</v>
@@ -7244,8 +7245,9 @@
         <v>0</v>
       </c>
       <c r="AU2" s="90"/>
-    </row>
-    <row r="3" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV2" s="90"/>
+    </row>
+    <row r="3" spans="1:48" ht="17.25" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>8</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J3" s="80">
         <v>20</v>
@@ -7364,10 +7366,10 @@
         <v>11</v>
       </c>
       <c r="AO3" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ3" s="89">
         <v>0</v>
@@ -7382,8 +7384,9 @@
         <v>0</v>
       </c>
       <c r="AU3" s="90"/>
-    </row>
-    <row r="4" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV3" s="90"/>
+    </row>
+    <row r="4" spans="1:48" ht="17.25" customHeight="1">
       <c r="A4" s="66" t="s">
         <v>12</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="80">
         <v>0</v>
@@ -7502,10 +7505,10 @@
         <v>15</v>
       </c>
       <c r="AO4" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ4" s="89">
         <v>0</v>
@@ -7520,8 +7523,9 @@
         <v>0</v>
       </c>
       <c r="AU4" s="90"/>
-    </row>
-    <row r="5" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV4" s="90"/>
+    </row>
+    <row r="5" spans="1:48" ht="17.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>16</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5" s="80">
         <v>22</v>
@@ -7640,10 +7644,10 @@
         <v>19</v>
       </c>
       <c r="AO5" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ5" s="89">
         <v>0</v>
@@ -7658,8 +7662,9 @@
         <v>0</v>
       </c>
       <c r="AU5" s="90"/>
-    </row>
-    <row r="6" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV5" s="90"/>
+    </row>
+    <row r="6" spans="1:48" ht="17.25" customHeight="1">
       <c r="A6" s="66" t="s">
         <v>20</v>
       </c>
@@ -7685,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="80">
         <v>20</v>
@@ -7778,10 +7783,10 @@
         <v>23</v>
       </c>
       <c r="AO6" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="89">
         <v>0</v>
@@ -7796,8 +7801,9 @@
         <v>0</v>
       </c>
       <c r="AU6" s="90"/>
-    </row>
-    <row r="7" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV6" s="90"/>
+    </row>
+    <row r="7" spans="1:48" ht="17.25" customHeight="1">
       <c r="A7" s="66" t="s">
         <v>24</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="80">
         <v>0</v>
@@ -7916,10 +7922,10 @@
         <v>27</v>
       </c>
       <c r="AO7" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="89">
         <v>0</v>
@@ -7934,8 +7940,9 @@
         <v>0</v>
       </c>
       <c r="AU7" s="90"/>
-    </row>
-    <row r="8" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV7" s="90"/>
+    </row>
+    <row r="8" spans="1:48" ht="17.25" customHeight="1">
       <c r="A8" s="66" t="s">
         <v>28</v>
       </c>
@@ -7961,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="80">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J8" s="80">
         <v>40</v>
@@ -8054,10 +8061,10 @@
         <v>3</v>
       </c>
       <c r="AO8" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ8" s="89">
         <v>0</v>
@@ -8072,8 +8079,9 @@
         <v>0</v>
       </c>
       <c r="AU8" s="90"/>
-    </row>
-    <row r="9" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV8" s="90"/>
+    </row>
+    <row r="9" spans="1:48" ht="17.25" customHeight="1">
       <c r="A9" s="66" t="s">
         <v>31</v>
       </c>
@@ -8099,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J9" s="80">
         <v>0</v>
@@ -8192,10 +8200,10 @@
         <v>34</v>
       </c>
       <c r="AO9" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ9" s="89">
         <v>0</v>
@@ -8210,8 +8218,9 @@
         <v>0</v>
       </c>
       <c r="AU9" s="90"/>
-    </row>
-    <row r="10" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV9" s="90"/>
+    </row>
+    <row r="10" spans="1:48" ht="17.25" customHeight="1">
       <c r="A10" s="66" t="s">
         <v>35</v>
       </c>
@@ -8237,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" s="80">
         <v>0</v>
@@ -8330,10 +8339,10 @@
         <v>38</v>
       </c>
       <c r="AO10" s="89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP10" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="89">
         <v>2</v>
@@ -8348,8 +8357,9 @@
         <v>2</v>
       </c>
       <c r="AU10" s="90"/>
-    </row>
-    <row r="11" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV10" s="90"/>
+    </row>
+    <row r="11" spans="1:48" ht="17.25" customHeight="1">
       <c r="A11" s="66" t="s">
         <v>39</v>
       </c>
@@ -8375,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="80">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J11" s="80">
         <v>0</v>
@@ -8468,10 +8478,10 @@
         <v>42</v>
       </c>
       <c r="AO11" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ11" s="89">
         <v>0</v>
@@ -8486,8 +8496,9 @@
         <v>0</v>
       </c>
       <c r="AU11" s="90"/>
-    </row>
-    <row r="12" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV11" s="90"/>
+    </row>
+    <row r="12" spans="1:48" ht="17.25" customHeight="1">
       <c r="A12" s="66" t="s">
         <v>43</v>
       </c>
@@ -8513,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" s="80">
         <v>0</v>
@@ -8606,10 +8617,10 @@
         <v>46</v>
       </c>
       <c r="AO12" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" s="89">
         <v>0</v>
@@ -8624,8 +8635,9 @@
         <v>0</v>
       </c>
       <c r="AU12" s="90"/>
-    </row>
-    <row r="13" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV12" s="90"/>
+    </row>
+    <row r="13" spans="1:48" ht="17.25" customHeight="1">
       <c r="A13" s="66" t="s">
         <v>47</v>
       </c>
@@ -8651,7 +8663,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J13" s="80">
         <v>0</v>
@@ -8744,10 +8756,10 @@
         <v>50</v>
       </c>
       <c r="AO13" s="89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ13" s="89">
         <v>2</v>
@@ -8762,8 +8774,9 @@
         <v>0</v>
       </c>
       <c r="AU13" s="90"/>
-    </row>
-    <row r="14" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV13" s="90"/>
+    </row>
+    <row r="14" spans="1:48" ht="17.25" customHeight="1">
       <c r="A14" s="66" t="s">
         <v>51</v>
       </c>
@@ -8789,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="80">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J14" s="80">
         <v>0</v>
@@ -8882,10 +8895,10 @@
         <v>54</v>
       </c>
       <c r="AO14" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ14" s="89">
         <v>0</v>
@@ -8900,8 +8913,9 @@
         <v>0</v>
       </c>
       <c r="AU14" s="90"/>
-    </row>
-    <row r="15" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV14" s="90"/>
+    </row>
+    <row r="15" spans="1:48" ht="17.25" customHeight="1">
       <c r="A15" s="66" t="s">
         <v>55</v>
       </c>
@@ -8927,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J15" s="80">
         <v>40</v>
@@ -9020,10 +9034,10 @@
         <v>58</v>
       </c>
       <c r="AO15" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ15" s="89">
         <v>0</v>
@@ -9038,8 +9052,9 @@
         <v>0</v>
       </c>
       <c r="AU15" s="90"/>
-    </row>
-    <row r="16" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV15" s="90"/>
+    </row>
+    <row r="16" spans="1:48" ht="17.25" customHeight="1">
       <c r="A16" s="66" t="s">
         <v>59</v>
       </c>
@@ -9065,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J16" s="80">
         <v>0</v>
@@ -9158,10 +9173,10 @@
         <v>61</v>
       </c>
       <c r="AO16" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ16" s="89">
         <v>0</v>
@@ -9176,8 +9191,9 @@
         <v>0</v>
       </c>
       <c r="AU16" s="90"/>
-    </row>
-    <row r="17" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV16" s="90"/>
+    </row>
+    <row r="17" spans="1:48" ht="17.25" customHeight="1">
       <c r="A17" s="66" t="s">
         <v>62</v>
       </c>
@@ -9203,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J17" s="80">
         <v>0</v>
@@ -9296,10 +9312,10 @@
         <v>65</v>
       </c>
       <c r="AO17" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ17" s="89">
         <v>0</v>
@@ -9314,8 +9330,9 @@
         <v>0</v>
       </c>
       <c r="AU17" s="90"/>
-    </row>
-    <row r="18" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV17" s="90"/>
+    </row>
+    <row r="18" spans="1:48" ht="17.25" customHeight="1">
       <c r="A18" s="66" t="s">
         <v>66</v>
       </c>
@@ -9341,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="91">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J18" s="80">
         <v>0</v>
@@ -9434,10 +9451,10 @@
         <v>69</v>
       </c>
       <c r="AO18" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="89">
         <v>0</v>
@@ -9452,8 +9469,9 @@
         <v>0</v>
       </c>
       <c r="AU18" s="90"/>
-    </row>
-    <row r="19" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV18" s="90"/>
+    </row>
+    <row r="19" spans="1:48" ht="17.25" customHeight="1">
       <c r="A19" s="66" t="s">
         <v>70</v>
       </c>
@@ -9479,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19" s="80">
         <v>0</v>
@@ -9572,10 +9590,10 @@
         <v>73</v>
       </c>
       <c r="AO19" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ19" s="89">
         <v>0</v>
@@ -9590,8 +9608,9 @@
         <v>0</v>
       </c>
       <c r="AU19" s="90"/>
-    </row>
-    <row r="20" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV19" s="90"/>
+    </row>
+    <row r="20" spans="1:48" ht="17.25" customHeight="1">
       <c r="A20" s="66" t="s">
         <v>74</v>
       </c>
@@ -9617,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="80">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J20" s="80">
         <v>35</v>
@@ -9710,10 +9729,10 @@
         <v>77</v>
       </c>
       <c r="AO20" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ20" s="89">
         <v>0</v>
@@ -9728,8 +9747,9 @@
         <v>0</v>
       </c>
       <c r="AU20" s="90"/>
-    </row>
-    <row r="21" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV20" s="90"/>
+    </row>
+    <row r="21" spans="1:48" ht="17.25" customHeight="1">
       <c r="A21" s="66" t="s">
         <v>78</v>
       </c>
@@ -9755,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J21" s="80">
         <v>0</v>
@@ -9848,10 +9868,10 @@
         <v>81</v>
       </c>
       <c r="AO21" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ21" s="89">
         <v>0</v>
@@ -9866,8 +9886,9 @@
         <v>0</v>
       </c>
       <c r="AU21" s="90"/>
-    </row>
-    <row r="22" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV21" s="90"/>
+    </row>
+    <row r="22" spans="1:48" ht="17.25" customHeight="1">
       <c r="A22" s="66" t="s">
         <v>82</v>
       </c>
@@ -9893,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J22" s="80">
         <v>35</v>
@@ -9986,10 +10007,10 @@
         <v>85</v>
       </c>
       <c r="AO22" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ22" s="89">
         <v>0</v>
@@ -10004,8 +10025,9 @@
         <v>0</v>
       </c>
       <c r="AU22" s="90"/>
-    </row>
-    <row r="23" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV22" s="90"/>
+    </row>
+    <row r="23" spans="1:48" ht="17.25" customHeight="1">
       <c r="A23" s="66" t="s">
         <v>86</v>
       </c>
@@ -10031,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J23" s="80">
         <v>0</v>
@@ -10124,10 +10146,10 @@
         <v>89</v>
       </c>
       <c r="AO23" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ23" s="89">
         <v>0</v>
@@ -10142,8 +10164,9 @@
         <v>0</v>
       </c>
       <c r="AU23" s="90"/>
-    </row>
-    <row r="24" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV23" s="90"/>
+    </row>
+    <row r="24" spans="1:48" ht="17.25" customHeight="1">
       <c r="A24" s="66" t="s">
         <v>90</v>
       </c>
@@ -10169,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J24" s="80">
         <v>36</v>
@@ -10262,10 +10285,10 @@
         <v>92</v>
       </c>
       <c r="AO24" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ24" s="89">
         <v>0</v>
@@ -10280,8 +10303,9 @@
         <v>0</v>
       </c>
       <c r="AU24" s="90"/>
-    </row>
-    <row r="25" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV24" s="90"/>
+    </row>
+    <row r="25" spans="1:48" ht="17.25" customHeight="1">
       <c r="A25" s="66" t="s">
         <v>93</v>
       </c>
@@ -10307,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="80">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J25" s="80">
         <v>0</v>
@@ -10400,10 +10424,10 @@
         <v>96</v>
       </c>
       <c r="AO25" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ25" s="89">
         <v>0</v>
@@ -10418,8 +10442,9 @@
         <v>0</v>
       </c>
       <c r="AU25" s="90"/>
-    </row>
-    <row r="26" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV25" s="90"/>
+    </row>
+    <row r="26" spans="1:48" ht="17.25" customHeight="1">
       <c r="A26" s="66" t="s">
         <v>97</v>
       </c>
@@ -10445,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J26" s="80">
         <v>18</v>
@@ -10538,10 +10563,10 @@
         <v>100</v>
       </c>
       <c r="AO26" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ26" s="89">
         <v>0</v>
@@ -10556,8 +10581,9 @@
         <v>0</v>
       </c>
       <c r="AU26" s="90"/>
-    </row>
-    <row r="27" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV26" s="90"/>
+    </row>
+    <row r="27" spans="1:48" ht="17.25" customHeight="1">
       <c r="A27" s="66" t="s">
         <v>101</v>
       </c>
@@ -10583,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J27" s="80">
         <v>0</v>
@@ -10676,10 +10702,10 @@
         <v>104</v>
       </c>
       <c r="AO27" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ27" s="89">
         <v>0</v>
@@ -10694,8 +10720,9 @@
         <v>0</v>
       </c>
       <c r="AU27" s="90"/>
-    </row>
-    <row r="28" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV27" s="90"/>
+    </row>
+    <row r="28" spans="1:48" ht="17.25" customHeight="1">
       <c r="A28" s="66" t="s">
         <v>105</v>
       </c>
@@ -10721,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="80">
         <v>23</v>
@@ -10814,10 +10841,10 @@
         <v>108</v>
       </c>
       <c r="AO28" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ28" s="89">
         <v>0</v>
@@ -10832,8 +10859,9 @@
         <v>0</v>
       </c>
       <c r="AU28" s="90"/>
-    </row>
-    <row r="29" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV28" s="90"/>
+    </row>
+    <row r="29" spans="1:48" ht="17.25" customHeight="1">
       <c r="A29" s="66" t="s">
         <v>109</v>
       </c>
@@ -10859,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J29" s="80">
         <v>0</v>
@@ -10952,10 +10980,10 @@
         <v>111</v>
       </c>
       <c r="AO29" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ29" s="89">
         <v>0</v>
@@ -10970,8 +10998,9 @@
         <v>0</v>
       </c>
       <c r="AU29" s="90"/>
-    </row>
-    <row r="30" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV29" s="90"/>
+    </row>
+    <row r="30" spans="1:48" ht="17.25" customHeight="1">
       <c r="A30" s="66" t="s">
         <v>112</v>
       </c>
@@ -10997,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J30" s="80">
         <v>0</v>
@@ -11090,10 +11119,10 @@
         <v>115</v>
       </c>
       <c r="AO30" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ30" s="89">
         <v>0</v>
@@ -11108,8 +11137,9 @@
         <v>0</v>
       </c>
       <c r="AU30" s="90"/>
-    </row>
-    <row r="31" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV30" s="90"/>
+    </row>
+    <row r="31" spans="1:48" ht="17.25" customHeight="1">
       <c r="A31" s="66" t="s">
         <v>116</v>
       </c>
@@ -11135,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J31" s="80">
         <v>16</v>
@@ -11228,10 +11258,10 @@
         <v>119</v>
       </c>
       <c r="AO31" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ31" s="89">
         <v>0</v>
@@ -11246,8 +11276,9 @@
         <v>2</v>
       </c>
       <c r="AU31" s="90"/>
-    </row>
-    <row r="32" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV31" s="90"/>
+    </row>
+    <row r="32" spans="1:48" ht="17.25" customHeight="1">
       <c r="A32" s="66" t="s">
         <v>120</v>
       </c>
@@ -11273,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J32" s="80">
         <v>20</v>
@@ -11366,10 +11397,10 @@
         <v>122</v>
       </c>
       <c r="AO32" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ32" s="89">
         <v>0</v>
@@ -11384,8 +11415,9 @@
         <v>0</v>
       </c>
       <c r="AU32" s="90"/>
-    </row>
-    <row r="33" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV32" s="90"/>
+    </row>
+    <row r="33" spans="1:48" ht="17.25" customHeight="1">
       <c r="A33" s="66" t="s">
         <v>123</v>
       </c>
@@ -11411,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="80">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J33" s="80">
         <v>0</v>
@@ -11504,10 +11536,10 @@
         <v>126</v>
       </c>
       <c r="AO33" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ33" s="89">
         <v>0</v>
@@ -11522,8 +11554,9 @@
         <v>2</v>
       </c>
       <c r="AU33" s="90"/>
-    </row>
-    <row r="34" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV33" s="90"/>
+    </row>
+    <row r="34" spans="1:48" ht="17.25" customHeight="1">
       <c r="A34" s="66" t="s">
         <v>127</v>
       </c>
@@ -11549,7 +11582,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="80">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J34" s="80">
         <v>0</v>
@@ -11642,10 +11675,10 @@
         <v>130</v>
       </c>
       <c r="AO34" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ34" s="89">
         <v>0</v>
@@ -11660,8 +11693,9 @@
         <v>0</v>
       </c>
       <c r="AU34" s="90"/>
-    </row>
-    <row r="35" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV34" s="90"/>
+    </row>
+    <row r="35" spans="1:48" ht="17.25" customHeight="1">
       <c r="A35" s="66" t="s">
         <v>131</v>
       </c>
@@ -11687,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="80">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J35" s="80">
         <v>21</v>
@@ -11780,10 +11814,10 @@
         <v>134</v>
       </c>
       <c r="AO35" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ35" s="89">
         <v>0</v>
@@ -11798,8 +11832,9 @@
         <v>0</v>
       </c>
       <c r="AU35" s="90"/>
-    </row>
-    <row r="36" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV35" s="90"/>
+    </row>
+    <row r="36" spans="1:48" ht="17.25" customHeight="1">
       <c r="A36" s="66" t="s">
         <v>135</v>
       </c>
@@ -11825,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="80">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J36" s="80">
         <v>26</v>
@@ -11918,10 +11953,10 @@
         <v>137</v>
       </c>
       <c r="AO36" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ36" s="89">
         <v>0</v>
@@ -11936,8 +11971,9 @@
         <v>0</v>
       </c>
       <c r="AU36" s="90"/>
-    </row>
-    <row r="37" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV36" s="90"/>
+    </row>
+    <row r="37" spans="1:48" ht="17.25" customHeight="1">
       <c r="A37" s="66" t="s">
         <v>138</v>
       </c>
@@ -11963,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J37" s="80">
         <v>0</v>
@@ -12056,10 +12092,10 @@
         <v>141</v>
       </c>
       <c r="AO37" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ37" s="89">
         <v>0</v>
@@ -12074,8 +12110,9 @@
         <v>0</v>
       </c>
       <c r="AU37" s="90"/>
-    </row>
-    <row r="38" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV37" s="90"/>
+    </row>
+    <row r="38" spans="1:48" ht="17.25" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>142</v>
       </c>
@@ -12101,7 +12138,7 @@
         <v>15</v>
       </c>
       <c r="I38" s="80">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J38" s="80">
         <v>0</v>
@@ -12194,10 +12231,10 @@
         <v>145</v>
       </c>
       <c r="AO38" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ38" s="89">
         <v>0</v>
@@ -12212,8 +12249,9 @@
         <v>0</v>
       </c>
       <c r="AU38" s="90"/>
-    </row>
-    <row r="39" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV38" s="90"/>
+    </row>
+    <row r="39" spans="1:48" ht="17.25" customHeight="1">
       <c r="A39" s="66" t="s">
         <v>146</v>
       </c>
@@ -12239,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J39" s="80">
         <v>15</v>
@@ -12332,10 +12370,10 @@
         <v>149</v>
       </c>
       <c r="AO39" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ39" s="89">
         <v>0</v>
@@ -12350,8 +12388,9 @@
         <v>0</v>
       </c>
       <c r="AU39" s="90"/>
-    </row>
-    <row r="40" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV39" s="90"/>
+    </row>
+    <row r="40" spans="1:48" ht="17.25" customHeight="1">
       <c r="A40" s="66" t="s">
         <v>150</v>
       </c>
@@ -12377,7 +12416,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="80">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J40" s="80">
         <v>0</v>
@@ -12470,10 +12509,10 @@
         <v>153</v>
       </c>
       <c r="AO40" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ40" s="89">
         <v>0</v>
@@ -12488,8 +12527,9 @@
         <v>2</v>
       </c>
       <c r="AU40" s="90"/>
-    </row>
-    <row r="41" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV40" s="90"/>
+    </row>
+    <row r="41" spans="1:48" ht="17.25" customHeight="1">
       <c r="A41" s="66" t="s">
         <v>154</v>
       </c>
@@ -12515,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J41" s="80">
         <v>15</v>
@@ -12608,10 +12648,10 @@
         <v>157</v>
       </c>
       <c r="AO41" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ41" s="89">
         <v>0</v>
@@ -12626,8 +12666,9 @@
         <v>0</v>
       </c>
       <c r="AU41" s="90"/>
-    </row>
-    <row r="42" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV41" s="90"/>
+    </row>
+    <row r="42" spans="1:48" ht="17.25" customHeight="1">
       <c r="A42" s="66" t="s">
         <v>158</v>
       </c>
@@ -12653,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J42" s="80">
         <v>36</v>
@@ -12746,10 +12787,10 @@
         <v>161</v>
       </c>
       <c r="AO42" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP42" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ42" s="89">
         <v>0</v>
@@ -12764,8 +12805,9 @@
         <v>0</v>
       </c>
       <c r="AU42" s="90"/>
-    </row>
-    <row r="43" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV42" s="90"/>
+    </row>
+    <row r="43" spans="1:48" ht="17.25" customHeight="1">
       <c r="A43" s="66" t="s">
         <v>162</v>
       </c>
@@ -12791,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J43" s="80">
         <v>0</v>
@@ -12884,10 +12926,10 @@
         <v>165</v>
       </c>
       <c r="AO43" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP43" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ43" s="89">
         <v>0</v>
@@ -12902,8 +12944,9 @@
         <v>0</v>
       </c>
       <c r="AU43" s="90"/>
-    </row>
-    <row r="44" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV43" s="90"/>
+    </row>
+    <row r="44" spans="1:48" ht="17.25" customHeight="1">
       <c r="A44" s="66" t="s">
         <v>166</v>
       </c>
@@ -12929,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J44" s="80">
         <v>0</v>
@@ -13022,10 +13065,10 @@
         <v>168</v>
       </c>
       <c r="AO44" s="89">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="89">
         <v>3</v>
-      </c>
-      <c r="AP44" s="89">
-        <v>5</v>
       </c>
       <c r="AQ44" s="89">
         <v>1</v>
@@ -13040,8 +13083,9 @@
         <v>0</v>
       </c>
       <c r="AU44" s="90"/>
-    </row>
-    <row r="45" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV44" s="90"/>
+    </row>
+    <row r="45" spans="1:48" ht="17.25" customHeight="1">
       <c r="A45" s="66" t="s">
         <v>169</v>
       </c>
@@ -13067,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J45" s="80">
         <v>0</v>
@@ -13160,10 +13204,10 @@
         <v>172</v>
       </c>
       <c r="AO45" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ45" s="89">
         <v>0</v>
@@ -13178,8 +13222,9 @@
         <v>0</v>
       </c>
       <c r="AU45" s="90"/>
-    </row>
-    <row r="46" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV45" s="90"/>
+    </row>
+    <row r="46" spans="1:48" ht="17.25" customHeight="1">
       <c r="A46" s="66" t="s">
         <v>173</v>
       </c>
@@ -13205,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J46" s="80">
         <v>0</v>
@@ -13298,10 +13343,10 @@
         <v>176</v>
       </c>
       <c r="AO46" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ46" s="89">
         <v>0</v>
@@ -13316,8 +13361,9 @@
         <v>0</v>
       </c>
       <c r="AU46" s="90"/>
-    </row>
-    <row r="47" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV46" s="90"/>
+    </row>
+    <row r="47" spans="1:48" ht="17.25" customHeight="1">
       <c r="A47" s="66" t="s">
         <v>177</v>
       </c>
@@ -13343,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J47" s="80">
         <v>24</v>
@@ -13436,10 +13482,10 @@
         <v>180</v>
       </c>
       <c r="AO47" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ47" s="89">
         <v>0</v>
@@ -13454,8 +13500,9 @@
         <v>0</v>
       </c>
       <c r="AU47" s="90"/>
-    </row>
-    <row r="48" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV47" s="90"/>
+    </row>
+    <row r="48" spans="1:48" ht="17.25" customHeight="1">
       <c r="A48" s="66" t="s">
         <v>181</v>
       </c>
@@ -13481,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="80">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J48" s="80">
         <v>0</v>
@@ -13574,10 +13621,10 @@
         <v>184</v>
       </c>
       <c r="AO48" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ48" s="89">
         <v>0</v>
@@ -13592,8 +13639,9 @@
         <v>0</v>
       </c>
       <c r="AU48" s="90"/>
-    </row>
-    <row r="49" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV48" s="90"/>
+    </row>
+    <row r="49" spans="1:48" ht="17.25" customHeight="1">
       <c r="A49" s="66" t="s">
         <v>185</v>
       </c>
@@ -13619,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="80">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J49" s="80">
         <v>0</v>
@@ -13712,10 +13760,10 @@
         <v>188</v>
       </c>
       <c r="AO49" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ49" s="89">
         <v>0</v>
@@ -13730,8 +13778,9 @@
         <v>0</v>
       </c>
       <c r="AU49" s="90"/>
-    </row>
-    <row r="50" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV49" s="90"/>
+    </row>
+    <row r="50" spans="1:48" ht="17.25" customHeight="1">
       <c r="A50" s="66" t="s">
         <v>189</v>
       </c>
@@ -13757,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="80">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J50" s="80">
         <v>28</v>
@@ -13850,10 +13899,10 @@
         <v>192</v>
       </c>
       <c r="AO50" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ50" s="89">
         <v>0</v>
@@ -13868,8 +13917,9 @@
         <v>0</v>
       </c>
       <c r="AU50" s="90"/>
-    </row>
-    <row r="51" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV50" s="90"/>
+    </row>
+    <row r="51" spans="1:48" ht="17.25" customHeight="1">
       <c r="A51" s="66" t="s">
         <v>193</v>
       </c>
@@ -13895,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J51" s="80">
         <v>0</v>
@@ -13988,10 +14038,10 @@
         <v>196</v>
       </c>
       <c r="AO51" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ51" s="89">
         <v>0</v>
@@ -14006,8 +14056,9 @@
         <v>0</v>
       </c>
       <c r="AU51" s="90"/>
-    </row>
-    <row r="52" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV51" s="90"/>
+    </row>
+    <row r="52" spans="1:48" ht="17.25" customHeight="1">
       <c r="A52" s="66" t="s">
         <v>197</v>
       </c>
@@ -14033,7 +14084,7 @@
         <v>18</v>
       </c>
       <c r="I52" s="80">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J52" s="80">
         <v>0</v>
@@ -14126,10 +14177,10 @@
         <v>200</v>
       </c>
       <c r="AO52" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ52" s="89">
         <v>0</v>
@@ -14144,8 +14195,9 @@
         <v>0</v>
       </c>
       <c r="AU52" s="90"/>
-    </row>
-    <row r="53" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV52" s="90"/>
+    </row>
+    <row r="53" spans="1:48" ht="17.25" customHeight="1">
       <c r="A53" s="66" t="s">
         <v>201</v>
       </c>
@@ -14171,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J53" s="80">
         <v>22</v>
@@ -14264,10 +14316,10 @@
         <v>204</v>
       </c>
       <c r="AO53" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ53" s="89">
         <v>0</v>
@@ -14282,8 +14334,9 @@
         <v>0</v>
       </c>
       <c r="AU53" s="90"/>
-    </row>
-    <row r="54" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV53" s="90"/>
+    </row>
+    <row r="54" spans="1:48" ht="17.25" customHeight="1">
       <c r="A54" s="66" t="s">
         <v>205</v>
       </c>
@@ -14309,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="80">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J54" s="80">
         <v>32</v>
@@ -14402,10 +14455,10 @@
         <v>207</v>
       </c>
       <c r="AO54" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ54" s="89">
         <v>0</v>
@@ -14420,8 +14473,9 @@
         <v>0</v>
       </c>
       <c r="AU54" s="90"/>
-    </row>
-    <row r="55" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV54" s="90"/>
+    </row>
+    <row r="55" spans="1:48" ht="17.25" customHeight="1">
       <c r="A55" s="66" t="s">
         <v>208</v>
       </c>
@@ -14447,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J55" s="80">
         <v>0</v>
@@ -14540,10 +14594,10 @@
         <v>211</v>
       </c>
       <c r="AO55" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ55" s="89">
         <v>0</v>
@@ -14558,8 +14612,9 @@
         <v>0</v>
       </c>
       <c r="AU55" s="90"/>
-    </row>
-    <row r="56" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV55" s="90"/>
+    </row>
+    <row r="56" spans="1:48" ht="17.25" customHeight="1">
       <c r="A56" s="66" t="s">
         <v>212</v>
       </c>
@@ -14585,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="80">
-        <v>31.3</v>
+        <v>26.3</v>
       </c>
       <c r="J56" s="80">
         <v>0</v>
@@ -14678,10 +14733,10 @@
         <v>215</v>
       </c>
       <c r="AO56" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ56" s="89">
         <v>0</v>
@@ -14696,8 +14751,9 @@
         <v>0</v>
       </c>
       <c r="AU56" s="90"/>
-    </row>
-    <row r="57" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV56" s="90"/>
+    </row>
+    <row r="57" spans="1:48" ht="17.25" customHeight="1">
       <c r="A57" s="66" t="s">
         <v>216</v>
       </c>
@@ -14723,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J57" s="80">
         <v>27</v>
@@ -14816,10 +14872,10 @@
         <v>219</v>
       </c>
       <c r="AO57" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ57" s="89">
         <v>0</v>
@@ -14834,8 +14890,9 @@
         <v>0</v>
       </c>
       <c r="AU57" s="90"/>
-    </row>
-    <row r="58" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV57" s="90"/>
+    </row>
+    <row r="58" spans="1:48" ht="17.25" customHeight="1">
       <c r="A58" s="66" t="s">
         <v>220</v>
       </c>
@@ -14861,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J58" s="80">
         <v>0</v>
@@ -14954,10 +15011,10 @@
         <v>223</v>
       </c>
       <c r="AO58" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ58" s="89">
         <v>0</v>
@@ -14972,8 +15029,9 @@
         <v>0</v>
       </c>
       <c r="AU58" s="90"/>
-    </row>
-    <row r="59" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV58" s="90"/>
+    </row>
+    <row r="59" spans="1:48" ht="17.25" customHeight="1">
       <c r="A59" s="66" t="s">
         <v>224</v>
       </c>
@@ -14999,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J59" s="80">
         <v>45</v>
@@ -15092,11 +15150,11 @@
         <v>227</v>
       </c>
       <c r="AO59" s="89">
+        <v>3</v>
+      </c>
+      <c r="AP59" s="89">
         <v>5</v>
       </c>
-      <c r="AP59" s="89">
-        <v>7</v>
-      </c>
       <c r="AQ59" s="89">
         <v>0</v>
       </c>
@@ -15110,8 +15168,9 @@
         <v>0</v>
       </c>
       <c r="AU59" s="90"/>
-    </row>
-    <row r="60" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV59" s="90"/>
+    </row>
+    <row r="60" spans="1:48" ht="17.25" customHeight="1">
       <c r="A60" s="66" t="s">
         <v>228</v>
       </c>
@@ -15137,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="80">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J60" s="80">
         <v>0</v>
@@ -15230,10 +15289,10 @@
         <v>230</v>
       </c>
       <c r="AO60" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ60" s="89">
         <v>0</v>
@@ -15248,8 +15307,9 @@
         <v>0</v>
       </c>
       <c r="AU60" s="90"/>
-    </row>
-    <row r="61" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV60" s="90"/>
+    </row>
+    <row r="61" spans="1:48" ht="17.25" customHeight="1">
       <c r="A61" s="66" t="s">
         <v>231</v>
       </c>
@@ -15275,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J61" s="80">
         <v>13</v>
@@ -15368,10 +15428,10 @@
         <v>234</v>
       </c>
       <c r="AO61" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ61" s="89">
         <v>0</v>
@@ -15386,8 +15446,9 @@
         <v>0</v>
       </c>
       <c r="AU61" s="90"/>
-    </row>
-    <row r="62" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV61" s="90"/>
+    </row>
+    <row r="62" spans="1:48" ht="17.25" customHeight="1">
       <c r="A62" s="66" t="s">
         <v>235</v>
       </c>
@@ -15413,7 +15474,7 @@
         <v>14</v>
       </c>
       <c r="I62" s="80">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J62" s="80">
         <v>0</v>
@@ -15506,10 +15567,10 @@
         <v>237</v>
       </c>
       <c r="AO62" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ62" s="89">
         <v>0</v>
@@ -15524,8 +15585,9 @@
         <v>2</v>
       </c>
       <c r="AU62" s="90"/>
-    </row>
-    <row r="63" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV62" s="90"/>
+    </row>
+    <row r="63" spans="1:48" ht="17.25" customHeight="1">
       <c r="A63" s="66" t="s">
         <v>238</v>
       </c>
@@ -15551,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="80">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J63" s="80">
         <v>0</v>
@@ -15644,10 +15706,10 @@
         <v>240</v>
       </c>
       <c r="AO63" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ63" s="89">
         <v>0</v>
@@ -15662,8 +15724,9 @@
         <v>0</v>
       </c>
       <c r="AU63" s="90"/>
-    </row>
-    <row r="64" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV63" s="90"/>
+    </row>
+    <row r="64" spans="1:48" ht="17.25" customHeight="1">
       <c r="A64" s="66" t="s">
         <v>241</v>
       </c>
@@ -15689,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J64" s="80">
         <v>16</v>
@@ -15782,10 +15845,10 @@
         <v>244</v>
       </c>
       <c r="AO64" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ64" s="89">
         <v>0</v>
@@ -15800,8 +15863,9 @@
         <v>0</v>
       </c>
       <c r="AU64" s="90"/>
-    </row>
-    <row r="65" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV64" s="90"/>
+    </row>
+    <row r="65" spans="1:48" ht="17.25" customHeight="1">
       <c r="A65" s="66" t="s">
         <v>245</v>
       </c>
@@ -15827,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J65" s="80">
         <v>0</v>
@@ -15920,10 +15984,10 @@
         <v>248</v>
       </c>
       <c r="AO65" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ65" s="89">
         <v>0</v>
@@ -15938,8 +16002,9 @@
         <v>0</v>
       </c>
       <c r="AU65" s="90"/>
-    </row>
-    <row r="66" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV65" s="90"/>
+    </row>
+    <row r="66" spans="1:48" ht="17.25" customHeight="1">
       <c r="A66" s="66" t="s">
         <v>249</v>
       </c>
@@ -15965,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="80">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J66" s="80">
         <v>0</v>
@@ -16058,10 +16123,10 @@
         <v>251</v>
       </c>
       <c r="AO66" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ66" s="89">
         <v>0</v>
@@ -16076,8 +16141,9 @@
         <v>0</v>
       </c>
       <c r="AU66" s="90"/>
-    </row>
-    <row r="67" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV66" s="90"/>
+    </row>
+    <row r="67" spans="1:48" ht="17.25" customHeight="1">
       <c r="A67" s="66" t="s">
         <v>252</v>
       </c>
@@ -16103,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J67" s="80">
         <v>0</v>
@@ -16196,10 +16262,10 @@
         <v>255</v>
       </c>
       <c r="AO67" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ67" s="89">
         <v>0</v>
@@ -16214,8 +16280,9 @@
         <v>0</v>
       </c>
       <c r="AU67" s="90"/>
-    </row>
-    <row r="68" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV67" s="90"/>
+    </row>
+    <row r="68" spans="1:48" ht="17.25" customHeight="1">
       <c r="A68" s="66" t="s">
         <v>256</v>
       </c>
@@ -16241,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J68" s="80">
         <v>10</v>
@@ -16334,10 +16401,10 @@
         <v>259</v>
       </c>
       <c r="AO68" s="89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP68" s="89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ68" s="89">
         <v>1</v>
@@ -16352,8 +16419,9 @@
         <v>1</v>
       </c>
       <c r="AU68" s="90"/>
-    </row>
-    <row r="69" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV68" s="90"/>
+    </row>
+    <row r="69" spans="1:48" ht="17.25" customHeight="1">
       <c r="A69" s="66" t="s">
         <v>260</v>
       </c>
@@ -16379,7 +16447,7 @@
         <v>14</v>
       </c>
       <c r="I69" s="80">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J69" s="80">
         <v>0</v>
@@ -16472,10 +16540,10 @@
         <v>263</v>
       </c>
       <c r="AO69" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP69" s="89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ69" s="89">
         <v>0</v>
@@ -16490,8 +16558,9 @@
         <v>2</v>
       </c>
       <c r="AU69" s="90"/>
-    </row>
-    <row r="70" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV69" s="90"/>
+    </row>
+    <row r="70" spans="1:48" ht="17.25" customHeight="1">
       <c r="A70" s="66" t="s">
         <v>264</v>
       </c>
@@ -16517,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="80">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J70" s="80">
         <v>0</v>
@@ -16610,10 +16679,10 @@
         <v>267</v>
       </c>
       <c r="AO70" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP70" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ70" s="89">
         <v>0</v>
@@ -16628,8 +16697,9 @@
         <v>0</v>
       </c>
       <c r="AU70" s="90"/>
-    </row>
-    <row r="71" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV70" s="90"/>
+    </row>
+    <row r="71" spans="1:48" ht="17.25" customHeight="1">
       <c r="A71" s="66" t="s">
         <v>268</v>
       </c>
@@ -16655,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J71" s="80">
         <v>23</v>
@@ -16748,10 +16818,10 @@
         <v>271</v>
       </c>
       <c r="AO71" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP71" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ71" s="89">
         <v>0</v>
@@ -16766,8 +16836,9 @@
         <v>0</v>
       </c>
       <c r="AU71" s="90"/>
-    </row>
-    <row r="72" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV71" s="90"/>
+    </row>
+    <row r="72" spans="1:48" ht="17.25" customHeight="1">
       <c r="A72" s="66" t="s">
         <v>272</v>
       </c>
@@ -16793,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J72" s="80">
         <v>0</v>
@@ -16886,10 +16957,10 @@
         <v>275</v>
       </c>
       <c r="AO72" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP72" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ72" s="89">
         <v>0</v>
@@ -16904,8 +16975,9 @@
         <v>0</v>
       </c>
       <c r="AU72" s="90"/>
-    </row>
-    <row r="73" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV72" s="90"/>
+    </row>
+    <row r="73" spans="1:48" ht="17.25" customHeight="1">
       <c r="A73" s="66" t="s">
         <v>276</v>
       </c>
@@ -16931,7 +17003,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="80">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J73" s="80">
         <v>0</v>
@@ -17024,10 +17096,10 @@
         <v>279</v>
       </c>
       <c r="AO73" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP73" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ73" s="89">
         <v>0</v>
@@ -17042,8 +17114,9 @@
         <v>0</v>
       </c>
       <c r="AU73" s="90"/>
-    </row>
-    <row r="74" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV73" s="90"/>
+    </row>
+    <row r="74" spans="1:48" ht="17.25" customHeight="1">
       <c r="A74" s="66" t="s">
         <v>280</v>
       </c>
@@ -17069,7 +17142,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J74" s="80">
         <v>0</v>
@@ -17162,10 +17235,10 @@
         <v>283</v>
       </c>
       <c r="AO74" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ74" s="89">
         <v>0</v>
@@ -17180,8 +17253,9 @@
         <v>0</v>
       </c>
       <c r="AU74" s="90"/>
-    </row>
-    <row r="75" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV74" s="90"/>
+    </row>
+    <row r="75" spans="1:48" ht="17.25" customHeight="1">
       <c r="A75" s="66" t="s">
         <v>284</v>
       </c>
@@ -17207,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J75" s="80">
         <v>22</v>
@@ -17300,10 +17374,10 @@
         <v>287</v>
       </c>
       <c r="AO75" s="89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP75" s="89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ75" s="89">
         <v>0</v>
@@ -17318,12 +17392,13 @@
         <v>0</v>
       </c>
       <c r="AU75" s="90"/>
-    </row>
-    <row r="76" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AV75" s="90"/>
+    </row>
+    <row r="76" spans="1:48" ht="17.25" customHeight="1">
       <c r="A76" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="B76" s="160" t="s">
+      <c r="B76" s="155" t="s">
         <v>1496</v>
       </c>
       <c r="C76" s="80">
@@ -17455,8 +17530,10 @@
       <c r="AT76" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AU76" s="90"/>
+      <c r="AV76" s="90"/>
+    </row>
+    <row r="77" spans="1:48" ht="17.25" customHeight="1">
       <c r="A77" s="40" t="s">
         <v>292</v>
       </c>
@@ -17592,8 +17669,10 @@
       <c r="AT77" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:47" ht="17.25" customHeight="1">
+      <c r="AU77" s="90"/>
+      <c r="AV77" s="90"/>
+    </row>
+    <row r="78" spans="1:48" ht="17.25" customHeight="1">
       <c r="A78" s="40" t="s">
         <v>296</v>
       </c>
@@ -17730,7 +17809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="17.25" customHeight="1">
+    <row r="79" spans="1:48" ht="17.25" customHeight="1">
       <c r="A79" s="40" t="s">
         <v>300</v>
       </c>
@@ -17867,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:47" ht="17.25" customHeight="1">
+    <row r="80" spans="1:48" ht="17.25" customHeight="1">
       <c r="A80" s="40" t="s">
         <v>304</v>
       </c>
@@ -20611,7 +20690,7 @@
       <c r="A100" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="B100" s="163" t="s">
+      <c r="B100" s="158" t="s">
         <v>1539</v>
       </c>
       <c r="C100" s="80">
@@ -21570,7 +21649,7 @@
       <c r="A107" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="B107" s="163" t="s">
+      <c r="B107" s="158" t="s">
         <v>1559</v>
       </c>
       <c r="C107" s="80">
@@ -21981,7 +22060,7 @@
       <c r="A110" s="40" t="s">
         <v>1527</v>
       </c>
-      <c r="B110" s="167" t="s">
+      <c r="B110" s="162" t="s">
         <v>1537</v>
       </c>
       <c r="C110" s="80">
@@ -22118,7 +22197,7 @@
       <c r="A111" s="40" t="s">
         <v>1507</v>
       </c>
-      <c r="B111" s="163" t="s">
+      <c r="B111" s="158" t="s">
         <v>1536</v>
       </c>
       <c r="C111" s="80">
@@ -22255,7 +22334,7 @@
       <c r="A112" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="B112" s="160" t="s">
+      <c r="B112" s="155" t="s">
         <v>1534</v>
       </c>
       <c r="C112" s="80">
@@ -22392,7 +22471,7 @@
       <c r="A113" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="B113" s="166" t="s">
+      <c r="B113" s="161" t="s">
         <v>1535</v>
       </c>
       <c r="C113" s="80">
@@ -23893,7 +23972,7 @@
       <c r="A124" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="B124" s="166" t="s">
+      <c r="B124" s="161" t="s">
         <v>1523</v>
       </c>
       <c r="C124" s="80">
@@ -24304,7 +24383,7 @@
       <c r="A127" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="B127" s="160" t="s">
+      <c r="B127" s="155" t="s">
         <v>1540</v>
       </c>
       <c r="C127" s="80">
@@ -24441,7 +24520,7 @@
       <c r="A128" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="B128" s="160" t="s">
+      <c r="B128" s="155" t="s">
         <v>1524</v>
       </c>
       <c r="C128" s="80">
@@ -24578,7 +24657,7 @@
       <c r="A129" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="B129" s="163" t="s">
+      <c r="B129" s="158" t="s">
         <v>1547</v>
       </c>
       <c r="C129" s="80">
@@ -24852,7 +24931,7 @@
       <c r="A131" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="B131" s="166" t="s">
+      <c r="B131" s="161" t="s">
         <v>1526</v>
       </c>
       <c r="C131" s="80">
@@ -24989,7 +25068,7 @@
       <c r="A132" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="B132" s="166" t="s">
+      <c r="B132" s="161" t="s">
         <v>1525</v>
       </c>
       <c r="C132" s="80">
@@ -25531,7 +25610,7 @@
       <c r="A136" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="B136" s="163" t="s">
+      <c r="B136" s="158" t="s">
         <v>1538</v>
       </c>
       <c r="C136" s="80">
@@ -28266,7 +28345,7 @@
       <c r="A156" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="B156" s="163" t="s">
+      <c r="B156" s="158" t="s">
         <v>1531</v>
       </c>
       <c r="C156" s="80">
@@ -28540,7 +28619,7 @@
       <c r="A158" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="B158" s="160" t="s">
+      <c r="B158" s="155" t="s">
         <v>1529</v>
       </c>
       <c r="C158" s="80">
@@ -31137,7 +31216,7 @@
       <c r="A177" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="B177" s="160" t="s">
+      <c r="B177" s="155" t="s">
         <v>1550</v>
       </c>
       <c r="C177" s="80">
@@ -31548,7 +31627,7 @@
       <c r="A180" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="B180" s="163" t="s">
+      <c r="B180" s="158" t="s">
         <v>1541</v>
       </c>
       <c r="C180" s="80">
@@ -31959,7 +32038,7 @@
       <c r="A183" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="B183" s="163" t="s">
+      <c r="B183" s="158" t="s">
         <v>1551</v>
       </c>
       <c r="C183" s="80">
@@ -32775,7 +32854,7 @@
       <c r="A189" s="40" t="s">
         <v>730</v>
       </c>
-      <c r="B189" s="166" t="s">
+      <c r="B189" s="161" t="s">
         <v>1560</v>
       </c>
       <c r="C189" s="80">
@@ -35783,7 +35862,7 @@
       <c r="A211" s="40" t="s">
         <v>816</v>
       </c>
-      <c r="B211" s="160" t="s">
+      <c r="B211" s="155" t="s">
         <v>1532</v>
       </c>
       <c r="C211" s="80">
@@ -36188,7 +36267,7 @@
       <c r="A214" s="40" t="s">
         <v>826</v>
       </c>
-      <c r="B214" s="163" t="s">
+      <c r="B214" s="158" t="s">
         <v>1552</v>
       </c>
       <c r="C214" s="80">
@@ -36462,7 +36541,7 @@
       <c r="A216" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="B216" s="163" t="s">
+      <c r="B216" s="158" t="s">
         <v>1544</v>
       </c>
       <c r="C216" s="80">
@@ -37010,7 +37089,7 @@
       <c r="A220" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="B220" s="160" t="s">
+      <c r="B220" s="155" t="s">
         <v>1545</v>
       </c>
       <c r="C220" s="80">
@@ -37689,7 +37768,7 @@
       <c r="A225" s="40" t="s">
         <v>868</v>
       </c>
-      <c r="B225" s="160" t="s">
+      <c r="B225" s="155" t="s">
         <v>1546</v>
       </c>
       <c r="C225" s="80">
@@ -38237,7 +38316,7 @@
       <c r="A229" s="40" t="s">
         <v>884</v>
       </c>
-      <c r="B229" s="163" t="s">
+      <c r="B229" s="158" t="s">
         <v>1533</v>
       </c>
       <c r="C229" s="80">
@@ -40417,7 +40496,7 @@
       <c r="A245" s="40" t="s">
         <v>944</v>
       </c>
-      <c r="B245" s="164" t="s">
+      <c r="B245" s="159" t="s">
         <v>1521</v>
       </c>
       <c r="C245" s="80">
@@ -40691,7 +40770,7 @@
       <c r="A247" s="40" t="s">
         <v>1517</v>
       </c>
-      <c r="B247" s="163" t="s">
+      <c r="B247" s="158" t="s">
         <v>1518</v>
       </c>
       <c r="C247" s="80">
@@ -40965,7 +41044,7 @@
       <c r="A249" s="40" t="s">
         <v>1519</v>
       </c>
-      <c r="B249" s="163" t="s">
+      <c r="B249" s="158" t="s">
         <v>1520</v>
       </c>
       <c r="C249" s="80">
@@ -41239,7 +41318,7 @@
       <c r="A251" s="40" t="s">
         <v>1505</v>
       </c>
-      <c r="B251" s="160" t="s">
+      <c r="B251" s="155" t="s">
         <v>1516</v>
       </c>
       <c r="C251" s="80">
@@ -41513,7 +41592,7 @@
       <c r="A253" s="40" t="s">
         <v>976</v>
       </c>
-      <c r="B253" s="163" t="s">
+      <c r="B253" s="158" t="s">
         <v>1514</v>
       </c>
       <c r="C253" s="80">
@@ -41650,7 +41729,7 @@
       <c r="A254" s="40" t="s">
         <v>980</v>
       </c>
-      <c r="B254" s="163" t="s">
+      <c r="B254" s="158" t="s">
         <v>1513</v>
       </c>
       <c r="C254" s="80">
@@ -41787,7 +41866,7 @@
       <c r="A255" s="40" t="s">
         <v>1504</v>
       </c>
-      <c r="B255" s="163" t="s">
+      <c r="B255" s="158" t="s">
         <v>1515</v>
       </c>
       <c r="C255" s="80">
@@ -41924,7 +42003,7 @@
       <c r="A256" s="40" t="s">
         <v>988</v>
       </c>
-      <c r="B256" s="165" t="s">
+      <c r="B256" s="160" t="s">
         <v>1522</v>
       </c>
       <c r="C256" s="80">
@@ -50595,7 +50674,7 @@
       <c r="A340" s="67" t="s">
         <v>1192</v>
       </c>
-      <c r="B340" s="161" t="s">
+      <c r="B340" s="156" t="s">
         <v>1497</v>
       </c>
       <c r="C340" s="98">
@@ -51816,10 +51895,10 @@
       </c>
     </row>
     <row r="352" spans="1:46" ht="14.25" customHeight="1">
-      <c r="A352" s="162" t="s">
+      <c r="A352" s="157" t="s">
         <v>1499</v>
       </c>
-      <c r="B352" s="162" t="s">
+      <c r="B352" s="157" t="s">
         <v>1500</v>
       </c>
       <c r="C352" s="39" t="s">
@@ -63467,16 +63546,16 @@
       <c r="D2" s="133">
         <v>0</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="163" t="s">
         <v>1272</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="155" t="s">
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="163" t="s">
         <v>1273</v>
       </c>
-      <c r="J2" s="157"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="135">
         <v>30</v>
       </c>
@@ -90290,22 +90369,22 @@
       <c r="A66" s="12" t="s">
         <v>1389</v>
       </c>
-      <c r="O66" s="158" t="s">
+      <c r="O66" s="166" t="s">
         <v>1311</v>
       </c>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="159"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="159"/>
-      <c r="U66" s="158" t="s">
+      <c r="P66" s="167"/>
+      <c r="Q66" s="167"/>
+      <c r="R66" s="167"/>
+      <c r="S66" s="167"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="166" t="s">
         <v>1313</v>
       </c>
-      <c r="V66" s="159"/>
-      <c r="W66" s="159"/>
-      <c r="X66" s="159"/>
-      <c r="Y66" s="159"/>
-      <c r="Z66" s="159"/>
+      <c r="V66" s="167"/>
+      <c r="W66" s="167"/>
+      <c r="X66" s="167"/>
+      <c r="Y66" s="167"/>
+      <c r="Z66" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1BD9F-48AE-459A-96C5-256D7F6A90D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3AC69-6626-4E98-9307-B76EB2C95430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1641">
   <si>
     <t>111001</t>
   </si>
@@ -5496,6 +5496,244 @@
     <t>战戟-沙岩幻戟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>套装编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬愤怒-102</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-103</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-104</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-105</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-106</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-107</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-108</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-109</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-110</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-111</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-112</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-113</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-114</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-115</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-116</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-117</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-118</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-119</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-120</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-121</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-122</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-123</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-124</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-125</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-126</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-127</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-128</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-129</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-130</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-131</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-132</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-133</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-134</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-135</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-136</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-137</t>
+  </si>
+  <si>
+    <t>吞噬愤怒-138</t>
+  </si>
 </sst>
 </file>
 
@@ -5508,7 +5746,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5770,6 +6008,13 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -6121,7 +6366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -6583,6 +6828,9 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6922,10 +7170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV370"/>
+  <dimension ref="A1:AV399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -53097,7 +53345,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:9" ht="14.25" customHeight="1">
+    <row r="361" spans="1:46" ht="15" customHeight="1">
+      <c r="A361" s="163" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B361" s="157" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="362" spans="1:46" ht="15" customHeight="1">
+      <c r="A362" s="40" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B362" s="157" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="363" spans="1:46" ht="15" customHeight="1">
+      <c r="A363" s="40" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B363" s="157" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="364" spans="1:46" ht="15" customHeight="1">
+      <c r="A364" s="40" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B364" s="157" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="365" spans="1:46" ht="15" customHeight="1">
+      <c r="A365" s="40" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B365" s="157" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="366" spans="1:46" ht="15" customHeight="1">
+      <c r="A366" s="40" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B366" s="157" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="367" spans="1:46" ht="15" customHeight="1">
+      <c r="A367" s="40" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B367" s="157" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="368" spans="1:46" ht="15" customHeight="1">
+      <c r="A368" s="40" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B368" s="157" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A369" s="40" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B369" s="157" t="s">
+        <v>1610</v>
+      </c>
       <c r="C369" s="115" t="s">
         <v>1227</v>
       </c>
@@ -53108,7 +53426,13 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="370" spans="3:9" ht="14.25" customHeight="1">
+    <row r="370" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A370" s="40" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B370" s="157" t="s">
+        <v>1611</v>
+      </c>
       <c r="C370" s="116">
         <v>500</v>
       </c>
@@ -53117,6 +53441,238 @@
       </c>
       <c r="I370" s="116">
         <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="15" customHeight="1">
+      <c r="A371" s="40" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B371" s="157" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="15" customHeight="1">
+      <c r="A372" s="40" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B372" s="157" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="15" customHeight="1">
+      <c r="A373" s="40" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B373" s="157" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="15" customHeight="1">
+      <c r="A374" s="40" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B374" s="157" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="15" customHeight="1">
+      <c r="A375" s="40" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B375" s="157" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="15" customHeight="1">
+      <c r="A376" s="40" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B376" s="157" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="15" customHeight="1">
+      <c r="A377" s="40" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B377" s="157" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="15" customHeight="1">
+      <c r="A378" s="40" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B378" s="157" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="15" customHeight="1">
+      <c r="A379" s="40" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B379" s="157" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="15" customHeight="1">
+      <c r="A380" s="40" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B380" s="157" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="15" customHeight="1">
+      <c r="A381" s="40" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B381" s="157" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="15" customHeight="1">
+      <c r="A382" s="40" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B382" s="157" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="15" customHeight="1">
+      <c r="A383" s="40" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B383" s="157" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="15" customHeight="1">
+      <c r="A384" s="40" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B384" s="157" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15" customHeight="1">
+      <c r="A385" s="40" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B385" s="157" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15" customHeight="1">
+      <c r="A386" s="40" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B386" s="157" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15" customHeight="1">
+      <c r="A387" s="40" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B387" s="157" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15" customHeight="1">
+      <c r="A388" s="40" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B388" s="157" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15" customHeight="1">
+      <c r="A389" s="40" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B389" s="157" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15" customHeight="1">
+      <c r="A390" s="40" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B390" s="157" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15" customHeight="1">
+      <c r="A391" s="40" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B391" s="157" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15" customHeight="1">
+      <c r="A392" s="40" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B392" s="157" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15" customHeight="1">
+      <c r="A393" s="40" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B393" s="157" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15" customHeight="1">
+      <c r="A394" s="40" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B394" s="157" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15" customHeight="1">
+      <c r="A395" s="40" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B395" s="157" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15" customHeight="1">
+      <c r="A396" s="40" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B396" s="157" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15" customHeight="1">
+      <c r="A397" s="40" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B397" s="157" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15" customHeight="1">
+      <c r="A398" s="40" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B398" s="157" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15" customHeight="1">
+      <c r="A399" s="40" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B399" s="157" t="s">
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -63546,16 +64102,16 @@
       <c r="D2" s="133">
         <v>0</v>
       </c>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="164" t="s">
         <v>1272</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="163" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="164" t="s">
         <v>1273</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="166"/>
       <c r="K2" s="135">
         <v>30</v>
       </c>
@@ -90369,22 +90925,22 @@
       <c r="A66" s="12" t="s">
         <v>1389</v>
       </c>
-      <c r="O66" s="166" t="s">
+      <c r="O66" s="167" t="s">
         <v>1311</v>
       </c>
-      <c r="P66" s="167"/>
-      <c r="Q66" s="167"/>
-      <c r="R66" s="167"/>
-      <c r="S66" s="167"/>
-      <c r="T66" s="167"/>
-      <c r="U66" s="166" t="s">
+      <c r="P66" s="168"/>
+      <c r="Q66" s="168"/>
+      <c r="R66" s="168"/>
+      <c r="S66" s="168"/>
+      <c r="T66" s="168"/>
+      <c r="U66" s="167" t="s">
         <v>1313</v>
       </c>
-      <c r="V66" s="167"/>
-      <c r="W66" s="167"/>
-      <c r="X66" s="167"/>
-      <c r="Y66" s="167"/>
-      <c r="Z66" s="167"/>
+      <c r="V66" s="168"/>
+      <c r="W66" s="168"/>
+      <c r="X66" s="168"/>
+      <c r="Y66" s="168"/>
+      <c r="Z66" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB656E3C-EDED-46EB-B327-FA002D2BD28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86DE68-63F0-417E-AB0F-1BB3166481B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -6798,11 +6798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="94">
-        <v>59.9</v>
+        <v>53</v>
       </c>
       <c r="O10" s="95">
         <v>0</v>
       </c>
       <c r="P10" s="96">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="Q10" s="92">
         <v>0</v>
@@ -82734,7 +82734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86DE68-63F0-417E-AB0F-1BB3166481B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FE795-FEB6-4527-AD6E-91F68FBD746C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1716">
   <si>
     <t>装备编码</t>
   </si>
@@ -3788,9 +3788,6 @@
   </si>
   <si>
     <t>1360</t>
-  </si>
-  <si>
-    <t>传说防具2</t>
   </si>
   <si>
     <t>1361</t>
@@ -5219,6 +5216,10 @@
   </si>
   <si>
     <t>铁血统帅</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者2</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -6799,10 +6800,10 @@
   <dimension ref="A1:AV401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -6985,7 +6986,7 @@
     </row>
     <row r="2" spans="1:48" ht="17.25" customHeight="1">
       <c r="A2" s="57" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>96</v>
@@ -8934,7 +8935,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C16" s="90">
         <v>500</v>
@@ -9042,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="41" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AN16" s="43" t="s">
         <v>98</v>
@@ -17409,7 +17410,7 @@
     </row>
     <row r="77" spans="1:48" ht="17.25" customHeight="1">
       <c r="A77" s="57" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>340</v>
@@ -49807,7 +49808,7 @@
         <v>1214</v>
       </c>
       <c r="B332" s="67" t="s">
-        <v>1215</v>
+        <v>1715</v>
       </c>
       <c r="C332" s="110">
         <v>0</v>
@@ -51234,9 +51235,7 @@
       <c r="A346" s="58" t="s">
         <v>1242</v>
       </c>
-      <c r="B346" s="67" t="s">
-        <v>1243</v>
-      </c>
+      <c r="B346" s="67"/>
       <c r="C346" s="110">
         <v>0</v>
       </c>
@@ -51334,10 +51333,10 @@
     </row>
     <row r="347" spans="1:46" ht="14.25" customHeight="1">
       <c r="A347" s="58" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B347" s="68" t="s">
         <v>1244</v>
-      </c>
-      <c r="B347" s="68" t="s">
-        <v>1245</v>
       </c>
       <c r="C347" s="110">
         <v>0</v>
@@ -51436,10 +51435,10 @@
     </row>
     <row r="348" spans="1:46" ht="14.25" customHeight="1">
       <c r="A348" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B348" s="68" t="s">
         <v>1246</v>
-      </c>
-      <c r="B348" s="68" t="s">
-        <v>1247</v>
       </c>
       <c r="C348" s="110">
         <v>0</v>
@@ -51538,7 +51537,7 @@
     </row>
     <row r="349" spans="1:46" ht="14.25" customHeight="1">
       <c r="A349" s="58" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B349" s="67"/>
       <c r="C349" s="110">
@@ -51638,10 +51637,10 @@
     </row>
     <row r="350" spans="1:46" ht="14.25" customHeight="1">
       <c r="A350" s="58" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B350" s="53" t="s">
         <v>1249</v>
-      </c>
-      <c r="B350" s="53" t="s">
-        <v>1250</v>
       </c>
       <c r="C350" s="110">
         <v>0</v>
@@ -51740,7 +51739,7 @@
     </row>
     <row r="351" spans="1:46" ht="14.25" customHeight="1">
       <c r="A351" s="58" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B351" s="47"/>
       <c r="C351" s="110">
@@ -51840,10 +51839,10 @@
     </row>
     <row r="352" spans="1:46" ht="14.25" customHeight="1">
       <c r="A352" s="58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B352" s="68" t="s">
         <v>1252</v>
-      </c>
-      <c r="B352" s="68" t="s">
-        <v>1253</v>
       </c>
       <c r="C352" s="110">
         <v>0</v>
@@ -52044,10 +52043,10 @@
     </row>
     <row r="354" spans="1:46" ht="14.25" customHeight="1">
       <c r="A354" s="62" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B354" s="62" t="s">
         <v>1254</v>
-      </c>
-      <c r="B354" s="62" t="s">
-        <v>1255</v>
       </c>
       <c r="C354" s="31" t="s">
         <v>1047</v>
@@ -52175,10 +52174,10 @@
     </row>
     <row r="355" spans="1:46" ht="14.25" customHeight="1">
       <c r="A355" s="57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B355" s="55" t="s">
         <v>1256</v>
-      </c>
-      <c r="B355" s="55" t="s">
-        <v>1257</v>
       </c>
       <c r="C355" s="76">
         <v>0</v>
@@ -52309,10 +52308,10 @@
     </row>
     <row r="356" spans="1:46" ht="14.25" customHeight="1">
       <c r="A356" s="32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B356" s="33" t="s">
         <v>1258</v>
-      </c>
-      <c r="B356" s="33" t="s">
-        <v>1259</v>
       </c>
       <c r="C356" s="76">
         <v>0</v>
@@ -52443,10 +52442,10 @@
     </row>
     <row r="357" spans="1:46" ht="14.25" customHeight="1">
       <c r="A357" s="57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B357" s="33" t="s">
         <v>1260</v>
-      </c>
-      <c r="B357" s="33" t="s">
-        <v>1261</v>
       </c>
       <c r="C357" s="76">
         <v>0</v>
@@ -52577,10 +52576,10 @@
     </row>
     <row r="358" spans="1:46" ht="14.25" customHeight="1">
       <c r="A358" s="57" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B358" s="33" t="s">
         <v>1262</v>
-      </c>
-      <c r="B358" s="33" t="s">
-        <v>1263</v>
       </c>
       <c r="C358" s="76">
         <v>150</v>
@@ -52711,10 +52710,10 @@
     </row>
     <row r="359" spans="1:46" ht="14.25" customHeight="1">
       <c r="A359" s="57" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B359" s="33" t="s">
         <v>1264</v>
-      </c>
-      <c r="B359" s="33" t="s">
-        <v>1265</v>
       </c>
       <c r="C359" s="76">
         <v>0</v>
@@ -52845,10 +52844,10 @@
     </row>
     <row r="360" spans="1:46" ht="14.25" customHeight="1">
       <c r="A360" s="57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B360" s="33" t="s">
         <v>1266</v>
-      </c>
-      <c r="B360" s="33" t="s">
-        <v>1267</v>
       </c>
       <c r="C360" s="76">
         <v>0</v>
@@ -52979,10 +52978,10 @@
     </row>
     <row r="361" spans="1:46" ht="14.25" customHeight="1">
       <c r="A361" s="57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B361" s="33" t="s">
         <v>1268</v>
-      </c>
-      <c r="B361" s="33" t="s">
-        <v>1269</v>
       </c>
       <c r="C361" s="76">
         <v>0</v>
@@ -53113,10 +53112,10 @@
     </row>
     <row r="362" spans="1:46" ht="14.25" customHeight="1">
       <c r="A362" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B362" s="69" t="s">
         <v>1270</v>
-      </c>
-      <c r="B362" s="69" t="s">
-        <v>1271</v>
       </c>
       <c r="C362" s="76">
         <v>0</v>
@@ -53247,91 +53246,91 @@
     </row>
     <row r="363" spans="1:46" ht="15" customHeight="1">
       <c r="A363" s="65" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B363" s="62" t="s">
         <v>1272</v>
-      </c>
-      <c r="B363" s="62" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="364" spans="1:46" ht="15" customHeight="1">
       <c r="A364" s="32" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B364" s="62" t="s">
         <v>1274</v>
-      </c>
-      <c r="B364" s="62" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="365" spans="1:46" ht="15" customHeight="1">
       <c r="A365" s="32" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B365" s="62" t="s">
         <v>1276</v>
-      </c>
-      <c r="B365" s="62" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="366" spans="1:46" ht="15" customHeight="1">
       <c r="A366" s="32" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B366" s="62" t="s">
         <v>1278</v>
-      </c>
-      <c r="B366" s="62" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="367" spans="1:46" ht="15" customHeight="1">
       <c r="A367" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B367" s="62" t="s">
         <v>1280</v>
-      </c>
-      <c r="B367" s="62" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="368" spans="1:46" ht="15" customHeight="1">
       <c r="A368" s="32" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B368" s="62" t="s">
         <v>1282</v>
-      </c>
-      <c r="B368" s="62" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15" customHeight="1">
       <c r="A369" s="32" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B369" s="62" t="s">
         <v>1284</v>
-      </c>
-      <c r="B369" s="62" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15" customHeight="1">
       <c r="A370" s="32" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B370" s="62" t="s">
         <v>1286</v>
-      </c>
-      <c r="B370" s="62" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="14.25" customHeight="1">
       <c r="A371" s="32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B371" s="62" t="s">
         <v>1288</v>
       </c>
-      <c r="B371" s="62" t="s">
+      <c r="C371" s="127" t="s">
         <v>1289</v>
       </c>
-      <c r="C371" s="127" t="s">
+      <c r="D371" s="127" t="s">
         <v>1290</v>
       </c>
-      <c r="D371" s="127" t="s">
+      <c r="I371" s="127" t="s">
         <v>1291</v>
-      </c>
-      <c r="I371" s="127" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="14.25" customHeight="1">
       <c r="A372" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B372" s="62" t="s">
         <v>1293</v>
-      </c>
-      <c r="B372" s="62" t="s">
-        <v>1294</v>
       </c>
       <c r="C372" s="128">
         <v>500</v>
@@ -53345,234 +53344,234 @@
     </row>
     <row r="373" spans="1:9" ht="15" customHeight="1">
       <c r="A373" s="32" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B373" s="62" t="s">
         <v>1295</v>
-      </c>
-      <c r="B373" s="62" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15" customHeight="1">
       <c r="A374" s="32" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B374" s="62" t="s">
         <v>1297</v>
-      </c>
-      <c r="B374" s="62" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" customHeight="1">
       <c r="A375" s="32" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B375" s="62" t="s">
         <v>1299</v>
-      </c>
-      <c r="B375" s="62" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15" customHeight="1">
       <c r="A376" s="32" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B376" s="62" t="s">
         <v>1301</v>
-      </c>
-      <c r="B376" s="62" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15" customHeight="1">
       <c r="A377" s="32" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B377" s="62" t="s">
         <v>1303</v>
-      </c>
-      <c r="B377" s="62" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="15" customHeight="1">
       <c r="A378" s="32" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B378" s="62" t="s">
         <v>1305</v>
-      </c>
-      <c r="B378" s="62" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15" customHeight="1">
       <c r="A379" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B379" s="62" t="s">
         <v>1307</v>
-      </c>
-      <c r="B379" s="62" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15" customHeight="1">
       <c r="A380" s="32" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B380" s="62" t="s">
         <v>1309</v>
-      </c>
-      <c r="B380" s="62" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15" customHeight="1">
       <c r="A381" s="32" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B381" s="62" t="s">
         <v>1311</v>
-      </c>
-      <c r="B381" s="62" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="15" customHeight="1">
       <c r="A382" s="32" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B382" s="62" t="s">
         <v>1313</v>
-      </c>
-      <c r="B382" s="62" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15" customHeight="1">
       <c r="A383" s="32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B383" s="62" t="s">
         <v>1315</v>
-      </c>
-      <c r="B383" s="62" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15" customHeight="1">
       <c r="A384" s="32" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B384" s="62" t="s">
         <v>1317</v>
-      </c>
-      <c r="B384" s="62" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" customHeight="1">
       <c r="A385" s="32" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B385" s="62" t="s">
         <v>1319</v>
-      </c>
-      <c r="B385" s="62" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" customHeight="1">
       <c r="A386" s="32" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B386" s="62" t="s">
         <v>1321</v>
-      </c>
-      <c r="B386" s="62" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" customHeight="1">
       <c r="A387" s="32" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B387" s="62" t="s">
         <v>1323</v>
-      </c>
-      <c r="B387" s="62" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" customHeight="1">
       <c r="A388" s="32" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B388" s="62" t="s">
         <v>1325</v>
-      </c>
-      <c r="B388" s="62" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" customHeight="1">
       <c r="A389" s="32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B389" s="62" t="s">
         <v>1327</v>
-      </c>
-      <c r="B389" s="62" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" customHeight="1">
       <c r="A390" s="32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B390" s="62" t="s">
         <v>1329</v>
-      </c>
-      <c r="B390" s="62" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" customHeight="1">
       <c r="A391" s="32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B391" s="62" t="s">
         <v>1331</v>
-      </c>
-      <c r="B391" s="62" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" customHeight="1">
       <c r="A392" s="32" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B392" s="62" t="s">
         <v>1333</v>
-      </c>
-      <c r="B392" s="62" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" customHeight="1">
       <c r="A393" s="32" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B393" s="62" t="s">
         <v>1335</v>
-      </c>
-      <c r="B393" s="62" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" customHeight="1">
       <c r="A394" s="32" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B394" s="62" t="s">
         <v>1337</v>
-      </c>
-      <c r="B394" s="62" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" customHeight="1">
       <c r="A395" s="32" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B395" s="62" t="s">
         <v>1339</v>
-      </c>
-      <c r="B395" s="62" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" customHeight="1">
       <c r="A396" s="32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B396" s="62" t="s">
         <v>1341</v>
-      </c>
-      <c r="B396" s="62" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" customHeight="1">
       <c r="A397" s="32" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B397" s="62" t="s">
         <v>1343</v>
-      </c>
-      <c r="B397" s="62" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" customHeight="1">
       <c r="A398" s="32" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B398" s="62" t="s">
         <v>1345</v>
-      </c>
-      <c r="B398" s="62" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" customHeight="1">
       <c r="A399" s="32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B399" s="62" t="s">
         <v>1347</v>
-      </c>
-      <c r="B399" s="62" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" customHeight="1">
       <c r="A400" s="32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B400" s="62" t="s">
         <v>1349</v>
-      </c>
-      <c r="B400" s="62" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" customHeight="1">
       <c r="A401" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B401" s="62" t="s">
         <v>1351</v>
-      </c>
-      <c r="B401" s="62" t="s">
-        <v>1352</v>
       </c>
     </row>
   </sheetData>
@@ -53656,7 +53655,7 @@
         <v>1074</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C1" s="110">
         <v>0</v>
@@ -53739,7 +53738,7 @@
         <v>1076</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C2" s="110">
         <v>0</v>
@@ -53819,10 +53818,10 @@
     </row>
     <row r="3" spans="1:28" ht="17.25" customHeight="1">
       <c r="A3" s="129" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>1355</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>1356</v>
       </c>
       <c r="C3" s="110">
         <v>0</v>
@@ -53905,7 +53904,7 @@
         <v>1080</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C4" s="110">
         <v>0</v>
@@ -53988,7 +53987,7 @@
         <v>1082</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C5" s="110">
         <v>0</v>
@@ -54068,10 +54067,10 @@
     </row>
     <row r="6" spans="1:28" ht="17.25" customHeight="1">
       <c r="A6" s="129" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>1359</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>1360</v>
       </c>
       <c r="C6" s="110">
         <v>0</v>
@@ -54157,7 +54156,7 @@
         <v>1086</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C7" s="110">
         <v>0</v>
@@ -54240,7 +54239,7 @@
         <v>1088</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C8" s="110">
         <v>0</v>
@@ -54320,10 +54319,10 @@
     </row>
     <row r="9" spans="1:28" ht="17.25" customHeight="1">
       <c r="A9" s="129" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>1363</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>1364</v>
       </c>
       <c r="C9" s="110">
         <v>0</v>
@@ -54406,7 +54405,7 @@
         <v>1092</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C10" s="110">
         <v>0</v>
@@ -54489,7 +54488,7 @@
         <v>1094</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C11" s="110">
         <v>0</v>
@@ -54569,10 +54568,10 @@
     </row>
     <row r="12" spans="1:28" ht="17.25" customHeight="1">
       <c r="A12" s="129" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>1367</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>1368</v>
       </c>
       <c r="C12" s="110">
         <v>0</v>
@@ -54655,7 +54654,7 @@
         <v>1098</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C13" s="110">
         <v>0</v>
@@ -54738,7 +54737,7 @@
         <v>1100</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C14" s="110">
         <v>0</v>
@@ -54818,10 +54817,10 @@
     </row>
     <row r="15" spans="1:28" ht="17.25" customHeight="1">
       <c r="A15" s="129" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>1371</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>1372</v>
       </c>
       <c r="C15" s="110">
         <v>0</v>
@@ -54904,7 +54903,7 @@
         <v>1104</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C16" s="110">
         <v>0</v>
@@ -54987,7 +54986,7 @@
         <v>1106</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C17" s="110">
         <v>0</v>
@@ -55067,10 +55066,10 @@
     </row>
     <row r="18" spans="1:28" ht="17.25" customHeight="1">
       <c r="A18" s="129" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>1375</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>1376</v>
       </c>
       <c r="C18" s="110">
         <v>0</v>
@@ -55153,7 +55152,7 @@
         <v>1110</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C19" s="110">
         <v>0</v>
@@ -55236,7 +55235,7 @@
         <v>1112</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C20" s="110">
         <v>0</v>
@@ -55316,10 +55315,10 @@
     </row>
     <row r="21" spans="1:28" ht="17.25" customHeight="1">
       <c r="A21" s="129" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>1379</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>1380</v>
       </c>
       <c r="C21" s="110">
         <v>0</v>
@@ -55402,7 +55401,7 @@
         <v>1116</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C22" s="110">
         <v>0</v>
@@ -55485,7 +55484,7 @@
         <v>1118</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C23" s="110">
         <v>0</v>
@@ -55565,10 +55564,10 @@
     </row>
     <row r="24" spans="1:28" ht="17.25" customHeight="1">
       <c r="A24" s="129" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>1383</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>1384</v>
       </c>
       <c r="C24" s="110">
         <v>0</v>
@@ -55651,7 +55650,7 @@
         <v>1122</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C25" s="110">
         <v>0</v>
@@ -55734,7 +55733,7 @@
         <v>1124</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C26" s="110">
         <v>0</v>
@@ -55814,10 +55813,10 @@
     </row>
     <row r="27" spans="1:28" ht="17.25" customHeight="1">
       <c r="A27" s="129" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>1387</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>1388</v>
       </c>
       <c r="C27" s="110">
         <v>0</v>
@@ -55900,7 +55899,7 @@
         <v>1128</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C28" s="110">
         <v>0</v>
@@ -55983,7 +55982,7 @@
         <v>1130</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C29" s="110">
         <v>0</v>
@@ -56066,10 +56065,10 @@
     </row>
     <row r="30" spans="1:28" ht="17.25" customHeight="1">
       <c r="A30" s="129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>1391</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>1392</v>
       </c>
       <c r="C30" s="110">
         <v>0</v>
@@ -56155,7 +56154,7 @@
         <v>1134</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C31" s="110">
         <v>0</v>
@@ -56238,7 +56237,7 @@
         <v>1136</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C32" s="110">
         <v>0</v>
@@ -56318,10 +56317,10 @@
     </row>
     <row r="33" spans="1:27" ht="17.25" customHeight="1">
       <c r="A33" s="129" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>1395</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>1396</v>
       </c>
       <c r="C33" s="110">
         <v>0</v>
@@ -56404,7 +56403,7 @@
         <v>1140</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C34" s="110">
         <v>0</v>
@@ -56487,7 +56486,7 @@
         <v>1142</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C35" s="110">
         <v>0</v>
@@ -56567,10 +56566,10 @@
     </row>
     <row r="36" spans="1:27" ht="17.25" customHeight="1">
       <c r="A36" s="129" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>1399</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>1400</v>
       </c>
       <c r="C36" s="110">
         <v>0</v>
@@ -56653,7 +56652,7 @@
         <v>1146</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C37" s="110">
         <v>0</v>
@@ -56736,7 +56735,7 @@
         <v>1148</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C38" s="110">
         <v>0</v>
@@ -56816,10 +56815,10 @@
     </row>
     <row r="39" spans="1:27" ht="17.25" customHeight="1">
       <c r="A39" s="129" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>1403</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>1404</v>
       </c>
       <c r="C39" s="110">
         <v>0</v>
@@ -56902,7 +56901,7 @@
         <v>1152</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C40" s="110">
         <v>0</v>
@@ -56985,7 +56984,7 @@
         <v>1154</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C41" s="110">
         <v>0</v>
@@ -57065,10 +57064,10 @@
     </row>
     <row r="42" spans="1:27" ht="17.25" customHeight="1">
       <c r="A42" s="129" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>1407</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>1408</v>
       </c>
       <c r="C42" s="110">
         <v>0</v>
@@ -57151,7 +57150,7 @@
         <v>1158</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C43" s="110">
         <v>0</v>
@@ -57234,7 +57233,7 @@
         <v>1160</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C44" s="110">
         <v>0</v>
@@ -57314,10 +57313,10 @@
     </row>
     <row r="45" spans="1:27" ht="17.25" customHeight="1">
       <c r="A45" s="129" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>1411</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>1412</v>
       </c>
       <c r="C45" s="110">
         <v>0</v>
@@ -57400,7 +57399,7 @@
         <v>1164</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C46" s="110">
         <v>0</v>
@@ -57480,10 +57479,10 @@
     </row>
     <row r="47" spans="1:27" ht="17.25" customHeight="1">
       <c r="A47" s="129" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>1414</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>1415</v>
       </c>
       <c r="C47" s="110">
         <v>0</v>
@@ -57566,7 +57565,7 @@
         <v>1168</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C48" s="110">
         <v>0</v>
@@ -57646,10 +57645,10 @@
     </row>
     <row r="49" spans="1:28" ht="17.25" customHeight="1">
       <c r="A49" s="129" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>1417</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>1418</v>
       </c>
       <c r="C49" s="110">
         <v>0</v>
@@ -57735,7 +57734,7 @@
         <v>1172</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C50" s="110">
         <v>0</v>
@@ -57815,10 +57814,10 @@
     </row>
     <row r="51" spans="1:28" ht="17.25" customHeight="1">
       <c r="A51" s="129" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>1420</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>1421</v>
       </c>
       <c r="C51" s="110">
         <v>0</v>
@@ -57901,7 +57900,7 @@
         <v>1176</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C52" s="110">
         <v>0</v>
@@ -57981,10 +57980,10 @@
     </row>
     <row r="53" spans="1:28" ht="17.25" customHeight="1">
       <c r="A53" s="129" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>1423</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>1424</v>
       </c>
       <c r="C53" s="110">
         <v>0</v>
@@ -58067,7 +58066,7 @@
         <v>1180</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C54" s="110">
         <v>0</v>
@@ -58147,10 +58146,10 @@
     </row>
     <row r="55" spans="1:28" ht="17.25" customHeight="1">
       <c r="A55" s="129" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>1426</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>1427</v>
       </c>
       <c r="C55" s="110">
         <v>0</v>
@@ -58233,7 +58232,7 @@
         <v>1184</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C56" s="110">
         <v>0</v>
@@ -58313,10 +58312,10 @@
     </row>
     <row r="57" spans="1:28" ht="17.25" customHeight="1">
       <c r="A57" s="129" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>1429</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>1430</v>
       </c>
       <c r="C57" s="110">
         <v>0</v>
@@ -58402,7 +58401,7 @@
         <v>1188</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C58" s="110">
         <v>0</v>
@@ -58482,10 +58481,10 @@
     </row>
     <row r="59" spans="1:28" ht="17.25" customHeight="1">
       <c r="A59" s="129" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>1432</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>1433</v>
       </c>
       <c r="C59" s="110">
         <v>0</v>
@@ -58568,7 +58567,7 @@
         <v>1192</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C60" s="110">
         <v>0</v>
@@ -58648,10 +58647,10 @@
     </row>
     <row r="61" spans="1:28" ht="17.25" customHeight="1">
       <c r="A61" s="129" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>1435</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>1436</v>
       </c>
       <c r="C61" s="110">
         <v>0</v>
@@ -58734,7 +58733,7 @@
         <v>1196</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C62" s="110">
         <v>0</v>
@@ -58814,10 +58813,10 @@
     </row>
     <row r="63" spans="1:28" ht="17.25" customHeight="1">
       <c r="A63" s="129" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>1438</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>1439</v>
       </c>
       <c r="C63" s="110">
         <v>0</v>
@@ -58900,7 +58899,7 @@
         <v>1200</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C64" s="110">
         <v>0</v>
@@ -58980,10 +58979,10 @@
     </row>
     <row r="65" spans="1:28" ht="17.25" customHeight="1">
       <c r="A65" s="129" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>1441</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>1442</v>
       </c>
       <c r="C65" s="110">
         <v>0</v>
@@ -59066,7 +59065,7 @@
         <v>1204</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C66" s="110">
         <v>0</v>
@@ -59146,10 +59145,10 @@
     </row>
     <row r="67" spans="1:28" ht="17.25" customHeight="1">
       <c r="A67" s="129" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>1444</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>1445</v>
       </c>
       <c r="C67" s="110">
         <v>0</v>
@@ -59232,7 +59231,7 @@
         <v>1208</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C68" s="110">
         <v>0</v>
@@ -59312,10 +59311,10 @@
     </row>
     <row r="69" spans="1:28" ht="17.25" customHeight="1">
       <c r="A69" s="129" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>1447</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>1448</v>
       </c>
       <c r="C69" s="110">
         <v>0</v>
@@ -59398,7 +59397,7 @@
         <v>1212</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C70" s="110">
         <v>0</v>
@@ -59478,10 +59477,10 @@
     </row>
     <row r="71" spans="1:28" ht="17.25" customHeight="1">
       <c r="A71" s="129" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>1450</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>1451</v>
       </c>
       <c r="C71" s="110">
         <v>0</v>
@@ -59567,7 +59566,7 @@
         <v>1216</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C72" s="110">
         <v>0</v>
@@ -59647,10 +59646,10 @@
     </row>
     <row r="73" spans="1:28" ht="17.25" customHeight="1">
       <c r="A73" s="129" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>1453</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>1454</v>
       </c>
       <c r="C73" s="110">
         <v>0</v>
@@ -59733,7 +59732,7 @@
         <v>1220</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C74" s="110">
         <v>0</v>
@@ -59813,10 +59812,10 @@
     </row>
     <row r="75" spans="1:28" ht="17.25" customHeight="1">
       <c r="A75" s="129" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>1456</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>1457</v>
       </c>
       <c r="C75" s="110">
         <v>0</v>
@@ -59899,7 +59898,7 @@
         <v>1224</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C76" s="110">
         <v>0</v>
@@ -59979,10 +59978,10 @@
     </row>
     <row r="77" spans="1:28" ht="17.25" customHeight="1">
       <c r="A77" s="129" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>1459</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>1460</v>
       </c>
       <c r="C77" s="110">
         <v>0</v>
@@ -60065,7 +60064,7 @@
         <v>1228</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C78" s="110">
         <v>0</v>
@@ -60145,10 +60144,10 @@
     </row>
     <row r="79" spans="1:28" ht="17.25" customHeight="1">
       <c r="A79" s="129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>1462</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>1463</v>
       </c>
       <c r="C79" s="110">
         <v>0</v>
@@ -60231,7 +60230,7 @@
         <v>1232</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C80" s="110">
         <v>0</v>
@@ -60311,10 +60310,10 @@
     </row>
     <row r="81" spans="1:27" ht="17.25" customHeight="1">
       <c r="A81" s="129" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>1465</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>1466</v>
       </c>
       <c r="C81" s="110">
         <v>0</v>
@@ -60397,7 +60396,7 @@
         <v>1236</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C82" s="110">
         <v>0</v>
@@ -60477,10 +60476,10 @@
     </row>
     <row r="83" spans="1:27" ht="17.25" customHeight="1">
       <c r="A83" s="129" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>1468</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>1469</v>
       </c>
       <c r="C83" s="110">
         <v>0</v>
@@ -60563,7 +60562,7 @@
         <v>1240</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C84" s="110">
         <v>0</v>
@@ -60643,10 +60642,10 @@
     </row>
     <row r="85" spans="1:27" ht="17.25" customHeight="1">
       <c r="A85" s="129" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>1471</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>1472</v>
       </c>
       <c r="C85" s="110">
         <v>0</v>
@@ -60726,7 +60725,7 @@
     </row>
     <row r="86" spans="1:27" ht="17.25" customHeight="1">
       <c r="A86" s="138" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B86" s="19">
         <v>0</v>
@@ -60809,10 +60808,10 @@
     </row>
     <row r="87" spans="1:27" ht="17.25" customHeight="1">
       <c r="A87" s="129" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>1473</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>1474</v>
       </c>
       <c r="C87" s="110">
         <v>0</v>
@@ -60892,10 +60891,10 @@
     </row>
     <row r="88" spans="1:27" ht="17.25" customHeight="1">
       <c r="A88" s="129" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>1475</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>1476</v>
       </c>
       <c r="C88" s="110">
         <v>0</v>
@@ -60975,7 +60974,7 @@
     </row>
     <row r="89" spans="1:27" ht="17.25" customHeight="1">
       <c r="A89" s="138" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B89" s="19">
         <v>0</v>
@@ -61058,10 +61057,10 @@
     </row>
     <row r="90" spans="1:27" ht="17.25" customHeight="1">
       <c r="A90" s="129" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>1478</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>1479</v>
       </c>
       <c r="C90" s="110">
         <v>0</v>
@@ -61141,7 +61140,7 @@
     </row>
     <row r="91" spans="1:27" ht="17.25" customHeight="1">
       <c r="A91" s="138" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B91" s="19">
         <v>0</v>
@@ -61224,10 +61223,10 @@
     </row>
     <row r="92" spans="1:27" ht="17.25" customHeight="1">
       <c r="A92" s="129" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B92" s="20" t="s">
         <v>1481</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>1482</v>
       </c>
       <c r="C92" s="110">
         <v>0</v>
@@ -61510,13 +61509,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="197" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F2" s="198"/>
       <c r="G2" s="198"/>
       <c r="H2" s="198"/>
       <c r="I2" s="198" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J2" s="198"/>
       <c r="K2" s="163">
@@ -61567,67 +61566,67 @@
         <v>1</v>
       </c>
       <c r="C3" s="172" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D3" s="162" t="s">
         <v>1676</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="E3" s="163" t="s">
         <v>1677</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="F3" s="163" t="s">
         <v>1678</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="G3" s="163" t="s">
         <v>1679</v>
       </c>
-      <c r="G3" s="163" t="s">
+      <c r="H3" s="163" t="s">
         <v>1680</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="I3" s="186" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J3" s="163" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K3" s="163" t="s">
         <v>1681</v>
       </c>
-      <c r="I3" s="186" t="s">
-        <v>1697</v>
-      </c>
-      <c r="J3" s="163" t="s">
-        <v>1483</v>
-      </c>
-      <c r="K3" s="163" t="s">
+      <c r="L3" s="164" t="s">
         <v>1682</v>
       </c>
-      <c r="L3" s="164" t="s">
+      <c r="M3" s="163" t="s">
         <v>1683</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="N3" s="165" t="s">
         <v>1684</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="O3" s="166" t="s">
         <v>1685</v>
       </c>
-      <c r="O3" s="166" t="s">
+      <c r="P3" s="167" t="s">
         <v>1686</v>
       </c>
-      <c r="P3" s="167" t="s">
+      <c r="Q3" s="163" t="s">
         <v>1687</v>
       </c>
-      <c r="Q3" s="163" t="s">
+      <c r="R3" s="173" t="s">
         <v>1688</v>
       </c>
-      <c r="R3" s="173" t="s">
+      <c r="S3" s="168" t="s">
         <v>1689</v>
       </c>
-      <c r="S3" s="168" t="s">
+      <c r="T3" s="168" t="s">
         <v>1690</v>
       </c>
-      <c r="T3" s="168" t="s">
+      <c r="U3" s="169" t="s">
         <v>1691</v>
       </c>
-      <c r="U3" s="169" t="s">
+      <c r="V3" s="170" t="s">
         <v>1692</v>
       </c>
-      <c r="V3" s="170" t="s">
+      <c r="W3" s="160" t="s">
         <v>1693</v>
-      </c>
-      <c r="W3" s="160" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="17.25" customHeight="1">
@@ -67667,10 +67666,10 @@
     </row>
     <row r="89" spans="1:23" ht="17.25" customHeight="1">
       <c r="A89" s="152" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B89" s="179" t="s">
         <v>1244</v>
-      </c>
-      <c r="B89" s="179" t="s">
-        <v>1245</v>
       </c>
       <c r="C89" s="163">
         <v>0</v>
@@ -67738,10 +67737,10 @@
     </row>
     <row r="90" spans="1:23" ht="17.25" customHeight="1">
       <c r="A90" s="152" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B90" s="179" t="s">
         <v>1246</v>
-      </c>
-      <c r="B90" s="179" t="s">
-        <v>1247</v>
       </c>
       <c r="C90" s="163">
         <v>120</v>
@@ -67809,10 +67808,10 @@
     </row>
     <row r="91" spans="1:23" ht="17.25" customHeight="1">
       <c r="A91" s="152" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B91" s="179" t="s">
         <v>1249</v>
-      </c>
-      <c r="B91" s="179" t="s">
-        <v>1250</v>
       </c>
       <c r="C91" s="163">
         <v>152</v>
@@ -67880,10 +67879,10 @@
     </row>
     <row r="92" spans="1:23" ht="17.25" customHeight="1">
       <c r="A92" s="152" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B92" s="179" t="s">
         <v>1252</v>
-      </c>
-      <c r="B92" s="179" t="s">
-        <v>1253</v>
       </c>
       <c r="C92" s="163">
         <v>247</v>
@@ -80802,10 +80801,10 @@
     </row>
     <row r="274" spans="1:23" ht="17.25" customHeight="1">
       <c r="A274" s="57" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B274" s="174" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C274" s="163">
         <v>221</v>
@@ -81226,7 +81225,7 @@
     </row>
     <row r="280" spans="1:23" ht="17.25" customHeight="1">
       <c r="A280" s="152" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B280" s="174"/>
       <c r="C280" s="163">
@@ -81295,7 +81294,7 @@
     </row>
     <row r="281" spans="1:23" ht="17.25" customHeight="1">
       <c r="A281" s="152" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B281" s="187"/>
       <c r="C281" s="188">
@@ -81513,7 +81512,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B2">
         <v>164</v>
@@ -81638,7 +81637,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B3">
         <v>43</v>
@@ -81763,7 +81762,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -81799,7 +81798,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -81865,7 +81864,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -81975,7 +81974,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B7">
         <v>131</v>
@@ -82100,7 +82099,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -82225,7 +82224,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -82318,7 +82317,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -82384,7 +82383,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -82494,7 +82493,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B12">
         <v>43</v>
@@ -82660,7 +82659,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -82752,7 +82751,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1" s="12">
         <v>0</v>
@@ -82831,7 +82830,7 @@
       </c>
       <c r="AA1" s="145"/>
       <c r="AB1" s="12" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AC1" s="12">
         <v>2600</v>
@@ -82842,7 +82841,7 @@
     </row>
     <row r="2" spans="1:30" ht="16.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B2" s="12">
         <v>30</v>
@@ -82921,7 +82920,7 @@
       </c>
       <c r="AA2" s="145"/>
       <c r="AB2" s="12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AC2" s="14">
         <v>2.13070556763084E-2</v>
@@ -82929,7 +82928,7 @@
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -83010,7 +83009,7 @@
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -83091,7 +83090,7 @@
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -83172,7 +83171,7 @@
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -83253,7 +83252,7 @@
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -83332,7 +83331,7 @@
       </c>
       <c r="AA7" s="145"/>
       <c r="AB7" s="12" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AC7" s="12">
         <v>0</v>
@@ -83343,7 +83342,7 @@
     </row>
     <row r="8" spans="1:30" ht="16.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -83422,7 +83421,7 @@
       </c>
       <c r="AA8" s="145"/>
       <c r="AB8" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="AC8" s="15">
         <v>6.7400547114465595E-2</v>
@@ -83430,7 +83429,7 @@
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -83511,7 +83510,7 @@
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B10" s="12">
         <v>86</v>
@@ -83592,7 +83591,7 @@
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -83673,7 +83672,7 @@
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -83754,7 +83753,7 @@
     </row>
     <row r="13" spans="1:30" ht="16.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -83833,7 +83832,7 @@
       </c>
       <c r="AA13" s="145"/>
       <c r="AB13" s="12" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AC13" s="12">
         <v>300</v>
@@ -83844,7 +83843,7 @@
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B14" s="12">
         <v>86</v>
@@ -83925,7 +83924,7 @@
     </row>
     <row r="15" spans="1:30" ht="16.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -84006,7 +84005,7 @@
     </row>
     <row r="16" spans="1:30" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -84087,7 +84086,7 @@
     </row>
     <row r="17" spans="1:29" ht="16.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -84168,7 +84167,7 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -84247,7 +84246,7 @@
       </c>
       <c r="AA18" s="145"/>
       <c r="AB18" s="12" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AC18" s="15">
         <v>0.18825271821068101</v>
@@ -84255,7 +84254,7 @@
     </row>
     <row r="19" spans="1:29" ht="16.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -84334,7 +84333,7 @@
       </c>
       <c r="AA19" s="145"/>
       <c r="AB19" s="12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AC19" s="15">
         <v>0.12030062403291999</v>
@@ -84342,7 +84341,7 @@
     </row>
     <row r="20" spans="1:29" ht="16.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
@@ -84423,7 +84422,7 @@
     </row>
     <row r="21" spans="1:29" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -84504,7 +84503,7 @@
     </row>
     <row r="22" spans="1:29" ht="16.5" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -84585,7 +84584,7 @@
     </row>
     <row r="23" spans="1:29" ht="16.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -84666,7 +84665,7 @@
     </row>
     <row r="24" spans="1:29" ht="16.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -84747,7 +84746,7 @@
     </row>
     <row r="25" spans="1:29" ht="16.5" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -84828,7 +84827,7 @@
     </row>
     <row r="26" spans="1:29" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B26" s="12">
         <v>76</v>
@@ -84909,7 +84908,7 @@
     </row>
     <row r="27" spans="1:29" ht="16.5" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B27" s="12">
         <v>70</v>
@@ -84990,7 +84989,7 @@
     </row>
     <row r="28" spans="1:29" ht="16.5" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
@@ -85071,7 +85070,7 @@
     </row>
     <row r="29" spans="1:29" ht="16.5" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B29" s="12">
         <v>0</v>
@@ -85152,7 +85151,7 @@
     </row>
     <row r="30" spans="1:29" ht="16.5" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B30" s="12">
         <v>0</v>
@@ -85233,7 +85232,7 @@
     </row>
     <row r="31" spans="1:29" ht="16.5" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -85314,7 +85313,7 @@
     </row>
     <row r="32" spans="1:29" ht="16.5" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B32" s="12">
         <v>22</v>
@@ -85395,7 +85394,7 @@
     </row>
     <row r="33" spans="1:30" ht="16.5" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
@@ -85476,7 +85475,7 @@
     </row>
     <row r="34" spans="1:30" ht="16.5" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
@@ -85557,7 +85556,7 @@
     </row>
     <row r="35" spans="1:30" ht="16.5" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B35" s="12">
         <v>-60</v>
@@ -85637,7 +85636,7 @@
     </row>
     <row r="36" spans="1:30" ht="16.5" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B36" s="12">
         <v>-60</v>
@@ -85717,7 +85716,7 @@
     </row>
     <row r="37" spans="1:30" ht="16.5" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
@@ -85798,7 +85797,7 @@
     </row>
     <row r="38" spans="1:30" ht="16.5" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
@@ -85879,7 +85878,7 @@
     </row>
     <row r="39" spans="1:30" ht="16.5" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
@@ -85960,7 +85959,7 @@
     </row>
     <row r="40" spans="1:30" ht="16.5" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B40" s="12">
         <v>0</v>
@@ -86041,7 +86040,7 @@
     </row>
     <row r="41" spans="1:30" ht="16.5" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B41" s="12">
         <v>-60</v>
@@ -86121,7 +86120,7 @@
     </row>
     <row r="42" spans="1:30" ht="16.5" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B42" s="12">
         <v>0</v>
@@ -86202,7 +86201,7 @@
     </row>
     <row r="43" spans="1:30" ht="16.5" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B43" s="12">
         <v>0</v>
@@ -86283,7 +86282,7 @@
     </row>
     <row r="44" spans="1:30" ht="16.5" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
@@ -86364,7 +86363,7 @@
     </row>
     <row r="45" spans="1:30" ht="16.5" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
@@ -86445,7 +86444,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B46" s="12">
         <v>78</v>
@@ -86526,7 +86525,7 @@
     </row>
     <row r="47" spans="1:30" ht="16.5" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B47" s="12">
         <v>66</v>
@@ -86607,7 +86606,7 @@
     </row>
     <row r="48" spans="1:30" ht="16.5" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B48" s="12">
         <v>0</v>
@@ -86686,7 +86685,7 @@
       </c>
       <c r="AA48" s="145"/>
       <c r="AB48" s="12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AC48" s="12">
         <v>170</v>
@@ -86697,7 +86696,7 @@
     </row>
     <row r="49" spans="1:30" ht="16.5" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B49" s="12">
         <v>0</v>
@@ -86776,15 +86775,15 @@
       </c>
       <c r="AA49" s="145"/>
       <c r="AC49" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AD49" s="12" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="16.5" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B50" s="12">
         <v>0</v>
@@ -86865,7 +86864,7 @@
     </row>
     <row r="51" spans="1:30" ht="16.5" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -86946,7 +86945,7 @@
     </row>
     <row r="52" spans="1:30" ht="16.5" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -87025,7 +87024,7 @@
       </c>
       <c r="AA52" s="145"/>
       <c r="AB52" s="12" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AC52" s="15">
         <v>6.5295648802820905E-2</v>
@@ -87033,7 +87032,7 @@
     </row>
     <row r="53" spans="1:30" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B53" s="12">
         <v>0</v>
@@ -87114,7 +87113,7 @@
     </row>
     <row r="54" spans="1:30" ht="16.5" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B54" s="12">
         <v>0</v>
@@ -87193,7 +87192,7 @@
       </c>
       <c r="AA54" s="145"/>
       <c r="AB54" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AC54" s="14">
         <v>0.04</v>
@@ -87201,7 +87200,7 @@
     </row>
     <row r="55" spans="1:30" ht="16.5" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B55" s="12">
         <v>0</v>
@@ -87282,7 +87281,7 @@
     </row>
     <row r="56" spans="1:30" ht="16.5" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B56" s="12">
         <v>70</v>
@@ -87363,7 +87362,7 @@
     </row>
     <row r="57" spans="1:30" ht="16.5" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B57" s="12">
         <v>0</v>
@@ -87442,7 +87441,7 @@
       </c>
       <c r="AA57" s="145"/>
       <c r="AB57" s="12" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AC57" s="12">
         <v>1400</v>
@@ -87453,7 +87452,7 @@
     </row>
     <row r="58" spans="1:30" ht="16.5" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B58" s="12">
         <v>0</v>
@@ -87532,7 +87531,7 @@
       </c>
       <c r="AA58" s="145"/>
       <c r="AB58" s="12" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="AC58" s="15">
         <v>4.1666666666666699E-2</v>
@@ -87540,7 +87539,7 @@
     </row>
     <row r="59" spans="1:30" ht="16.5" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
@@ -87621,7 +87620,7 @@
     </row>
     <row r="60" spans="1:30" ht="16.5" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B60" s="12">
         <v>0</v>
@@ -87702,7 +87701,7 @@
     </row>
     <row r="61" spans="1:30" ht="16.5" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
@@ -87783,7 +87782,7 @@
     </row>
     <row r="62" spans="1:30" ht="16.5" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B62" s="12">
         <v>0</v>
@@ -87864,46 +87863,46 @@
     </row>
     <row r="63" spans="1:30" ht="16.5" customHeight="1">
       <c r="A63" s="13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>1559</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="146" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E63" s="146" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F63" s="146" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G63" s="146" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H63" s="147" t="s">
         <v>1561</v>
       </c>
-      <c r="D63" s="146" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E63" s="146" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F63" s="146" t="s">
+      <c r="I63" s="147" t="s">
         <v>1486</v>
       </c>
-      <c r="G63" s="146" t="s">
-        <v>1488</v>
-      </c>
-      <c r="H63" s="147" t="s">
+      <c r="J63" s="147" t="s">
         <v>1562</v>
       </c>
-      <c r="I63" s="147" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J63" s="147" t="s">
+      <c r="K63" s="147" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L63" s="147" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M63" s="148" t="s">
         <v>1563</v>
       </c>
-      <c r="K63" s="147" t="s">
-        <v>1502</v>
-      </c>
-      <c r="L63" s="147" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M63" s="148" t="s">
+      <c r="N63" s="148" t="s">
         <v>1564</v>
-      </c>
-      <c r="N63" s="148" t="s">
-        <v>1565</v>
       </c>
       <c r="O63" s="149" t="s">
         <v>1069</v>
@@ -87942,15 +87941,15 @@
         <v>100</v>
       </c>
       <c r="AC63" s="12" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AD63" s="12" t="s">
         <v>1566</v>
-      </c>
-      <c r="AD63" s="12" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="13" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B64" s="13">
         <v>1</v>
@@ -88030,7 +88029,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="12" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B65" s="12">
         <v>0</v>
@@ -88110,10 +88109,10 @@
     </row>
     <row r="66" spans="1:26" ht="21.75" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O66" s="199" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="P66" s="199"/>
       <c r="Q66" s="199"/>
@@ -88121,7 +88120,7 @@
       <c r="S66" s="199"/>
       <c r="T66" s="199"/>
       <c r="U66" s="199" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="V66" s="199"/>
       <c r="W66" s="199"/>
@@ -88152,40 +88151,40 @@
   <sheetData>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E3" t="s">
         <v>1569</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>1570</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="H4" t="s">
         <v>1573</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E5" t="s">
         <v>1575</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>1576</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="G6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -88205,13 +88204,13 @@
     </row>
     <row r="7" spans="2:14">
       <c r="E7" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="G7" s="1" t="s">
         <v>1580</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1581</v>
       </c>
       <c r="H7" s="1">
         <v>11</v>
@@ -88219,13 +88218,13 @@
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1">
       <c r="E8" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>1582</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="G8" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1584</v>
       </c>
       <c r="H8" s="1">
         <v>12</v>
@@ -88233,37 +88232,37 @@
     </row>
     <row r="9" spans="2:14" ht="17.25" customHeight="1">
       <c r="E9" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F9" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="G9" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1587</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25" customHeight="1">
       <c r="E10" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>1589</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="G10" s="2" t="s">
         <v>1590</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1591</v>
       </c>
       <c r="H10" s="1">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
@@ -88272,19 +88271,19 @@
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1">
       <c r="E11" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="G11" s="2" t="s">
         <v>1594</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1595</v>
       </c>
       <c r="H11" s="1">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
@@ -88293,19 +88292,19 @@
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1">
       <c r="E12" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F12" s="60" t="s">
         <v>1597</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="G12" s="2" t="s">
         <v>1598</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1599</v>
       </c>
       <c r="H12" s="1">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
@@ -88314,19 +88313,19 @@
     </row>
     <row r="13" spans="2:14" ht="18" customHeight="1">
       <c r="E13" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>1601</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="2" t="s">
         <v>1602</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>1603</v>
       </c>
       <c r="H13" s="1">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10">
@@ -88335,19 +88334,19 @@
     </row>
     <row r="14" spans="2:14" ht="17.25" customHeight="1">
       <c r="E14" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F14" s="60" t="s">
         <v>1605</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="G14" s="2" t="s">
         <v>1606</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>1607</v>
       </c>
       <c r="H14" s="1">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
@@ -88356,19 +88355,19 @@
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1">
       <c r="E15" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F15" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="G15" s="2" t="s">
         <v>1610</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1611</v>
       </c>
       <c r="H15" s="1">
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="10">
@@ -88377,13 +88376,13 @@
     </row>
     <row r="16" spans="2:14" ht="16.5" customHeight="1">
       <c r="E16" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>1613</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="G16" s="2" t="s">
         <v>1614</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1615</v>
       </c>
       <c r="H16" s="1">
         <v>32</v>
@@ -88391,13 +88390,13 @@
     </row>
     <row r="17" spans="5:11" ht="16.5" customHeight="1">
       <c r="E17" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F17" s="60" t="s">
         <v>1616</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="G17" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1618</v>
       </c>
       <c r="H17" s="1">
         <v>33</v>
@@ -88405,28 +88404,28 @@
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F18" s="60" t="s">
         <v>1619</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>1620</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="19" spans="5:11">
       <c r="E19" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F19" s="60" t="s">
         <v>1622</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>1623</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K19">
         <v>630</v>
@@ -88434,15 +88433,15 @@
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>1625</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>1626</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K20">
         <v>675</v>
@@ -88450,15 +88449,15 @@
     </row>
     <row r="21" spans="5:11">
       <c r="E21" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F21" s="60" t="s">
         <v>1628</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>1629</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K21">
         <v>665</v>
@@ -88466,210 +88465,210 @@
     </row>
     <row r="22" spans="5:11">
       <c r="E22" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F22" s="60" t="s">
         <v>1631</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>1632</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="5:11">
       <c r="E23" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F23" s="60" t="s">
         <v>1633</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>1634</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="J23" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="24" spans="5:11">
       <c r="E24" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>1636</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>1637</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="5:11">
       <c r="E25" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>1638</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>1639</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="5:11">
       <c r="E26" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F26" s="60" t="s">
         <v>1640</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>1641</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="5:11">
       <c r="E27" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F27" s="60" t="s">
         <v>1642</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>1643</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="5:11">
       <c r="E28" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F28" s="60" t="s">
         <v>1644</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>1645</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F29" s="60" t="s">
         <v>1646</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>1647</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="5:11">
       <c r="E30" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>1648</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>1649</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="5:11">
       <c r="E31" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F31" s="60" t="s">
         <v>1650</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>1651</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="5:11">
       <c r="E32" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F32" s="60" t="s">
         <v>1652</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>1653</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F33" s="60" t="s">
         <v>1654</v>
-      </c>
-      <c r="F33" s="60" t="s">
-        <v>1655</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>1656</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>1657</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F35" s="60" t="s">
         <v>1658</v>
-      </c>
-      <c r="F35" s="60" t="s">
-        <v>1659</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F36" s="60" t="s">
         <v>1660</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>1661</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F37" s="60" t="s">
         <v>1662</v>
-      </c>
-      <c r="F37" s="60" t="s">
-        <v>1663</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F38" s="60" t="s">
         <v>1664</v>
-      </c>
-      <c r="F38" s="60" t="s">
-        <v>1665</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F39" s="60" t="s">
         <v>1666</v>
-      </c>
-      <c r="F39" s="60" t="s">
-        <v>1667</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F40" s="60" t="s">
         <v>1668</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>1669</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F41" s="60" t="s">
         <v>1670</v>
-      </c>
-      <c r="F41" s="60" t="s">
-        <v>1671</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -88677,7 +88676,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F43">
         <v>37</v>
@@ -88685,7 +88684,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F44">
         <v>38</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3387B-0DFD-433F-9E07-F07BC66D9DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9A3A9-52D3-4D0A-A419-015B6D326F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -6275,15 +6275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="15" fillId="7" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="7" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6295,6 +6286,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6643,11 +6643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="93">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O10" s="94">
         <v>0</v>
@@ -61448,16 +61448,16 @@
       <c r="D2" s="161">
         <v>0</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>1511</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203" t="s">
         <v>1512</v>
       </c>
-      <c r="J2" s="199"/>
+      <c r="J2" s="203"/>
       <c r="K2" s="162">
         <v>30</v>
       </c>
@@ -88068,22 +88068,22 @@
       <c r="A66" s="12" t="s">
         <v>1455</v>
       </c>
-      <c r="O66" s="200" t="s">
+      <c r="O66" s="204" t="s">
         <v>1552</v>
       </c>
-      <c r="P66" s="200"/>
-      <c r="Q66" s="200"/>
-      <c r="R66" s="200"/>
-      <c r="S66" s="200"/>
-      <c r="T66" s="200"/>
-      <c r="U66" s="200" t="s">
+      <c r="P66" s="204"/>
+      <c r="Q66" s="204"/>
+      <c r="R66" s="204"/>
+      <c r="S66" s="204"/>
+      <c r="T66" s="204"/>
+      <c r="U66" s="204" t="s">
         <v>1553</v>
       </c>
-      <c r="V66" s="200"/>
-      <c r="W66" s="200"/>
-      <c r="X66" s="200"/>
-      <c r="Y66" s="200"/>
-      <c r="Z66" s="200"/>
+      <c r="V66" s="204"/>
+      <c r="W66" s="204"/>
+      <c r="X66" s="204"/>
+      <c r="Y66" s="204"/>
+      <c r="Z66" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -88100,7 +88100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -88171,10 +88171,10 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="E7" s="201" t="s">
+      <c r="E7" s="198" t="s">
         <v>1273</v>
       </c>
-      <c r="F7" s="202" t="s">
+      <c r="F7" s="199" t="s">
         <v>1456</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -88185,10 +88185,10 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1">
-      <c r="E8" s="201" t="s">
+      <c r="E8" s="198" t="s">
         <v>1275</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="199" t="s">
         <v>1457</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -88199,10 +88199,10 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.25" customHeight="1">
-      <c r="E9" s="201" t="s">
+      <c r="E9" s="198" t="s">
         <v>1277</v>
       </c>
-      <c r="F9" s="202" t="s">
+      <c r="F9" s="199" t="s">
         <v>1458</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -88217,10 +88217,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25" customHeight="1">
-      <c r="E10" s="201" t="s">
+      <c r="E10" s="198" t="s">
         <v>1279</v>
       </c>
-      <c r="F10" s="202" t="s">
+      <c r="F10" s="199" t="s">
         <v>1459</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -88238,10 +88238,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1">
-      <c r="E11" s="201" t="s">
+      <c r="E11" s="198" t="s">
         <v>1281</v>
       </c>
-      <c r="F11" s="202" t="s">
+      <c r="F11" s="199" t="s">
         <v>1460</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -88259,10 +88259,10 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1">
-      <c r="E12" s="201" t="s">
+      <c r="E12" s="198" t="s">
         <v>1283</v>
       </c>
-      <c r="F12" s="202" t="s">
+      <c r="F12" s="199" t="s">
         <v>1461</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -88280,10 +88280,10 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="18" customHeight="1">
-      <c r="E13" s="201" t="s">
+      <c r="E13" s="198" t="s">
         <v>1285</v>
       </c>
-      <c r="F13" s="202" t="s">
+      <c r="F13" s="199" t="s">
         <v>1462</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -88301,10 +88301,10 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" customHeight="1">
-      <c r="E14" s="201" t="s">
+      <c r="E14" s="198" t="s">
         <v>1287</v>
       </c>
-      <c r="F14" s="202" t="s">
+      <c r="F14" s="199" t="s">
         <v>1463</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -88322,10 +88322,10 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1">
-      <c r="E15" s="201" t="s">
+      <c r="E15" s="198" t="s">
         <v>1292</v>
       </c>
-      <c r="F15" s="202" t="s">
+      <c r="F15" s="199" t="s">
         <v>1464</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -88343,10 +88343,10 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="16.5" customHeight="1">
-      <c r="E16" s="201" t="s">
+      <c r="E16" s="198" t="s">
         <v>1294</v>
       </c>
-      <c r="F16" s="202" t="s">
+      <c r="F16" s="199" t="s">
         <v>1465</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -88357,10 +88357,10 @@
       </c>
     </row>
     <row r="17" spans="5:11" ht="16.5" customHeight="1">
-      <c r="E17" s="203" t="s">
+      <c r="E17" s="200" t="s">
         <v>1296</v>
       </c>
-      <c r="F17" s="202" t="s">
+      <c r="F17" s="199" t="s">
         <v>1466</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -88371,10 +88371,10 @@
       </c>
     </row>
     <row r="18" spans="5:11">
-      <c r="E18" s="203" t="s">
+      <c r="E18" s="200" t="s">
         <v>1298</v>
       </c>
-      <c r="F18" s="202" t="s">
+      <c r="F18" s="199" t="s">
         <v>1467</v>
       </c>
       <c r="G18" s="1"/>
@@ -88384,10 +88384,10 @@
       </c>
     </row>
     <row r="19" spans="5:11">
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="200" t="s">
         <v>1300</v>
       </c>
-      <c r="F19" s="202" t="s">
+      <c r="F19" s="199" t="s">
         <v>1468</v>
       </c>
       <c r="G19" s="1"/>
@@ -88400,10 +88400,10 @@
       </c>
     </row>
     <row r="20" spans="5:11">
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="200" t="s">
         <v>1302</v>
       </c>
-      <c r="F20" s="202" t="s">
+      <c r="F20" s="199" t="s">
         <v>1469</v>
       </c>
       <c r="G20" s="1"/>
@@ -88416,10 +88416,10 @@
       </c>
     </row>
     <row r="21" spans="5:11">
-      <c r="E21" s="203" t="s">
+      <c r="E21" s="200" t="s">
         <v>1304</v>
       </c>
-      <c r="F21" s="202" t="s">
+      <c r="F21" s="199" t="s">
         <v>1470</v>
       </c>
       <c r="G21" s="1"/>
@@ -88432,20 +88432,20 @@
       </c>
     </row>
     <row r="22" spans="5:11">
-      <c r="E22" s="203" t="s">
+      <c r="E22" s="200" t="s">
         <v>1306</v>
       </c>
-      <c r="F22" s="202" t="s">
+      <c r="F22" s="199" t="s">
         <v>1471</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="5:11">
-      <c r="E23" s="203" t="s">
+      <c r="E23" s="200" t="s">
         <v>1308</v>
       </c>
-      <c r="F23" s="202" t="s">
+      <c r="F23" s="199" t="s">
         <v>1472</v>
       </c>
       <c r="G23" s="1"/>
@@ -88455,206 +88455,206 @@
       </c>
     </row>
     <row r="24" spans="5:11">
-      <c r="E24" s="203" t="s">
+      <c r="E24" s="200" t="s">
         <v>1310</v>
       </c>
-      <c r="F24" s="202" t="s">
+      <c r="F24" s="199" t="s">
         <v>1473</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="5:11">
-      <c r="E25" s="203" t="s">
+      <c r="E25" s="200" t="s">
         <v>1312</v>
       </c>
-      <c r="F25" s="202" t="s">
+      <c r="F25" s="199" t="s">
         <v>1474</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="5:11">
-      <c r="E26" s="203" t="s">
+      <c r="E26" s="200" t="s">
         <v>1314</v>
       </c>
-      <c r="F26" s="202" t="s">
+      <c r="F26" s="199" t="s">
         <v>1475</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="5:11">
-      <c r="E27" s="203" t="s">
+      <c r="E27" s="200" t="s">
         <v>1316</v>
       </c>
-      <c r="F27" s="202" t="s">
+      <c r="F27" s="199" t="s">
         <v>1476</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="5:11">
-      <c r="E28" s="203" t="s">
+      <c r="E28" s="200" t="s">
         <v>1318</v>
       </c>
-      <c r="F28" s="202" t="s">
+      <c r="F28" s="199" t="s">
         <v>1477</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="5:11">
-      <c r="E29" s="203" t="s">
+      <c r="E29" s="200" t="s">
         <v>1320</v>
       </c>
-      <c r="F29" s="202" t="s">
+      <c r="F29" s="199" t="s">
         <v>1478</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="5:11">
-      <c r="E30" s="203" t="s">
+      <c r="E30" s="200" t="s">
         <v>1322</v>
       </c>
-      <c r="F30" s="202" t="s">
+      <c r="F30" s="199" t="s">
         <v>1479</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="5:11">
-      <c r="E31" s="203" t="s">
+      <c r="E31" s="200" t="s">
         <v>1324</v>
       </c>
-      <c r="F31" s="202" t="s">
+      <c r="F31" s="199" t="s">
         <v>1480</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="5:11">
-      <c r="E32" s="203" t="s">
+      <c r="E32" s="200" t="s">
         <v>1326</v>
       </c>
-      <c r="F32" s="202" t="s">
+      <c r="F32" s="199" t="s">
         <v>1481</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="203" t="s">
+      <c r="E33" s="200" t="s">
         <v>1328</v>
       </c>
-      <c r="F33" s="202" t="s">
+      <c r="F33" s="199" t="s">
         <v>1482</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="203" t="s">
+      <c r="E34" s="200" t="s">
         <v>1330</v>
       </c>
-      <c r="F34" s="202" t="s">
+      <c r="F34" s="199" t="s">
         <v>1483</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="200" t="s">
         <v>1332</v>
       </c>
-      <c r="F35" s="202" t="s">
+      <c r="F35" s="199" t="s">
         <v>1484</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="203" t="s">
+      <c r="E36" s="200" t="s">
         <v>1334</v>
       </c>
-      <c r="F36" s="202" t="s">
+      <c r="F36" s="199" t="s">
         <v>1485</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="203" t="s">
+      <c r="E37" s="200" t="s">
         <v>1336</v>
       </c>
-      <c r="F37" s="202" t="s">
+      <c r="F37" s="199" t="s">
         <v>1486</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="203" t="s">
+      <c r="E38" s="200" t="s">
         <v>1338</v>
       </c>
-      <c r="F38" s="202" t="s">
+      <c r="F38" s="199" t="s">
         <v>1487</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="203" t="s">
+      <c r="E39" s="200" t="s">
         <v>1340</v>
       </c>
-      <c r="F39" s="202" t="s">
+      <c r="F39" s="199" t="s">
         <v>1488</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="203" t="s">
+      <c r="E40" s="200" t="s">
         <v>1342</v>
       </c>
-      <c r="F40" s="202" t="s">
+      <c r="F40" s="199" t="s">
         <v>1489</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="203" t="s">
+      <c r="E41" s="200" t="s">
         <v>1344</v>
       </c>
-      <c r="F41" s="202" t="s">
+      <c r="F41" s="199" t="s">
         <v>1490</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="203" t="s">
+      <c r="E42" s="200" t="s">
         <v>1346</v>
       </c>
-      <c r="F42" s="204">
+      <c r="F42" s="201">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="203" t="s">
+      <c r="E43" s="200" t="s">
         <v>1348</v>
       </c>
-      <c r="F43" s="204">
+      <c r="F43" s="201">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="203" t="s">
+      <c r="E44" s="200" t="s">
         <v>1350</v>
       </c>
-      <c r="F44" s="204">
+      <c r="F44" s="201">
         <v>38</v>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9A3A9-52D3-4D0A-A419-015B6D326F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519ECB9-0715-46CC-B7F5-A93F07939A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -6647,7 +6647,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="93">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="O10" s="94">
         <v>0</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79625178-D9A7-417C-9B4B-37003C31FD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27907C1-3D0B-4F8A-A9DC-31EFAC0C002A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1619">
   <si>
     <t>装备编码</t>
   </si>
@@ -5908,6 +5908,122 @@
   <si>
     <t>50级技能或直接指定太阳技能
 太阳等级+X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buflvl字段说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_b_atta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福增加的三攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pas0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护恩赐（15级）增加的体力、精神数值（祝福）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护徽章（25级）增加的体力、精神数值（祝福）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_pas0_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_pas1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一觉被动（信念光环）增加的体力、精神数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_act2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pas3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二觉增加的体力、精神数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三觉被动增加的体力、精神数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_b_stat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福增加的力智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_stat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳增加的力智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol_pas1_out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信念光环增加的体力、精神数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶爸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶妈、奶萝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_b_atta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[启示：圣歌]、[人偶操纵者] 增加的智力数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_pas1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一觉被动（[虞诚信念]、[少女的爱]）增加的智力数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_pas2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二觉被动增加的智力数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三觉被动增加的智力数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_b_stat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6540,7 +6656,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -7093,6 +7209,10 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -62429,7 +62549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -82423,11 +82543,12 @@
   <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="61" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -83771,7 +83892,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -89205,10 +89326,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:N44"/>
+  <dimension ref="B3:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -89222,9 +89343,10 @@
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:17">
       <c r="B3" s="80" t="s">
         <v>1499</v>
       </c>
@@ -89235,7 +89357,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>1502</v>
       </c>
@@ -89246,7 +89368,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>1505</v>
       </c>
@@ -89257,7 +89379,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:17">
       <c r="G6" t="s">
         <v>1508</v>
       </c>
@@ -89277,7 +89399,7 @@
         <v>1.5873015873015801</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:17">
       <c r="E7" s="81" t="s">
         <v>1277</v>
       </c>
@@ -89291,7 +89413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="16.5" customHeight="1">
+    <row r="8" spans="2:17" ht="16.5" customHeight="1">
       <c r="E8" s="81" t="s">
         <v>1279</v>
       </c>
@@ -89304,8 +89426,12 @@
       <c r="H8" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" customHeight="1">
+      <c r="P8" s="195" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q8" s="195"/>
+    </row>
+    <row r="9" spans="2:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="E9" s="81" t="s">
         <v>1281</v>
       </c>
@@ -89322,8 +89448,12 @@
       <c r="L9" s="4" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" customHeight="1">
+      <c r="P9" s="195" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Q9" s="195"/>
+    </row>
+    <row r="10" spans="2:17" ht="17.25" customHeight="1">
       <c r="E10" s="81" t="s">
         <v>1283</v>
       </c>
@@ -89343,8 +89473,14 @@
       <c r="L10" s="6">
         <v>4308</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1">
+      <c r="P10" s="194" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q10" s="194" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="18" customHeight="1" thickBot="1">
       <c r="E11" s="81" t="s">
         <v>1285</v>
       </c>
@@ -89364,8 +89500,14 @@
       <c r="L11" s="8">
         <v>4308</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="17.25" customHeight="1">
+      <c r="P11" s="194" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q11" s="194" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17.25" customHeight="1">
       <c r="E12" s="81" t="s">
         <v>1287</v>
       </c>
@@ -89385,8 +89527,14 @@
       <c r="L12" s="6">
         <v>4166</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1">
+      <c r="P12" s="194" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q12" s="194" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1">
       <c r="E13" s="81" t="s">
         <v>1289</v>
       </c>
@@ -89406,8 +89554,14 @@
       <c r="L13" s="10">
         <v>4166</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="17.25" customHeight="1">
+      <c r="P13" s="194" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Q13" s="194" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17.25" customHeight="1">
       <c r="E14" s="81" t="s">
         <v>1291</v>
       </c>
@@ -89427,8 +89581,14 @@
       <c r="L14" s="6">
         <v>4166</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" customHeight="1">
+      <c r="P14" s="194" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Q14" s="194" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17.25" customHeight="1">
       <c r="E15" s="81" t="s">
         <v>1296</v>
       </c>
@@ -89448,8 +89608,14 @@
       <c r="L15" s="10">
         <v>4166</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" customHeight="1">
+      <c r="P15" s="194" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q15" s="194" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" customHeight="1">
       <c r="E16" s="81" t="s">
         <v>1298</v>
       </c>
@@ -89462,8 +89628,14 @@
       <c r="H16" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" ht="16.5" customHeight="1">
+      <c r="P16" s="194" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q16" s="194" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" ht="16.5" customHeight="1">
       <c r="E17" s="83" t="s">
         <v>1300</v>
       </c>
@@ -89476,8 +89648,14 @@
       <c r="H17" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="5:11">
+      <c r="P17" s="194" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q17" s="194" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
       <c r="E18" s="83" t="s">
         <v>1302</v>
       </c>
@@ -89489,8 +89667,14 @@
       <c r="J18" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="19" spans="5:11">
+      <c r="P18" s="194" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Q18" s="194" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
       <c r="E19" s="83" t="s">
         <v>1304</v>
       </c>
@@ -89506,7 +89690,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="5:11">
+    <row r="20" spans="5:17">
       <c r="E20" s="83" t="s">
         <v>1306</v>
       </c>
@@ -89521,8 +89705,12 @@
       <c r="K20">
         <v>675</v>
       </c>
-    </row>
-    <row r="21" spans="5:11">
+      <c r="P20" s="195" t="s">
+        <v>1610</v>
+      </c>
+      <c r="Q20" s="195"/>
+    </row>
+    <row r="21" spans="5:17">
       <c r="E21" s="83" t="s">
         <v>1308</v>
       </c>
@@ -89537,8 +89725,14 @@
       <c r="K21">
         <v>665</v>
       </c>
-    </row>
-    <row r="22" spans="5:11">
+      <c r="P21" s="194" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q21" s="194" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17">
       <c r="E22" s="83" t="s">
         <v>1310</v>
       </c>
@@ -89547,8 +89741,14 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="5:11">
+      <c r="P22" s="194" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q22" s="194" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17">
       <c r="E23" s="83" t="s">
         <v>1312</v>
       </c>
@@ -89560,8 +89760,14 @@
       <c r="J23" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="24" spans="5:11">
+      <c r="P23" s="194" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q23" s="194" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17">
       <c r="E24" s="83" t="s">
         <v>1314</v>
       </c>
@@ -89570,8 +89776,14 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="5:11">
+      <c r="P24" s="194" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q24" s="194" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17">
       <c r="E25" s="83" t="s">
         <v>1316</v>
       </c>
@@ -89580,8 +89792,14 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="5:11">
+      <c r="P25" s="194" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q25" s="194" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17">
       <c r="E26" s="83" t="s">
         <v>1318</v>
       </c>
@@ -89590,8 +89808,14 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="5:11">
+      <c r="P26" s="194" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q26" s="194" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17">
       <c r="E27" s="83" t="s">
         <v>1320</v>
       </c>
@@ -89600,8 +89824,14 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="5:11">
+      <c r="P27" s="194" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q27" s="194" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17">
       <c r="E28" s="83" t="s">
         <v>1322</v>
       </c>
@@ -89611,7 +89841,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="5:11">
+    <row r="29" spans="5:17">
       <c r="E29" s="83" t="s">
         <v>1324</v>
       </c>
@@ -89621,7 +89851,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="5:11">
+    <row r="30" spans="5:17">
       <c r="E30" s="83" t="s">
         <v>1326</v>
       </c>
@@ -89631,7 +89861,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="5:11">
+    <row r="31" spans="5:17">
       <c r="E31" s="83" t="s">
         <v>1328</v>
       </c>
@@ -89641,7 +89871,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:17">
       <c r="E32" s="83" t="s">
         <v>1330</v>
       </c>
@@ -89766,6 +89996,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P8:Q8"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A0F5C-9547-45EF-B950-6F10310E3A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A9124-C2A9-4453-BC87-11EAAF01AEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1620">
   <si>
     <t>装备编码</t>
   </si>
@@ -2619,9 +2619,6 @@
     <t>21370</t>
   </si>
   <si>
-    <t>普雷-手镯</t>
-  </si>
-  <si>
     <t>22160</t>
   </si>
   <si>
@@ -2721,9 +2718,6 @@
     <t>22370</t>
   </si>
   <si>
-    <t>普雷-项链</t>
-  </si>
-  <si>
     <t>23160</t>
   </si>
   <si>
@@ -2823,9 +2817,6 @@
     <t>23370</t>
   </si>
   <si>
-    <t>普雷-戒指</t>
-  </si>
-  <si>
     <t>31200</t>
   </si>
   <si>
@@ -2925,9 +2916,6 @@
     <t>31380</t>
   </si>
   <si>
-    <t>普雷-辅助装备</t>
-  </si>
-  <si>
     <t>32200</t>
   </si>
   <si>
@@ -3027,9 +3015,6 @@
     <t>32380</t>
   </si>
   <si>
-    <t>普雷-魔法石</t>
-  </si>
-  <si>
     <t>33200</t>
   </si>
   <si>
@@ -3223,9 +3208,6 @@
   </si>
   <si>
     <t>33380</t>
-  </si>
-  <si>
-    <t>普雷-耳环</t>
   </si>
   <si>
     <t>info</t>
@@ -6029,6 +6011,138 @@
   </si>
   <si>
     <t>se_b_stat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普雷-戒指（太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普雷-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项链（太阳）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普雷-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>助装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备（太阳）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普雷-魔法石（太阳）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普雷-耳环（太阳）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普雷-手镯（太阳）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普雷-魔法石（太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普雷-耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环（太阳）</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6707,7 +6821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -7364,6 +7478,12 @@
     <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7724,11 +7844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomRight" activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -35925,7 +36045,7 @@
         <v>843</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>844</v>
+        <v>1617</v>
       </c>
       <c r="C205" s="101">
         <v>-100</v>
@@ -36053,10 +36173,10 @@
     </row>
     <row r="206" spans="1:46" ht="17.25" customHeight="1">
       <c r="A206" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="B206" s="41" t="s">
         <v>845</v>
-      </c>
-      <c r="B206" s="41" t="s">
-        <v>846</v>
       </c>
       <c r="C206" s="101">
         <v>0</v>
@@ -36164,10 +36284,10 @@
         <v>0</v>
       </c>
       <c r="AM206" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN206" s="43" t="s">
         <v>847</v>
-      </c>
-      <c r="AN206" s="43" t="s">
-        <v>848</v>
       </c>
       <c r="AO206" s="110">
         <v>0</v>
@@ -36190,10 +36310,10 @@
     </row>
     <row r="207" spans="1:46" ht="17.25" customHeight="1">
       <c r="A207" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="B207" s="41" t="s">
         <v>849</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>850</v>
       </c>
       <c r="C207" s="101">
         <v>0</v>
@@ -36301,10 +36421,10 @@
         <v>0</v>
       </c>
       <c r="AM207" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="AN207" s="43" t="s">
         <v>851</v>
-      </c>
-      <c r="AN207" s="43" t="s">
-        <v>852</v>
       </c>
       <c r="AO207" s="110">
         <v>0</v>
@@ -36327,10 +36447,10 @@
     </row>
     <row r="208" spans="1:46" ht="17.25" customHeight="1">
       <c r="A208" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="B208" s="41" t="s">
         <v>853</v>
-      </c>
-      <c r="B208" s="41" t="s">
-        <v>854</v>
       </c>
       <c r="C208" s="101">
         <v>0</v>
@@ -36438,10 +36558,10 @@
         <v>0</v>
       </c>
       <c r="AM208" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="AN208" s="43" t="s">
         <v>855</v>
-      </c>
-      <c r="AN208" s="43" t="s">
-        <v>856</v>
       </c>
       <c r="AO208" s="110">
         <v>0</v>
@@ -36464,10 +36584,10 @@
     </row>
     <row r="209" spans="1:46" ht="17.25" customHeight="1">
       <c r="A209" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="B209" s="41" t="s">
         <v>857</v>
-      </c>
-      <c r="B209" s="41" t="s">
-        <v>858</v>
       </c>
       <c r="C209" s="101">
         <v>0</v>
@@ -36575,10 +36695,10 @@
         <v>0</v>
       </c>
       <c r="AM209" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="AN209" s="43" t="s">
         <v>859</v>
-      </c>
-      <c r="AN209" s="43" t="s">
-        <v>860</v>
       </c>
       <c r="AO209" s="110">
         <v>0</v>
@@ -36601,10 +36721,10 @@
     </row>
     <row r="210" spans="1:46" ht="17.25" customHeight="1">
       <c r="A210" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="B210" s="41" t="s">
         <v>861</v>
-      </c>
-      <c r="B210" s="41" t="s">
-        <v>862</v>
       </c>
       <c r="C210" s="101">
         <v>0</v>
@@ -36712,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="AM210" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="AN210" s="43" t="s">
         <v>863</v>
-      </c>
-      <c r="AN210" s="43" t="s">
-        <v>864</v>
       </c>
       <c r="AO210" s="110">
         <v>0</v>
@@ -36738,10 +36858,10 @@
     </row>
     <row r="211" spans="1:46" ht="17.25" customHeight="1">
       <c r="A211" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="B211" s="41" t="s">
         <v>865</v>
-      </c>
-      <c r="B211" s="41" t="s">
-        <v>866</v>
       </c>
       <c r="C211" s="101">
         <v>0</v>
@@ -36849,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="AM211" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="AN211" s="43" t="s">
         <v>867</v>
-      </c>
-      <c r="AN211" s="43" t="s">
-        <v>868</v>
       </c>
       <c r="AO211" s="110">
         <v>0</v>
@@ -36875,10 +36995,10 @@
     </row>
     <row r="212" spans="1:46" ht="17.25" customHeight="1">
       <c r="A212" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="B212" s="41" t="s">
         <v>869</v>
-      </c>
-      <c r="B212" s="41" t="s">
-        <v>870</v>
       </c>
       <c r="C212" s="101">
         <v>0</v>
@@ -36986,10 +37106,10 @@
         <v>0</v>
       </c>
       <c r="AM212" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN212" s="43" t="s">
         <v>871</v>
-      </c>
-      <c r="AN212" s="43" t="s">
-        <v>872</v>
       </c>
       <c r="AO212" s="110">
         <v>0</v>
@@ -37012,10 +37132,10 @@
     </row>
     <row r="213" spans="1:46" ht="17.25" customHeight="1">
       <c r="A213" s="32" t="s">
+        <v>872</v>
+      </c>
+      <c r="B213" s="41" t="s">
         <v>873</v>
-      </c>
-      <c r="B213" s="41" t="s">
-        <v>874</v>
       </c>
       <c r="C213" s="101">
         <v>0</v>
@@ -37123,10 +37243,10 @@
         <v>0</v>
       </c>
       <c r="AM213" s="37" t="s">
+        <v>874</v>
+      </c>
+      <c r="AN213" s="43" t="s">
         <v>875</v>
-      </c>
-      <c r="AN213" s="43" t="s">
-        <v>876</v>
       </c>
       <c r="AO213" s="110">
         <v>0</v>
@@ -37149,10 +37269,10 @@
     </row>
     <row r="214" spans="1:46" ht="17.25" customHeight="1">
       <c r="A214" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>878</v>
+        <v>1613</v>
       </c>
       <c r="C214" s="101">
         <v>-100</v>
@@ -37280,10 +37400,10 @@
     </row>
     <row r="215" spans="1:46" ht="17.25" customHeight="1">
       <c r="A215" s="32" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C215" s="101">
         <v>0</v>
@@ -37391,10 +37511,10 @@
         <v>0</v>
       </c>
       <c r="AM215" s="37" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AN215" s="43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AO215" s="110">
         <v>0</v>
@@ -37417,10 +37537,10 @@
     </row>
     <row r="216" spans="1:46" ht="17.25" customHeight="1">
       <c r="A216" s="32" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B216" s="41" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C216" s="101">
         <v>0</v>
@@ -37528,10 +37648,10 @@
         <v>0</v>
       </c>
       <c r="AM216" s="37" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AN216" s="43" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AO216" s="110">
         <v>0</v>
@@ -37554,10 +37674,10 @@
     </row>
     <row r="217" spans="1:46" ht="17.25" customHeight="1">
       <c r="A217" s="32" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B217" s="41" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C217" s="101">
         <v>0</v>
@@ -37665,10 +37785,10 @@
         <v>0</v>
       </c>
       <c r="AM217" s="37" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AN217" s="43" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AO217" s="110">
         <v>0</v>
@@ -37691,10 +37811,10 @@
     </row>
     <row r="218" spans="1:46" ht="17.25" customHeight="1">
       <c r="A218" s="32" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C218" s="101">
         <v>0</v>
@@ -37802,10 +37922,10 @@
         <v>0</v>
       </c>
       <c r="AM218" s="37" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AN218" s="43" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AO218" s="110">
         <v>0</v>
@@ -37828,10 +37948,10 @@
     </row>
     <row r="219" spans="1:46" ht="17.25" customHeight="1">
       <c r="A219" s="32" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C219" s="101">
         <v>0</v>
@@ -37939,10 +38059,10 @@
         <v>0</v>
       </c>
       <c r="AM219" s="37" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AN219" s="43" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AO219" s="110">
         <v>0</v>
@@ -37965,10 +38085,10 @@
     </row>
     <row r="220" spans="1:46" ht="17.25" customHeight="1">
       <c r="A220" s="32" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C220" s="101">
         <v>0</v>
@@ -38076,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="AM220" s="37" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AN220" s="43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AO220" s="110">
         <v>0</v>
@@ -38102,10 +38222,10 @@
     </row>
     <row r="221" spans="1:46" ht="17.25" customHeight="1">
       <c r="A221" s="32" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C221" s="101">
         <v>0</v>
@@ -38213,10 +38333,10 @@
         <v>0</v>
       </c>
       <c r="AM221" s="37" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AN221" s="43" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AO221" s="110">
         <v>0</v>
@@ -38239,10 +38359,10 @@
     </row>
     <row r="222" spans="1:46" ht="17.25" customHeight="1">
       <c r="A222" s="32" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B222" s="60" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C222" s="101">
         <v>0</v>
@@ -38350,10 +38470,10 @@
         <v>0</v>
       </c>
       <c r="AM222" s="37" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AN222" s="43" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO222" s="110">
         <v>0</v>
@@ -38376,10 +38496,10 @@
     </row>
     <row r="223" spans="1:46" ht="17.25" customHeight="1">
       <c r="A223" s="32" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B223" s="45" t="s">
-        <v>912</v>
+        <v>1612</v>
       </c>
       <c r="C223" s="101">
         <v>-100</v>
@@ -38507,10 +38627,10 @@
     </row>
     <row r="224" spans="1:46" ht="17.25" customHeight="1">
       <c r="A224" s="32" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C224" s="101">
         <v>0</v>
@@ -38618,10 +38738,10 @@
         <v>0</v>
       </c>
       <c r="AM224" s="37" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AN224" s="43" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AO224" s="110">
         <v>0</v>
@@ -38644,10 +38764,10 @@
     </row>
     <row r="225" spans="1:46" ht="17.25" customHeight="1">
       <c r="A225" s="32" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C225" s="101">
         <v>0</v>
@@ -38755,10 +38875,10 @@
         <v>0</v>
       </c>
       <c r="AM225" s="37" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AN225" s="43" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AO225" s="110">
         <v>0</v>
@@ -38781,10 +38901,10 @@
     </row>
     <row r="226" spans="1:46" ht="17.25" customHeight="1">
       <c r="A226" s="32" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B226" s="41" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C226" s="101">
         <v>0</v>
@@ -38892,10 +39012,10 @@
         <v>0</v>
       </c>
       <c r="AM226" s="37" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AN226" s="43" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="AO226" s="110">
         <v>0</v>
@@ -38918,10 +39038,10 @@
     </row>
     <row r="227" spans="1:46" ht="17.25" customHeight="1">
       <c r="A227" s="32" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B227" s="60" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C227" s="101">
         <v>0</v>
@@ -39029,10 +39149,10 @@
         <v>0</v>
       </c>
       <c r="AM227" s="37" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="AN227" s="43" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="AO227" s="110">
         <v>0</v>
@@ -39055,10 +39175,10 @@
     </row>
     <row r="228" spans="1:46" ht="17.25" customHeight="1">
       <c r="A228" s="32" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B228" s="41" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C228" s="101">
         <v>0</v>
@@ -39166,10 +39286,10 @@
         <v>0</v>
       </c>
       <c r="AM228" s="37" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="AN228" s="43" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="AO228" s="110">
         <v>0</v>
@@ -39192,10 +39312,10 @@
     </row>
     <row r="229" spans="1:46" ht="17.25" customHeight="1">
       <c r="A229" s="32" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C229" s="101">
         <v>0</v>
@@ -39303,10 +39423,10 @@
         <v>0</v>
       </c>
       <c r="AM229" s="37" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AN229" s="43" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AO229" s="110">
         <v>0</v>
@@ -39329,10 +39449,10 @@
     </row>
     <row r="230" spans="1:46" ht="17.25" customHeight="1">
       <c r="A230" s="32" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C230" s="101">
         <v>0</v>
@@ -39440,10 +39560,10 @@
         <v>0</v>
       </c>
       <c r="AM230" s="37" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="AN230" s="43" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="AO230" s="110">
         <v>0</v>
@@ -39466,10 +39586,10 @@
     </row>
     <row r="231" spans="1:46" ht="17.25" customHeight="1">
       <c r="A231" s="32" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C231" s="101">
         <v>0</v>
@@ -39577,10 +39697,10 @@
         <v>0</v>
       </c>
       <c r="AM231" s="37" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="AN231" s="43" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="AO231" s="110">
         <v>0</v>
@@ -39603,10 +39723,10 @@
     </row>
     <row r="232" spans="1:46" ht="17.25" customHeight="1">
       <c r="A232" s="32" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B232" s="45" t="s">
-        <v>946</v>
+        <v>1614</v>
       </c>
       <c r="C232" s="101">
         <v>-100</v>
@@ -39734,10 +39854,10 @@
     </row>
     <row r="233" spans="1:46" ht="17.25" customHeight="1">
       <c r="A233" s="32" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C233" s="101">
         <v>0</v>
@@ -39845,10 +39965,10 @@
         <v>0</v>
       </c>
       <c r="AM233" s="37" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AN233" s="43" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AO233" s="110">
         <v>0</v>
@@ -39871,10 +39991,10 @@
     </row>
     <row r="234" spans="1:46" ht="17.25" customHeight="1">
       <c r="A234" s="32" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C234" s="101">
         <v>0</v>
@@ -39982,10 +40102,10 @@
         <v>0</v>
       </c>
       <c r="AM234" s="37" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AN234" s="43" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AO234" s="110">
         <v>0</v>
@@ -40008,10 +40128,10 @@
     </row>
     <row r="235" spans="1:46" ht="17.25" customHeight="1">
       <c r="A235" s="32" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B235" s="41" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C235" s="101">
         <v>0</v>
@@ -40119,10 +40239,10 @@
         <v>0</v>
       </c>
       <c r="AM235" s="37" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AN235" s="43" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AO235" s="110">
         <v>0</v>
@@ -40145,10 +40265,10 @@
     </row>
     <row r="236" spans="1:46" ht="17.25" customHeight="1">
       <c r="A236" s="32" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B236" s="41" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C236" s="101">
         <v>0</v>
@@ -40256,10 +40376,10 @@
         <v>0</v>
       </c>
       <c r="AM236" s="37" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AN236" s="43" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AO236" s="110">
         <v>0</v>
@@ -40282,10 +40402,10 @@
     </row>
     <row r="237" spans="1:46" ht="17.25" customHeight="1">
       <c r="A237" s="32" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B237" s="41" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C237" s="101">
         <v>0</v>
@@ -40393,10 +40513,10 @@
         <v>0</v>
       </c>
       <c r="AM237" s="37" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AN237" s="43" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AO237" s="110">
         <v>0</v>
@@ -40419,10 +40539,10 @@
     </row>
     <row r="238" spans="1:46" ht="17.25" customHeight="1">
       <c r="A238" s="32" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B238" s="41" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C238" s="101">
         <v>0</v>
@@ -40530,10 +40650,10 @@
         <v>0</v>
       </c>
       <c r="AM238" s="37" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AN238" s="43" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AO238" s="110">
         <v>0</v>
@@ -40556,10 +40676,10 @@
     </row>
     <row r="239" spans="1:46" ht="17.25" customHeight="1">
       <c r="A239" s="32" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B239" s="41" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C239" s="101">
         <v>0</v>
@@ -40667,10 +40787,10 @@
         <v>0</v>
       </c>
       <c r="AM239" s="37" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="AN239" s="43" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="AO239" s="110">
         <v>0</v>
@@ -40693,10 +40813,10 @@
     </row>
     <row r="240" spans="1:46" ht="17.25" customHeight="1">
       <c r="A240" s="32" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B240" s="41" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C240" s="101">
         <v>0</v>
@@ -40804,10 +40924,10 @@
         <v>0</v>
       </c>
       <c r="AM240" s="37" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="AN240" s="43" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="AO240" s="110">
         <v>0</v>
@@ -40830,10 +40950,10 @@
     </row>
     <row r="241" spans="1:46" ht="17.25" customHeight="1">
       <c r="A241" s="32" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B241" s="45" t="s">
-        <v>980</v>
+        <v>1618</v>
       </c>
       <c r="C241" s="101">
         <v>-100</v>
@@ -40961,10 +41081,10 @@
     </row>
     <row r="242" spans="1:46" ht="17.25" customHeight="1">
       <c r="A242" s="32" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C242" s="101">
         <v>0</v>
@@ -41072,10 +41192,10 @@
         <v>0</v>
       </c>
       <c r="AM242" s="37" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="AN242" s="43" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="AO242" s="110">
         <v>0</v>
@@ -41098,10 +41218,10 @@
     </row>
     <row r="243" spans="1:46" ht="17.25" customHeight="1">
       <c r="A243" s="32" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B243" s="41" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C243" s="101">
         <v>0</v>
@@ -41209,10 +41329,10 @@
         <v>0</v>
       </c>
       <c r="AM243" s="37" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AN243" s="43" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="AO243" s="110">
         <v>0</v>
@@ -41235,10 +41355,10 @@
     </row>
     <row r="244" spans="1:46" ht="17.25" customHeight="1">
       <c r="A244" s="32" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B244" s="41" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C244" s="101">
         <v>0</v>
@@ -41346,10 +41466,10 @@
         <v>0</v>
       </c>
       <c r="AM244" s="37" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="AN244" s="43" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="AO244" s="110">
         <v>0</v>
@@ -41372,10 +41492,10 @@
     </row>
     <row r="245" spans="1:46" ht="17.25" customHeight="1">
       <c r="A245" s="32" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B245" s="41" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C245" s="101">
         <v>0</v>
@@ -41483,10 +41603,10 @@
         <v>0</v>
       </c>
       <c r="AM245" s="37" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="AN245" s="43" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AO245" s="110">
         <v>0</v>
@@ -41509,10 +41629,10 @@
     </row>
     <row r="246" spans="1:46" ht="17.25" customHeight="1">
       <c r="A246" s="32" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B246" s="41" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C246" s="101">
         <v>0</v>
@@ -41620,10 +41740,10 @@
         <v>0</v>
       </c>
       <c r="AM246" s="37" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AN246" s="43" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="AO246" s="110">
         <v>0</v>
@@ -41646,10 +41766,10 @@
     </row>
     <row r="247" spans="1:46" ht="17.25" customHeight="1">
       <c r="A247" s="32" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B247" s="41" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C247" s="101">
         <v>0</v>
@@ -41757,10 +41877,10 @@
         <v>0</v>
       </c>
       <c r="AM247" s="37" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="AN247" s="43" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="AO247" s="110">
         <v>0</v>
@@ -41783,10 +41903,10 @@
     </row>
     <row r="248" spans="1:46" ht="17.25" customHeight="1">
       <c r="A248" s="32" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B248" s="41" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C248" s="101">
         <v>0</v>
@@ -41894,10 +42014,10 @@
         <v>0</v>
       </c>
       <c r="AM248" s="37" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="AN248" s="43" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="AO248" s="110">
         <v>0</v>
@@ -41920,10 +42040,10 @@
     </row>
     <row r="249" spans="1:46" ht="17.25" customHeight="1">
       <c r="A249" s="32" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B249" s="41" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C249" s="101">
         <v>220</v>
@@ -42031,10 +42151,10 @@
         <v>0</v>
       </c>
       <c r="AM249" s="37" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AN249" s="43" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="AO249" s="110">
         <v>0</v>
@@ -42057,10 +42177,10 @@
     </row>
     <row r="250" spans="1:46" ht="17.25" customHeight="1">
       <c r="A250" s="32" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B250" s="41" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C250" s="101">
         <v>0</v>
@@ -42168,10 +42288,10 @@
         <v>0</v>
       </c>
       <c r="AM250" s="37" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AN250" s="43" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AO250" s="110">
         <v>0</v>
@@ -42194,10 +42314,10 @@
     </row>
     <row r="251" spans="1:46" ht="17.25" customHeight="1">
       <c r="A251" s="32" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B251" s="41" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C251" s="101">
         <v>0</v>
@@ -42305,10 +42425,10 @@
         <v>0</v>
       </c>
       <c r="AM251" s="69" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AN251" s="43" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="AO251" s="110">
         <v>0</v>
@@ -42331,10 +42451,10 @@
     </row>
     <row r="252" spans="1:46" ht="17.25" customHeight="1">
       <c r="A252" s="32" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B252" s="41" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C252" s="101">
         <v>0</v>
@@ -42442,10 +42562,10 @@
         <v>0</v>
       </c>
       <c r="AM252" s="37" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="AN252" s="43" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="AO252" s="110">
         <v>0</v>
@@ -42468,10 +42588,10 @@
     </row>
     <row r="253" spans="1:46" ht="17.25" customHeight="1">
       <c r="A253" s="32" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B253" s="60" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C253" s="101">
         <v>300</v>
@@ -42579,10 +42699,10 @@
         <v>0</v>
       </c>
       <c r="AM253" s="37" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AN253" s="43" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AO253" s="110">
         <v>0</v>
@@ -42605,10 +42725,10 @@
     </row>
     <row r="254" spans="1:46" ht="17.25" customHeight="1">
       <c r="A254" s="32" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B254" s="41" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C254" s="101">
         <v>0</v>
@@ -42716,10 +42836,10 @@
         <v>0</v>
       </c>
       <c r="AM254" s="37" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AN254" s="43" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="AO254" s="110">
         <v>0</v>
@@ -42742,10 +42862,10 @@
     </row>
     <row r="255" spans="1:46" ht="17.25" customHeight="1">
       <c r="A255" s="32" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B255" s="41" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C255" s="101">
         <v>0</v>
@@ -42853,10 +42973,10 @@
         <v>0</v>
       </c>
       <c r="AM255" s="69" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="AN255" s="43" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AO255" s="110">
         <v>0.9</v>
@@ -42879,10 +42999,10 @@
     </row>
     <row r="256" spans="1:46" ht="17.25" customHeight="1">
       <c r="A256" s="32" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B256" s="41" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C256" s="101">
         <v>0</v>
@@ -42990,10 +43110,10 @@
         <v>0</v>
       </c>
       <c r="AM256" s="37" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="AN256" s="43" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AO256" s="110">
         <v>0</v>
@@ -43016,10 +43136,10 @@
     </row>
     <row r="257" spans="1:46" ht="17.25" customHeight="1">
       <c r="A257" s="32" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B257" s="41" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C257" s="101">
         <v>140</v>
@@ -43127,10 +43247,10 @@
         <v>0</v>
       </c>
       <c r="AM257" s="37" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AN257" s="43" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="AO257" s="110">
         <v>0</v>
@@ -43153,10 +43273,10 @@
     </row>
     <row r="258" spans="1:46" ht="17.25" customHeight="1">
       <c r="A258" s="32" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B258" s="62" t="s">
-        <v>1046</v>
+        <v>1619</v>
       </c>
       <c r="C258" s="101">
         <v>-100</v>
@@ -43284,70 +43404,70 @@
     </row>
     <row r="259" spans="1:46" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A259" s="33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C259" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D259" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E259" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F259" s="31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G259" s="31" t="s">
         <v>1047</v>
       </c>
-      <c r="B259" s="33" t="s">
+      <c r="H259" s="31" t="s">
         <v>1048</v>
       </c>
-      <c r="C259" s="31" t="s">
+      <c r="I259" s="31" t="s">
         <v>1049</v>
       </c>
-      <c r="D259" s="31" t="s">
+      <c r="J259" s="31" t="s">
         <v>1050</v>
       </c>
-      <c r="E259" s="31" t="s">
+      <c r="K259" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="F259" s="31" t="s">
+      <c r="L259" s="48" t="s">
         <v>1052</v>
       </c>
-      <c r="G259" s="31" t="s">
+      <c r="M259" s="31" t="s">
         <v>1053</v>
       </c>
-      <c r="H259" s="31" t="s">
+      <c r="N259" s="31" t="s">
         <v>1054</v>
       </c>
-      <c r="I259" s="31" t="s">
+      <c r="O259" s="49" t="s">
         <v>1055</v>
       </c>
-      <c r="J259" s="31" t="s">
+      <c r="P259" s="50" t="s">
         <v>1056</v>
       </c>
-      <c r="K259" s="31" t="s">
+      <c r="Q259" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="L259" s="48" t="s">
+      <c r="R259" s="35" t="s">
         <v>1058</v>
       </c>
-      <c r="M259" s="31" t="s">
+      <c r="S259" s="51" t="s">
         <v>1059</v>
       </c>
-      <c r="N259" s="31" t="s">
+      <c r="T259" s="51" t="s">
         <v>1060</v>
       </c>
-      <c r="O259" s="49" t="s">
+      <c r="U259" s="51" t="s">
         <v>1061</v>
       </c>
-      <c r="P259" s="50" t="s">
+      <c r="V259" s="51" t="s">
         <v>1062</v>
-      </c>
-      <c r="Q259" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="R259" s="35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="S259" s="51" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T259" s="51" t="s">
-        <v>1066</v>
-      </c>
-      <c r="U259" s="51" t="s">
-        <v>1067</v>
-      </c>
-      <c r="V259" s="51" t="s">
-        <v>1068</v>
       </c>
       <c r="W259" s="31" t="s">
         <v>22</v>
@@ -43356,7 +43476,7 @@
         <v>23</v>
       </c>
       <c r="Y259" s="31" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Z259" s="31" t="s">
         <v>25</v>
@@ -43392,7 +43512,7 @@
         <v>35</v>
       </c>
       <c r="AK259" s="35" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AL259" s="35"/>
       <c r="AM259" s="51" t="s">
@@ -43402,13 +43522,13 @@
         <v>38</v>
       </c>
       <c r="AO259" s="110" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AP259" s="110">
         <v>50</v>
       </c>
       <c r="AQ259" s="110" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="AR259" s="110">
         <v>85</v>
@@ -43497,7 +43617,7 @@
         <v>25</v>
       </c>
       <c r="Z260" s="74" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AA260" s="34">
         <v>27</v>
@@ -43562,10 +43682,10 @@
     </row>
     <row r="261" spans="1:46" ht="14.25" customHeight="1">
       <c r="A261" s="58" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B261" s="66" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C261" s="116">
         <v>0</v>
@@ -43664,10 +43784,10 @@
     </row>
     <row r="262" spans="1:46" ht="14.25" customHeight="1">
       <c r="A262" s="58" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B262" s="66" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C262" s="116">
         <v>0</v>
@@ -43766,10 +43886,10 @@
     </row>
     <row r="263" spans="1:46" ht="14.25" customHeight="1">
       <c r="A263" s="58" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B263" s="66" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C263" s="116">
         <v>0</v>
@@ -43868,10 +43988,10 @@
     </row>
     <row r="264" spans="1:46" ht="14.25" customHeight="1">
       <c r="A264" s="58" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B264" s="66" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C264" s="116">
         <v>0</v>
@@ -43970,10 +44090,10 @@
     </row>
     <row r="265" spans="1:46" ht="14.25" customHeight="1">
       <c r="A265" s="58" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B265" s="66" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C265" s="116">
         <v>0</v>
@@ -44072,10 +44192,10 @@
     </row>
     <row r="266" spans="1:46" ht="14.25" customHeight="1">
       <c r="A266" s="58" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B266" s="66" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C266" s="116">
         <v>0</v>
@@ -44174,10 +44294,10 @@
     </row>
     <row r="267" spans="1:46" ht="14.25" customHeight="1">
       <c r="A267" s="58" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B267" s="66" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C267" s="116">
         <v>0</v>
@@ -44276,10 +44396,10 @@
     </row>
     <row r="268" spans="1:46" ht="14.25" customHeight="1">
       <c r="A268" s="58" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B268" s="66" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C268" s="116">
         <v>0</v>
@@ -44378,10 +44498,10 @@
     </row>
     <row r="269" spans="1:46" ht="14.25" customHeight="1">
       <c r="A269" s="58" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B269" s="66" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C269" s="116">
         <v>0</v>
@@ -44480,10 +44600,10 @@
     </row>
     <row r="270" spans="1:46" ht="14.25" customHeight="1">
       <c r="A270" s="58" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="66" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C270" s="116">
         <v>0</v>
@@ -44582,10 +44702,10 @@
     </row>
     <row r="271" spans="1:46" ht="14.25" customHeight="1">
       <c r="A271" s="58" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B271" s="66" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C271" s="116">
         <v>0</v>
@@ -44684,10 +44804,10 @@
     </row>
     <row r="272" spans="1:46" ht="14.25" customHeight="1">
       <c r="A272" s="58" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B272" s="66" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C272" s="116">
         <v>0</v>
@@ -44786,10 +44906,10 @@
     </row>
     <row r="273" spans="1:46" ht="14.25" customHeight="1">
       <c r="A273" s="58" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B273" s="66" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C273" s="116">
         <v>0</v>
@@ -44888,10 +45008,10 @@
     </row>
     <row r="274" spans="1:46" ht="14.25" customHeight="1">
       <c r="A274" s="58" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B274" s="66" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C274" s="116">
         <v>0</v>
@@ -44990,10 +45110,10 @@
     </row>
     <row r="275" spans="1:46" ht="14.25" customHeight="1">
       <c r="A275" s="58" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B275" s="66" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C275" s="116">
         <v>0</v>
@@ -45092,10 +45212,10 @@
     </row>
     <row r="276" spans="1:46" ht="14.25" customHeight="1">
       <c r="A276" s="58" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B276" s="66" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C276" s="116">
         <v>0</v>
@@ -45194,10 +45314,10 @@
     </row>
     <row r="277" spans="1:46" ht="14.25" customHeight="1">
       <c r="A277" s="58" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B277" s="66" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C277" s="116">
         <v>0</v>
@@ -45296,10 +45416,10 @@
     </row>
     <row r="278" spans="1:46" ht="14.25" customHeight="1">
       <c r="A278" s="58" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B278" s="66" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C278" s="116">
         <v>0</v>
@@ -45398,10 +45518,10 @@
     </row>
     <row r="279" spans="1:46" ht="14.25" customHeight="1">
       <c r="A279" s="58" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B279" s="66" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C279" s="116">
         <v>0</v>
@@ -45500,10 +45620,10 @@
     </row>
     <row r="280" spans="1:46" ht="14.25" customHeight="1">
       <c r="A280" s="58" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B280" s="66" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C280" s="116">
         <v>0</v>
@@ -45602,10 +45722,10 @@
     </row>
     <row r="281" spans="1:46" ht="14.25" customHeight="1">
       <c r="A281" s="58" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B281" s="66" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C281" s="116">
         <v>0</v>
@@ -45704,10 +45824,10 @@
     </row>
     <row r="282" spans="1:46" ht="14.25" customHeight="1">
       <c r="A282" s="58" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B282" s="66" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C282" s="116">
         <v>0</v>
@@ -45806,10 +45926,10 @@
     </row>
     <row r="283" spans="1:46" ht="14.25" customHeight="1">
       <c r="A283" s="58" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B283" s="66" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C283" s="116">
         <v>0</v>
@@ -45908,10 +46028,10 @@
     </row>
     <row r="284" spans="1:46" ht="14.25" customHeight="1">
       <c r="A284" s="58" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B284" s="66" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C284" s="116">
         <v>0</v>
@@ -46010,10 +46130,10 @@
     </row>
     <row r="285" spans="1:46" ht="14.25" customHeight="1">
       <c r="A285" s="58" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="B285" s="66" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C285" s="116">
         <v>0</v>
@@ -46112,10 +46232,10 @@
     </row>
     <row r="286" spans="1:46" ht="14.25" customHeight="1">
       <c r="A286" s="58" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B286" s="66" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C286" s="116">
         <v>0</v>
@@ -46214,10 +46334,10 @@
     </row>
     <row r="287" spans="1:46" ht="14.25" customHeight="1">
       <c r="A287" s="58" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B287" s="66" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C287" s="116">
         <v>0</v>
@@ -46316,10 +46436,10 @@
     </row>
     <row r="288" spans="1:46" ht="14.25" customHeight="1">
       <c r="A288" s="58" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B288" s="66" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C288" s="116">
         <v>0</v>
@@ -46418,10 +46538,10 @@
     </row>
     <row r="289" spans="1:46" ht="14.25" customHeight="1">
       <c r="A289" s="58" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="B289" s="66" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C289" s="116">
         <v>0</v>
@@ -46520,10 +46640,10 @@
     </row>
     <row r="290" spans="1:46" ht="14.25" customHeight="1">
       <c r="A290" s="58" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B290" s="66" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C290" s="116">
         <v>0</v>
@@ -46622,10 +46742,10 @@
     </row>
     <row r="291" spans="1:46" ht="14.25" customHeight="1">
       <c r="A291" s="58" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B291" s="66" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C291" s="116">
         <v>0</v>
@@ -46724,10 +46844,10 @@
     </row>
     <row r="292" spans="1:46" ht="14.25" customHeight="1">
       <c r="A292" s="58" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B292" s="66" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C292" s="116">
         <v>0</v>
@@ -46826,10 +46946,10 @@
     </row>
     <row r="293" spans="1:46" ht="14.25" customHeight="1">
       <c r="A293" s="58" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B293" s="66" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C293" s="116">
         <v>0</v>
@@ -46928,10 +47048,10 @@
     </row>
     <row r="294" spans="1:46" ht="14.25" customHeight="1">
       <c r="A294" s="58" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B294" s="66" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C294" s="116">
         <v>0</v>
@@ -47030,10 +47150,10 @@
     </row>
     <row r="295" spans="1:46" ht="14.25" customHeight="1">
       <c r="A295" s="58" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B295" s="66" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C295" s="116">
         <v>0</v>
@@ -47132,10 +47252,10 @@
     </row>
     <row r="296" spans="1:46" ht="14.25" customHeight="1">
       <c r="A296" s="58" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B296" s="66" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C296" s="116">
         <v>0</v>
@@ -47234,10 +47354,10 @@
     </row>
     <row r="297" spans="1:46" ht="14.25" customHeight="1">
       <c r="A297" s="58" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B297" s="66" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C297" s="116">
         <v>0</v>
@@ -47336,10 +47456,10 @@
     </row>
     <row r="298" spans="1:46" ht="14.25" customHeight="1">
       <c r="A298" s="58" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B298" s="66" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C298" s="116">
         <v>0</v>
@@ -47438,10 +47558,10 @@
     </row>
     <row r="299" spans="1:46" ht="14.25" customHeight="1">
       <c r="A299" s="58" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B299" s="66" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C299" s="116">
         <v>0</v>
@@ -47540,10 +47660,10 @@
     </row>
     <row r="300" spans="1:46" ht="14.25" customHeight="1">
       <c r="A300" s="58" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B300" s="66" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C300" s="116">
         <v>0</v>
@@ -47642,10 +47762,10 @@
     </row>
     <row r="301" spans="1:46" ht="14.25" customHeight="1">
       <c r="A301" s="58" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B301" s="66" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C301" s="116">
         <v>0</v>
@@ -47744,10 +47864,10 @@
     </row>
     <row r="302" spans="1:46" ht="14.25" customHeight="1">
       <c r="A302" s="58" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B302" s="66" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C302" s="116">
         <v>0</v>
@@ -47846,10 +47966,10 @@
     </row>
     <row r="303" spans="1:46" ht="14.25" customHeight="1">
       <c r="A303" s="58" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="B303" s="66" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C303" s="116">
         <v>0</v>
@@ -47948,10 +48068,10 @@
     </row>
     <row r="304" spans="1:46" ht="14.25" customHeight="1">
       <c r="A304" s="58" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B304" s="66" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C304" s="116">
         <v>0</v>
@@ -48050,10 +48170,10 @@
     </row>
     <row r="305" spans="1:46" ht="14.25" customHeight="1">
       <c r="A305" s="58" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B305" s="66" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C305" s="116">
         <v>0</v>
@@ -48152,10 +48272,10 @@
     </row>
     <row r="306" spans="1:46" ht="14.25" customHeight="1">
       <c r="A306" s="58" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B306" s="66" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C306" s="116">
         <v>0</v>
@@ -48254,10 +48374,10 @@
     </row>
     <row r="307" spans="1:46" ht="14.25" customHeight="1">
       <c r="A307" s="58" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B307" s="66" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C307" s="116">
         <v>0</v>
@@ -48356,10 +48476,10 @@
     </row>
     <row r="308" spans="1:46" ht="14.25" customHeight="1">
       <c r="A308" s="58" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B308" s="66" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C308" s="116">
         <v>0</v>
@@ -48458,10 +48578,10 @@
     </row>
     <row r="309" spans="1:46" ht="14.25" customHeight="1">
       <c r="A309" s="58" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B309" s="66" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C309" s="116">
         <v>0</v>
@@ -48560,10 +48680,10 @@
     </row>
     <row r="310" spans="1:46" ht="14.25" customHeight="1">
       <c r="A310" s="58" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B310" s="66" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C310" s="116">
         <v>0</v>
@@ -48662,10 +48782,10 @@
     </row>
     <row r="311" spans="1:46" ht="14.25" customHeight="1">
       <c r="A311" s="58" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B311" s="66" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C311" s="116">
         <v>0</v>
@@ -48764,10 +48884,10 @@
     </row>
     <row r="312" spans="1:46" ht="14.25" customHeight="1">
       <c r="A312" s="58" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B312" s="66" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C312" s="116">
         <v>0</v>
@@ -48866,10 +48986,10 @@
     </row>
     <row r="313" spans="1:46" ht="14.25" customHeight="1">
       <c r="A313" s="58" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B313" s="66" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C313" s="116">
         <v>0</v>
@@ -48968,10 +49088,10 @@
     </row>
     <row r="314" spans="1:46" ht="14.25" customHeight="1">
       <c r="A314" s="58" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B314" s="66" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C314" s="116">
         <v>0</v>
@@ -49070,10 +49190,10 @@
     </row>
     <row r="315" spans="1:46" ht="14.25" customHeight="1">
       <c r="A315" s="58" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B315" s="66" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C315" s="116">
         <v>0</v>
@@ -49172,10 +49292,10 @@
     </row>
     <row r="316" spans="1:46" ht="14.25" customHeight="1">
       <c r="A316" s="58" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B316" s="66" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C316" s="116">
         <v>0</v>
@@ -49274,10 +49394,10 @@
     </row>
     <row r="317" spans="1:46" ht="14.25" customHeight="1">
       <c r="A317" s="58" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B317" s="66" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C317" s="116">
         <v>0</v>
@@ -49376,10 +49496,10 @@
     </row>
     <row r="318" spans="1:46" ht="14.25" customHeight="1">
       <c r="A318" s="58" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B318" s="66" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C318" s="116">
         <v>0</v>
@@ -49478,10 +49598,10 @@
     </row>
     <row r="319" spans="1:46" ht="14.25" customHeight="1">
       <c r="A319" s="58" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B319" s="66" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C319" s="116">
         <v>0</v>
@@ -49580,10 +49700,10 @@
     </row>
     <row r="320" spans="1:46" ht="14.25" customHeight="1">
       <c r="A320" s="58" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B320" s="66" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C320" s="116">
         <v>0</v>
@@ -49682,10 +49802,10 @@
     </row>
     <row r="321" spans="1:46" ht="14.25" customHeight="1">
       <c r="A321" s="58" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B321" s="66" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C321" s="116">
         <v>0</v>
@@ -49784,10 +49904,10 @@
     </row>
     <row r="322" spans="1:46" ht="14.25" customHeight="1">
       <c r="A322" s="58" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B322" s="66" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C322" s="116">
         <v>0</v>
@@ -49886,10 +50006,10 @@
     </row>
     <row r="323" spans="1:46" ht="14.25" customHeight="1">
       <c r="A323" s="58" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B323" s="66" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C323" s="116">
         <v>0</v>
@@ -49988,10 +50108,10 @@
     </row>
     <row r="324" spans="1:46" ht="14.25" customHeight="1">
       <c r="A324" s="58" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B324" s="66" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C324" s="116">
         <v>0</v>
@@ -50090,10 +50210,10 @@
     </row>
     <row r="325" spans="1:46" ht="14.25" customHeight="1">
       <c r="A325" s="58" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B325" s="66" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C325" s="116">
         <v>0</v>
@@ -50192,10 +50312,10 @@
     </row>
     <row r="326" spans="1:46" ht="14.25" customHeight="1">
       <c r="A326" s="58" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B326" s="66" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C326" s="116">
         <v>0</v>
@@ -50294,10 +50414,10 @@
     </row>
     <row r="327" spans="1:46" ht="14.25" customHeight="1">
       <c r="A327" s="58" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B327" s="66" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C327" s="116">
         <v>0</v>
@@ -50396,10 +50516,10 @@
     </row>
     <row r="328" spans="1:46" ht="14.25" customHeight="1">
       <c r="A328" s="58" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B328" s="66" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C328" s="116">
         <v>0</v>
@@ -50498,10 +50618,10 @@
     </row>
     <row r="329" spans="1:46" ht="14.25" customHeight="1">
       <c r="A329" s="58" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B329" s="66" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C329" s="116">
         <v>0</v>
@@ -50600,10 +50720,10 @@
     </row>
     <row r="330" spans="1:46" ht="14.25" customHeight="1">
       <c r="A330" s="58" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B330" s="66" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C330" s="116">
         <v>0</v>
@@ -50702,10 +50822,10 @@
     </row>
     <row r="331" spans="1:46" ht="14.25" customHeight="1">
       <c r="A331" s="58" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B331" s="66" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C331" s="116">
         <v>0</v>
@@ -50804,10 +50924,10 @@
     </row>
     <row r="332" spans="1:46" ht="14.25" customHeight="1">
       <c r="A332" s="58" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B332" s="66" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C332" s="116">
         <v>0</v>
@@ -50906,10 +51026,10 @@
     </row>
     <row r="333" spans="1:46" ht="14.25" customHeight="1">
       <c r="A333" s="58" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B333" s="66" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C333" s="116">
         <v>0</v>
@@ -51008,10 +51128,10 @@
     </row>
     <row r="334" spans="1:46" ht="14.25" customHeight="1">
       <c r="A334" s="58" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B334" s="66" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C334" s="116">
         <v>0</v>
@@ -51110,10 +51230,10 @@
     </row>
     <row r="335" spans="1:46" ht="14.25" customHeight="1">
       <c r="A335" s="58" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B335" s="66" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C335" s="116">
         <v>0</v>
@@ -51212,10 +51332,10 @@
     </row>
     <row r="336" spans="1:46" ht="14.25" customHeight="1">
       <c r="A336" s="58" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B336" s="66" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C336" s="116">
         <v>0</v>
@@ -51314,10 +51434,10 @@
     </row>
     <row r="337" spans="1:46" ht="14.25" customHeight="1">
       <c r="A337" s="58" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B337" s="66" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C337" s="116">
         <v>0</v>
@@ -51416,10 +51536,10 @@
     </row>
     <row r="338" spans="1:46" ht="14.25" customHeight="1">
       <c r="A338" s="58" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B338" s="66" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C338" s="116">
         <v>0</v>
@@ -51518,10 +51638,10 @@
     </row>
     <row r="339" spans="1:46" ht="14.25" customHeight="1">
       <c r="A339" s="58" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B339" s="66" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C339" s="116">
         <v>0</v>
@@ -51620,10 +51740,10 @@
     </row>
     <row r="340" spans="1:46" ht="14.25" customHeight="1">
       <c r="A340" s="58" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B340" s="66" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C340" s="116">
         <v>0</v>
@@ -51722,10 +51842,10 @@
     </row>
     <row r="341" spans="1:46" ht="14.25" customHeight="1">
       <c r="A341" s="58" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B341" s="66" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C341" s="116">
         <v>0</v>
@@ -51824,10 +51944,10 @@
     </row>
     <row r="342" spans="1:46" ht="14.25" customHeight="1">
       <c r="A342" s="58" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B342" s="66" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C342" s="116">
         <v>0</v>
@@ -51926,10 +52046,10 @@
     </row>
     <row r="343" spans="1:46" ht="14.25" customHeight="1">
       <c r="A343" s="58" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B343" s="66" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C343" s="116">
         <v>0</v>
@@ -52028,10 +52148,10 @@
     </row>
     <row r="344" spans="1:46" ht="14.25" customHeight="1">
       <c r="A344" s="58" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B344" s="66" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C344" s="116">
         <v>0</v>
@@ -52130,10 +52250,10 @@
     </row>
     <row r="345" spans="1:46" ht="14.25" customHeight="1">
       <c r="A345" s="58" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B345" s="66" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C345" s="116">
         <v>0</v>
@@ -52232,7 +52352,7 @@
     </row>
     <row r="346" spans="1:46" ht="14.25" customHeight="1">
       <c r="A346" s="58" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B346" s="66"/>
       <c r="C346" s="116">
@@ -52332,10 +52452,10 @@
     </row>
     <row r="347" spans="1:46" ht="14.25" customHeight="1">
       <c r="A347" s="58" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B347" s="67" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C347" s="116">
         <v>0</v>
@@ -52434,10 +52554,10 @@
     </row>
     <row r="348" spans="1:46" ht="14.25" customHeight="1">
       <c r="A348" s="58" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B348" s="67" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C348" s="116">
         <v>0</v>
@@ -52536,7 +52656,7 @@
     </row>
     <row r="349" spans="1:46" ht="14.25" customHeight="1">
       <c r="A349" s="58" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B349" s="66"/>
       <c r="C349" s="116">
@@ -52636,10 +52756,10 @@
     </row>
     <row r="350" spans="1:46" ht="14.25" customHeight="1">
       <c r="A350" s="58" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B350" s="53" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C350" s="116">
         <v>0</v>
@@ -52738,7 +52858,7 @@
     </row>
     <row r="351" spans="1:46" ht="14.25" customHeight="1">
       <c r="A351" s="58" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B351" s="47"/>
       <c r="C351" s="116">
@@ -52838,10 +52958,10 @@
     </row>
     <row r="352" spans="1:46" ht="14.25" customHeight="1">
       <c r="A352" s="58" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B352" s="67" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C352" s="116">
         <v>0</v>
@@ -53015,7 +53135,7 @@
         <v>25</v>
       </c>
       <c r="Z353" s="74" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AK353" s="30">
         <v>27</v>
@@ -53042,70 +53162,70 @@
     </row>
     <row r="354" spans="1:46" ht="14.25" customHeight="1">
       <c r="A354" s="61" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B354" s="61" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C354" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D354" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E354" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F354" s="31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G354" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H354" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I354" s="31" t="s">
         <v>1049</v>
       </c>
-      <c r="D354" s="31" t="s">
+      <c r="J354" s="31" t="s">
         <v>1050</v>
       </c>
-      <c r="E354" s="31" t="s">
+      <c r="K354" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="F354" s="31" t="s">
+      <c r="L354" s="48" t="s">
         <v>1052</v>
       </c>
-      <c r="G354" s="31" t="s">
+      <c r="M354" s="31" t="s">
         <v>1053</v>
       </c>
-      <c r="H354" s="31" t="s">
+      <c r="N354" s="31" t="s">
         <v>1054</v>
       </c>
-      <c r="I354" s="31" t="s">
+      <c r="O354" s="49" t="s">
         <v>1055</v>
       </c>
-      <c r="J354" s="31" t="s">
+      <c r="P354" s="50" t="s">
         <v>1056</v>
       </c>
-      <c r="K354" s="31" t="s">
+      <c r="Q354" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="L354" s="48" t="s">
+      <c r="R354" s="35" t="s">
         <v>1058</v>
       </c>
-      <c r="M354" s="31" t="s">
+      <c r="S354" s="51" t="s">
         <v>1059</v>
       </c>
-      <c r="N354" s="31" t="s">
+      <c r="T354" s="51" t="s">
         <v>1060</v>
       </c>
-      <c r="O354" s="49" t="s">
+      <c r="U354" s="51" t="s">
         <v>1061</v>
       </c>
-      <c r="P354" s="50" t="s">
+      <c r="V354" s="51" t="s">
         <v>1062</v>
-      </c>
-      <c r="Q354" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="R354" s="35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="S354" s="51" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T354" s="51" t="s">
-        <v>1066</v>
-      </c>
-      <c r="U354" s="51" t="s">
-        <v>1067</v>
-      </c>
-      <c r="V354" s="51" t="s">
-        <v>1068</v>
       </c>
       <c r="W354" s="31" t="s">
         <v>22</v>
@@ -53114,7 +53234,7 @@
         <v>23</v>
       </c>
       <c r="Y354" s="31" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Z354" s="31" t="s">
         <v>25</v>
@@ -53150,7 +53270,7 @@
         <v>35</v>
       </c>
       <c r="AK354" s="35" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AO354" s="110">
         <v>0</v>
@@ -53173,10 +53293,10 @@
     </row>
     <row r="355" spans="1:46" ht="14.25" customHeight="1">
       <c r="A355" s="57" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B355" s="55" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C355" s="85">
         <v>0</v>
@@ -53307,10 +53427,10 @@
     </row>
     <row r="356" spans="1:46" ht="14.25" customHeight="1">
       <c r="A356" s="32" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B356" s="33" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C356" s="85">
         <v>0</v>
@@ -53441,10 +53561,10 @@
     </row>
     <row r="357" spans="1:46" ht="14.25" customHeight="1">
       <c r="A357" s="57" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B357" s="33" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C357" s="85">
         <v>0</v>
@@ -53575,10 +53695,10 @@
     </row>
     <row r="358" spans="1:46" ht="14.25" customHeight="1">
       <c r="A358" s="57" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B358" s="33" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C358" s="85">
         <v>150</v>
@@ -53709,10 +53829,10 @@
     </row>
     <row r="359" spans="1:46" ht="14.25" customHeight="1">
       <c r="A359" s="57" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B359" s="33" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C359" s="85">
         <v>0</v>
@@ -53843,10 +53963,10 @@
     </row>
     <row r="360" spans="1:46" ht="14.25" customHeight="1">
       <c r="A360" s="57" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="B360" s="33" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C360" s="85">
         <v>0</v>
@@ -53977,10 +54097,10 @@
     </row>
     <row r="361" spans="1:46" ht="14.25" customHeight="1">
       <c r="A361" s="57" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B361" s="33" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C361" s="85">
         <v>0</v>
@@ -54111,10 +54231,10 @@
     </row>
     <row r="362" spans="1:46" ht="14.25" customHeight="1">
       <c r="A362" s="57" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B362" s="68" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="C362" s="85">
         <v>0</v>
@@ -54245,91 +54365,91 @@
     </row>
     <row r="363" spans="1:46" ht="15" customHeight="1">
       <c r="A363" s="64" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B363" s="61" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="364" spans="1:46" ht="15" customHeight="1">
       <c r="A364" s="32" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B364" s="61" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="365" spans="1:46" ht="15" customHeight="1">
       <c r="A365" s="32" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B365" s="61" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="366" spans="1:46" ht="15" customHeight="1">
       <c r="A366" s="32" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B366" s="61" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="367" spans="1:46" ht="15" customHeight="1">
       <c r="A367" s="32" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="B367" s="61" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="368" spans="1:46" ht="15" customHeight="1">
       <c r="A368" s="32" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B368" s="61" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15" customHeight="1">
       <c r="A369" s="32" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="B369" s="61" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15" customHeight="1">
       <c r="A370" s="32" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B370" s="61" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="14.25" customHeight="1">
       <c r="A371" s="32" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B371" s="61" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C371" s="133" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D371" s="133" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="I371" s="133" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="14.25" customHeight="1">
       <c r="A372" s="32" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B372" s="61" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C372" s="134">
         <v>500</v>
@@ -54343,234 +54463,234 @@
     </row>
     <row r="373" spans="1:9" ht="15" customHeight="1">
       <c r="A373" s="32" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B373" s="61" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15" customHeight="1">
       <c r="A374" s="32" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B374" s="61" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" customHeight="1">
       <c r="A375" s="32" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B375" s="61" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15" customHeight="1">
       <c r="A376" s="32" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B376" s="61" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15" customHeight="1">
       <c r="A377" s="32" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B377" s="61" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="15" customHeight="1">
       <c r="A378" s="32" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="B378" s="61" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15" customHeight="1">
       <c r="A379" s="32" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B379" s="61" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15" customHeight="1">
       <c r="A380" s="32" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B380" s="61" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15" customHeight="1">
       <c r="A381" s="32" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B381" s="61" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="15" customHeight="1">
       <c r="A382" s="32" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="B382" s="61" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15" customHeight="1">
       <c r="A383" s="32" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="B383" s="61" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15" customHeight="1">
       <c r="A384" s="32" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B384" s="61" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" customHeight="1">
       <c r="A385" s="32" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B385" s="61" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" customHeight="1">
       <c r="A386" s="32" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B386" s="61" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" customHeight="1">
       <c r="A387" s="32" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B387" s="61" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" customHeight="1">
       <c r="A388" s="32" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B388" s="61" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" customHeight="1">
       <c r="A389" s="32" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="B389" s="61" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" customHeight="1">
       <c r="A390" s="32" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B390" s="61" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" customHeight="1">
       <c r="A391" s="32" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B391" s="61" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" customHeight="1">
       <c r="A392" s="32" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B392" s="61" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" customHeight="1">
       <c r="A393" s="32" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="B393" s="61" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" customHeight="1">
       <c r="A394" s="32" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B394" s="61" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" customHeight="1">
       <c r="A395" s="32" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B395" s="61" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" customHeight="1">
       <c r="A396" s="32" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B396" s="61" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" customHeight="1">
       <c r="A397" s="32" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B397" s="61" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" customHeight="1">
       <c r="A398" s="32" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B398" s="61" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" customHeight="1">
       <c r="A399" s="32" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B399" s="61" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" customHeight="1">
       <c r="A400" s="32" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B400" s="61" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" customHeight="1">
       <c r="A401" s="32" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B401" s="61" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="14.25"/>
@@ -54714,7 +54834,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1">
       <c r="A1" s="72" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>1</v>
@@ -54795,10 +54915,10 @@
     </row>
     <row r="2" spans="1:28" ht="17.25" customHeight="1">
       <c r="A2" s="135" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C2" s="116">
         <v>0</v>
@@ -54878,10 +54998,10 @@
     </row>
     <row r="3" spans="1:28" ht="17.25" customHeight="1">
       <c r="A3" s="135" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="116">
         <v>0</v>
@@ -54961,10 +55081,10 @@
     </row>
     <row r="4" spans="1:28" ht="17.25" customHeight="1">
       <c r="A4" s="135" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C4" s="116">
         <v>0</v>
@@ -55044,10 +55164,10 @@
     </row>
     <row r="5" spans="1:28" ht="17.25" customHeight="1">
       <c r="A5" s="135" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C5" s="116">
         <v>0</v>
@@ -55127,10 +55247,10 @@
     </row>
     <row r="6" spans="1:28" ht="17.25" customHeight="1">
       <c r="A6" s="135" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C6" s="116">
         <v>0</v>
@@ -55210,10 +55330,10 @@
     </row>
     <row r="7" spans="1:28" ht="17.25" customHeight="1">
       <c r="A7" s="135" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="116">
         <v>0</v>
@@ -55296,10 +55416,10 @@
     </row>
     <row r="8" spans="1:28" ht="17.25" customHeight="1">
       <c r="A8" s="135" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C8" s="116">
         <v>0</v>
@@ -55379,10 +55499,10 @@
     </row>
     <row r="9" spans="1:28" ht="17.25" customHeight="1">
       <c r="A9" s="135" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C9" s="116">
         <v>0</v>
@@ -55462,10 +55582,10 @@
     </row>
     <row r="10" spans="1:28" ht="17.25" customHeight="1">
       <c r="A10" s="135" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C10" s="116">
         <v>0</v>
@@ -55545,10 +55665,10 @@
     </row>
     <row r="11" spans="1:28" ht="17.25" customHeight="1">
       <c r="A11" s="135" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C11" s="116">
         <v>0</v>
@@ -55628,10 +55748,10 @@
     </row>
     <row r="12" spans="1:28" ht="17.25" customHeight="1">
       <c r="A12" s="135" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C12" s="116">
         <v>0</v>
@@ -55711,10 +55831,10 @@
     </row>
     <row r="13" spans="1:28" ht="17.25" customHeight="1">
       <c r="A13" s="135" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C13" s="116">
         <v>0</v>
@@ -55794,10 +55914,10 @@
     </row>
     <row r="14" spans="1:28" ht="17.25" customHeight="1">
       <c r="A14" s="135" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C14" s="116">
         <v>0</v>
@@ -55877,10 +55997,10 @@
     </row>
     <row r="15" spans="1:28" ht="17.25" customHeight="1">
       <c r="A15" s="135" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C15" s="116">
         <v>0</v>
@@ -55960,10 +56080,10 @@
     </row>
     <row r="16" spans="1:28" ht="17.25" customHeight="1">
       <c r="A16" s="135" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C16" s="116">
         <v>0</v>
@@ -56043,10 +56163,10 @@
     </row>
     <row r="17" spans="1:28" ht="17.25" customHeight="1">
       <c r="A17" s="135" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C17" s="116">
         <v>0</v>
@@ -56126,10 +56246,10 @@
     </row>
     <row r="18" spans="1:28" ht="17.25" customHeight="1">
       <c r="A18" s="135" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C18" s="116">
         <v>0</v>
@@ -56209,10 +56329,10 @@
     </row>
     <row r="19" spans="1:28" ht="17.25" customHeight="1">
       <c r="A19" s="135" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C19" s="116">
         <v>0</v>
@@ -56292,10 +56412,10 @@
     </row>
     <row r="20" spans="1:28" ht="17.25" customHeight="1">
       <c r="A20" s="135" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C20" s="116">
         <v>0</v>
@@ -56375,10 +56495,10 @@
     </row>
     <row r="21" spans="1:28" ht="17.25" customHeight="1">
       <c r="A21" s="135" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C21" s="116">
         <v>0</v>
@@ -56458,10 +56578,10 @@
     </row>
     <row r="22" spans="1:28" ht="17.25" customHeight="1">
       <c r="A22" s="135" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C22" s="116">
         <v>0</v>
@@ -56541,10 +56661,10 @@
     </row>
     <row r="23" spans="1:28" ht="17.25" customHeight="1">
       <c r="A23" s="135" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C23" s="116">
         <v>0</v>
@@ -56624,10 +56744,10 @@
     </row>
     <row r="24" spans="1:28" ht="17.25" customHeight="1">
       <c r="A24" s="135" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C24" s="116">
         <v>0</v>
@@ -56707,10 +56827,10 @@
     </row>
     <row r="25" spans="1:28" ht="17.25" customHeight="1">
       <c r="A25" s="135" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C25" s="116">
         <v>0</v>
@@ -56790,10 +56910,10 @@
     </row>
     <row r="26" spans="1:28" ht="17.25" customHeight="1">
       <c r="A26" s="135" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C26" s="116">
         <v>0</v>
@@ -56873,10 +56993,10 @@
     </row>
     <row r="27" spans="1:28" ht="17.25" customHeight="1">
       <c r="A27" s="135" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C27" s="116">
         <v>0</v>
@@ -56956,10 +57076,10 @@
     </row>
     <row r="28" spans="1:28" ht="17.25" customHeight="1">
       <c r="A28" s="135" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C28" s="116">
         <v>0</v>
@@ -57039,10 +57159,10 @@
     </row>
     <row r="29" spans="1:28" ht="17.25" customHeight="1">
       <c r="A29" s="135" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C29" s="116">
         <v>0</v>
@@ -57122,10 +57242,10 @@
     </row>
     <row r="30" spans="1:28" ht="17.25" customHeight="1">
       <c r="A30" s="135" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C30" s="116">
         <v>0</v>
@@ -57208,10 +57328,10 @@
     </row>
     <row r="31" spans="1:28" ht="17.25" customHeight="1">
       <c r="A31" s="135" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C31" s="116">
         <v>0</v>
@@ -57294,10 +57414,10 @@
     </row>
     <row r="32" spans="1:28" ht="17.25" customHeight="1">
       <c r="A32" s="135" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C32" s="116">
         <v>0</v>
@@ -57377,10 +57497,10 @@
     </row>
     <row r="33" spans="1:27" ht="17.25" customHeight="1">
       <c r="A33" s="135" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C33" s="116">
         <v>0</v>
@@ -57460,10 +57580,10 @@
     </row>
     <row r="34" spans="1:27" ht="17.25" customHeight="1">
       <c r="A34" s="135" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C34" s="116">
         <v>0</v>
@@ -57543,10 +57663,10 @@
     </row>
     <row r="35" spans="1:27" ht="17.25" customHeight="1">
       <c r="A35" s="135" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C35" s="116">
         <v>0</v>
@@ -57626,10 +57746,10 @@
     </row>
     <row r="36" spans="1:27" ht="17.25" customHeight="1">
       <c r="A36" s="135" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C36" s="116">
         <v>0</v>
@@ -57709,10 +57829,10 @@
     </row>
     <row r="37" spans="1:27" ht="17.25" customHeight="1">
       <c r="A37" s="135" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C37" s="116">
         <v>0</v>
@@ -57792,10 +57912,10 @@
     </row>
     <row r="38" spans="1:27" ht="17.25" customHeight="1">
       <c r="A38" s="135" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C38" s="116">
         <v>0</v>
@@ -57875,10 +57995,10 @@
     </row>
     <row r="39" spans="1:27" ht="17.25" customHeight="1">
       <c r="A39" s="135" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C39" s="116">
         <v>0</v>
@@ -57958,10 +58078,10 @@
     </row>
     <row r="40" spans="1:27" ht="17.25" customHeight="1">
       <c r="A40" s="135" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C40" s="116">
         <v>0</v>
@@ -58041,10 +58161,10 @@
     </row>
     <row r="41" spans="1:27" ht="17.25" customHeight="1">
       <c r="A41" s="135" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C41" s="116">
         <v>0</v>
@@ -58124,10 +58244,10 @@
     </row>
     <row r="42" spans="1:27" ht="17.25" customHeight="1">
       <c r="A42" s="135" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C42" s="116">
         <v>0</v>
@@ -58207,10 +58327,10 @@
     </row>
     <row r="43" spans="1:27" ht="17.25" customHeight="1">
       <c r="A43" s="135" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C43" s="116">
         <v>0</v>
@@ -58290,10 +58410,10 @@
     </row>
     <row r="44" spans="1:27" ht="17.25" customHeight="1">
       <c r="A44" s="135" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C44" s="116">
         <v>0</v>
@@ -58373,10 +58493,10 @@
     </row>
     <row r="45" spans="1:27" ht="17.25" customHeight="1">
       <c r="A45" s="135" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C45" s="116">
         <v>0</v>
@@ -58456,10 +58576,10 @@
     </row>
     <row r="46" spans="1:27" ht="17.25" customHeight="1">
       <c r="A46" s="135" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C46" s="116">
         <v>0</v>
@@ -58539,10 +58659,10 @@
     </row>
     <row r="47" spans="1:27" ht="17.25" customHeight="1">
       <c r="A47" s="135" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C47" s="116">
         <v>0</v>
@@ -58622,10 +58742,10 @@
     </row>
     <row r="48" spans="1:27" ht="17.25" customHeight="1">
       <c r="A48" s="135" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C48" s="116">
         <v>0</v>
@@ -58705,10 +58825,10 @@
     </row>
     <row r="49" spans="1:28" ht="17.25" customHeight="1">
       <c r="A49" s="135" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C49" s="116">
         <v>0</v>
@@ -58788,10 +58908,10 @@
     </row>
     <row r="50" spans="1:28" ht="17.25" customHeight="1">
       <c r="A50" s="135" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C50" s="116">
         <v>0</v>
@@ -58874,10 +58994,10 @@
     </row>
     <row r="51" spans="1:28" ht="17.25" customHeight="1">
       <c r="A51" s="135" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C51" s="116">
         <v>0</v>
@@ -58957,10 +59077,10 @@
     </row>
     <row r="52" spans="1:28" ht="17.25" customHeight="1">
       <c r="A52" s="135" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C52" s="116">
         <v>0</v>
@@ -59040,10 +59160,10 @@
     </row>
     <row r="53" spans="1:28" ht="17.25" customHeight="1">
       <c r="A53" s="135" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C53" s="116">
         <v>0</v>
@@ -59123,10 +59243,10 @@
     </row>
     <row r="54" spans="1:28" ht="17.25" customHeight="1">
       <c r="A54" s="135" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C54" s="116">
         <v>0</v>
@@ -59206,10 +59326,10 @@
     </row>
     <row r="55" spans="1:28" ht="17.25" customHeight="1">
       <c r="A55" s="135" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C55" s="116">
         <v>0</v>
@@ -59289,10 +59409,10 @@
     </row>
     <row r="56" spans="1:28" ht="17.25" customHeight="1">
       <c r="A56" s="135" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C56" s="116">
         <v>0</v>
@@ -59372,10 +59492,10 @@
     </row>
     <row r="57" spans="1:28" ht="17.25" customHeight="1">
       <c r="A57" s="135" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C57" s="116">
         <v>0</v>
@@ -59455,10 +59575,10 @@
     </row>
     <row r="58" spans="1:28" ht="17.25" customHeight="1">
       <c r="A58" s="135" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C58" s="116">
         <v>0</v>
@@ -59541,10 +59661,10 @@
     </row>
     <row r="59" spans="1:28" ht="17.25" customHeight="1">
       <c r="A59" s="135" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C59" s="116">
         <v>0</v>
@@ -59624,10 +59744,10 @@
     </row>
     <row r="60" spans="1:28" ht="17.25" customHeight="1">
       <c r="A60" s="135" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C60" s="116">
         <v>0</v>
@@ -59707,10 +59827,10 @@
     </row>
     <row r="61" spans="1:28" ht="17.25" customHeight="1">
       <c r="A61" s="135" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C61" s="116">
         <v>0</v>
@@ -59790,10 +59910,10 @@
     </row>
     <row r="62" spans="1:28" ht="17.25" customHeight="1">
       <c r="A62" s="135" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C62" s="116">
         <v>0</v>
@@ -59873,10 +59993,10 @@
     </row>
     <row r="63" spans="1:28" ht="17.25" customHeight="1">
       <c r="A63" s="135" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C63" s="116">
         <v>0</v>
@@ -59956,10 +60076,10 @@
     </row>
     <row r="64" spans="1:28" ht="17.25" customHeight="1">
       <c r="A64" s="135" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C64" s="116">
         <v>0</v>
@@ -60039,10 +60159,10 @@
     </row>
     <row r="65" spans="1:28" ht="17.25" customHeight="1">
       <c r="A65" s="135" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C65" s="116">
         <v>0</v>
@@ -60122,10 +60242,10 @@
     </row>
     <row r="66" spans="1:28" ht="17.25" customHeight="1">
       <c r="A66" s="135" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C66" s="116">
         <v>0</v>
@@ -60205,10 +60325,10 @@
     </row>
     <row r="67" spans="1:28" ht="17.25" customHeight="1">
       <c r="A67" s="135" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C67" s="116">
         <v>0</v>
@@ -60288,10 +60408,10 @@
     </row>
     <row r="68" spans="1:28" ht="17.25" customHeight="1">
       <c r="A68" s="135" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C68" s="116">
         <v>0</v>
@@ -60371,10 +60491,10 @@
     </row>
     <row r="69" spans="1:28" ht="17.25" customHeight="1">
       <c r="A69" s="135" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C69" s="116">
         <v>0</v>
@@ -60454,10 +60574,10 @@
     </row>
     <row r="70" spans="1:28" ht="17.25" customHeight="1">
       <c r="A70" s="135" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C70" s="116">
         <v>0</v>
@@ -60537,10 +60657,10 @@
     </row>
     <row r="71" spans="1:28" ht="17.25" customHeight="1">
       <c r="A71" s="135" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C71" s="116">
         <v>0</v>
@@ -60620,10 +60740,10 @@
     </row>
     <row r="72" spans="1:28" ht="17.25" customHeight="1">
       <c r="A72" s="135" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C72" s="116">
         <v>0</v>
@@ -60706,10 +60826,10 @@
     </row>
     <row r="73" spans="1:28" ht="17.25" customHeight="1">
       <c r="A73" s="135" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C73" s="116">
         <v>0</v>
@@ -60789,10 +60909,10 @@
     </row>
     <row r="74" spans="1:28" ht="17.25" customHeight="1">
       <c r="A74" s="135" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C74" s="116">
         <v>0</v>
@@ -60872,10 +60992,10 @@
     </row>
     <row r="75" spans="1:28" ht="17.25" customHeight="1">
       <c r="A75" s="135" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C75" s="116">
         <v>0</v>
@@ -60955,10 +61075,10 @@
     </row>
     <row r="76" spans="1:28" ht="17.25" customHeight="1">
       <c r="A76" s="135" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C76" s="116">
         <v>0</v>
@@ -61038,10 +61158,10 @@
     </row>
     <row r="77" spans="1:28" ht="17.25" customHeight="1">
       <c r="A77" s="135" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C77" s="116">
         <v>0</v>
@@ -61121,10 +61241,10 @@
     </row>
     <row r="78" spans="1:28" ht="17.25" customHeight="1">
       <c r="A78" s="135" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C78" s="116">
         <v>0</v>
@@ -61204,10 +61324,10 @@
     </row>
     <row r="79" spans="1:28" ht="17.25" customHeight="1">
       <c r="A79" s="135" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C79" s="116">
         <v>0</v>
@@ -61287,10 +61407,10 @@
     </row>
     <row r="80" spans="1:28" ht="17.25" customHeight="1">
       <c r="A80" s="135" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C80" s="116">
         <v>0</v>
@@ -61370,10 +61490,10 @@
     </row>
     <row r="81" spans="1:27" ht="17.25" customHeight="1">
       <c r="A81" s="135" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C81" s="116">
         <v>0</v>
@@ -61453,10 +61573,10 @@
     </row>
     <row r="82" spans="1:27" ht="17.25" customHeight="1">
       <c r="A82" s="135" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C82" s="116">
         <v>0</v>
@@ -61536,10 +61656,10 @@
     </row>
     <row r="83" spans="1:27" ht="17.25" customHeight="1">
       <c r="A83" s="135" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C83" s="116">
         <v>0</v>
@@ -61619,10 +61739,10 @@
     </row>
     <row r="84" spans="1:27" ht="17.25" customHeight="1">
       <c r="A84" s="135" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C84" s="116">
         <v>0</v>
@@ -61702,10 +61822,10 @@
     </row>
     <row r="85" spans="1:27" ht="17.25" customHeight="1">
       <c r="A85" s="135" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C85" s="116">
         <v>0</v>
@@ -61785,10 +61905,10 @@
     </row>
     <row r="86" spans="1:27" ht="17.25" customHeight="1">
       <c r="A86" s="135" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C86" s="116">
         <v>0</v>
@@ -61868,7 +61988,7 @@
     </row>
     <row r="87" spans="1:27" ht="17.25" customHeight="1">
       <c r="A87" s="144" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
@@ -61951,10 +62071,10 @@
     </row>
     <row r="88" spans="1:27" ht="17.25" customHeight="1">
       <c r="A88" s="135" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C88" s="116">
         <v>0</v>
@@ -62034,10 +62154,10 @@
     </row>
     <row r="89" spans="1:27" ht="17.25" customHeight="1">
       <c r="A89" s="135" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C89" s="116">
         <v>0</v>
@@ -62117,7 +62237,7 @@
     </row>
     <row r="90" spans="1:27" ht="17.25" customHeight="1">
       <c r="A90" s="144" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="B90" s="19">
         <v>0</v>
@@ -62200,10 +62320,10 @@
     </row>
     <row r="91" spans="1:27" ht="17.25" customHeight="1">
       <c r="A91" s="135" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C91" s="116">
         <v>0</v>
@@ -62283,7 +62403,7 @@
     </row>
     <row r="92" spans="1:27" ht="17.25" customHeight="1">
       <c r="A92" s="144" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="B92" s="19">
         <v>0</v>
@@ -62366,10 +62486,10 @@
     </row>
     <row r="93" spans="1:27" ht="17.25" customHeight="1">
       <c r="A93" s="135" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C93" s="116">
         <v>0</v>
@@ -62524,7 +62644,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="74" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AA94" s="30">
         <v>27</v>
@@ -62787,11 +62907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W282"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
@@ -62903,16 +63023,16 @@
       <c r="D2" s="174">
         <v>0</v>
       </c>
-      <c r="E2" s="229" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="229" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J2" s="230"/>
+      <c r="E2" s="231" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="231" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J2" s="232"/>
       <c r="K2" s="174">
         <v>30</v>
       </c>
@@ -62961,75 +63081,75 @@
         <v>1</v>
       </c>
       <c r="C3" s="170" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D3" s="170" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F3" s="177" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G3" s="177" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H3" s="177" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I3" s="170" t="s">
         <v>1568</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="J3" s="177" t="s">
         <v>1569</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="K3" s="170" t="s">
         <v>1570</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="L3" s="178" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M3" s="177" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N3" s="177" t="s">
         <v>1571</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="O3" s="170" t="s">
         <v>1572</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="P3" s="174" t="s">
         <v>1573</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="Q3" s="174" t="s">
         <v>1574</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="R3" s="179" t="s">
         <v>1575</v>
       </c>
-      <c r="K3" s="170" t="s">
+      <c r="S3" s="174" t="s">
+        <v>1580</v>
+      </c>
+      <c r="T3" s="177" t="s">
+        <v>1581</v>
+      </c>
+      <c r="U3" s="177" t="s">
         <v>1576</v>
       </c>
-      <c r="L3" s="178" t="s">
-        <v>1588</v>
-      </c>
-      <c r="M3" s="177" t="s">
-        <v>1585</v>
-      </c>
-      <c r="N3" s="177" t="s">
+      <c r="V3" s="168" t="s">
         <v>1577</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="W3" s="169" t="s">
         <v>1578</v>
-      </c>
-      <c r="P3" s="174" t="s">
-        <v>1579</v>
-      </c>
-      <c r="Q3" s="174" t="s">
-        <v>1580</v>
-      </c>
-      <c r="R3" s="179" t="s">
-        <v>1581</v>
-      </c>
-      <c r="S3" s="174" t="s">
-        <v>1586</v>
-      </c>
-      <c r="T3" s="177" t="s">
-        <v>1587</v>
-      </c>
-      <c r="U3" s="177" t="s">
-        <v>1582</v>
-      </c>
-      <c r="V3" s="168" t="s">
-        <v>1583</v>
-      </c>
-      <c r="W3" s="169" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="166" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B4" s="167" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C4" s="174">
         <v>0</v>
@@ -63097,10 +63217,10 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="166" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B5" s="167" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="174">
         <v>125</v>
@@ -63168,10 +63288,10 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="166" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="167" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C6" s="174">
         <v>125</v>
@@ -63239,10 +63359,10 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="166" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B7" s="167" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C7" s="174">
         <v>100</v>
@@ -63310,10 +63430,10 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="166" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B8" s="167" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C8" s="174">
         <v>150</v>
@@ -63381,10 +63501,10 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="166" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B9" s="167" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C9" s="174">
         <v>150</v>
@@ -63452,10 +63572,10 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="166" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B10" s="167" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="174">
         <v>105</v>
@@ -63523,10 +63643,10 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="166" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B11" s="167" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C11" s="174">
         <v>250</v>
@@ -63594,10 +63714,10 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="166" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B12" s="167" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C12" s="174">
         <v>350</v>
@@ -63665,10 +63785,10 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="166" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B13" s="167" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="174">
         <v>190</v>
@@ -63736,10 +63856,10 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="166" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B14" s="167" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C14" s="174">
         <v>355</v>
@@ -63807,10 +63927,10 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="166" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B15" s="167" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C15" s="174">
         <v>355</v>
@@ -63878,10 +63998,10 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="166" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="167" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C16" s="174">
         <v>0</v>
@@ -63949,10 +64069,10 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="166" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B17" s="167" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C17" s="174">
         <v>280</v>
@@ -64020,10 +64140,10 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="166" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B18" s="167" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C18" s="174">
         <v>280</v>
@@ -64091,10 +64211,10 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="166" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B19" s="167" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C19" s="174">
         <v>0</v>
@@ -64162,10 +64282,10 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="166" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B20" s="167" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C20" s="174">
         <v>150</v>
@@ -64233,10 +64353,10 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="166" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B21" s="167" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C21" s="174">
         <v>150</v>
@@ -64304,10 +64424,10 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="166" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B22" s="167" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C22" s="174">
         <v>0</v>
@@ -64375,10 +64495,10 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="166" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B23" s="167" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C23" s="174">
         <v>113</v>
@@ -64446,10 +64566,10 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="166" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B24" s="167" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C24" s="174">
         <v>113</v>
@@ -64517,10 +64637,10 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="166" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B25" s="167" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C25" s="174">
         <v>100</v>
@@ -64588,10 +64708,10 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="166" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B26" s="167" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C26" s="174">
         <v>100</v>
@@ -64659,10 +64779,10 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="166" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B27" s="167" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C27" s="174">
         <v>400</v>
@@ -64730,10 +64850,10 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="166" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="B28" s="167" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C28" s="174">
         <v>0</v>
@@ -64801,10 +64921,10 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="166" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B29" s="167" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C29" s="174">
         <v>285</v>
@@ -64872,10 +64992,10 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="166" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B30" s="167" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C30" s="174">
         <v>285</v>
@@ -64943,10 +65063,10 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="166" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B31" s="167" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C31" s="174">
         <v>0</v>
@@ -65014,10 +65134,10 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="166" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="B32" s="167" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C32" s="174">
         <v>110</v>
@@ -65085,10 +65205,10 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="166" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B33" s="167" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C33" s="174">
         <v>190</v>
@@ -65156,10 +65276,10 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="166" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B34" s="167" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C34" s="174">
         <v>80</v>
@@ -65227,10 +65347,10 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="166" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B35" s="167" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C35" s="174">
         <v>330</v>
@@ -65298,10 +65418,10 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="166" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B36" s="167" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C36" s="174">
         <v>330</v>
@@ -65369,10 +65489,10 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="166" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B37" s="167" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C37" s="174">
         <v>0</v>
@@ -65440,10 +65560,10 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="166" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B38" s="167" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C38" s="174">
         <v>200</v>
@@ -65511,10 +65631,10 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="166" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B39" s="167" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C39" s="174">
         <v>200</v>
@@ -65582,10 +65702,10 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="166" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B40" s="167" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C40" s="174">
         <v>0</v>
@@ -65653,10 +65773,10 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="166" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C41" s="174">
         <v>0</v>
@@ -65724,10 +65844,10 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="166" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B42" s="167" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C42" s="174">
         <v>0</v>
@@ -65795,10 +65915,10 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="166" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B43" s="167" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C43" s="174">
         <v>0</v>
@@ -65866,10 +65986,10 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="166" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B44" s="167" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C44" s="174">
         <v>0</v>
@@ -65937,10 +66057,10 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="166" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B45" s="167" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C45" s="174">
         <v>0</v>
@@ -66008,10 +66128,10 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="166" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="B46" s="167" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C46" s="174">
         <v>145</v>
@@ -66079,10 +66199,10 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="166" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B47" s="167" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C47" s="174">
         <v>145</v>
@@ -66150,10 +66270,10 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="166" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="B48" s="167" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C48" s="174">
         <v>145</v>
@@ -66221,10 +66341,10 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="166" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B49" s="167" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C49" s="174">
         <v>60</v>
@@ -66292,10 +66412,10 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="166" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B50" s="167" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C50" s="174">
         <v>60</v>
@@ -66363,10 +66483,10 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="166" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B51" s="167" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C51" s="174">
         <v>0</v>
@@ -66434,10 +66554,10 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="166" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B52" s="167" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C52" s="174">
         <v>100</v>
@@ -66505,10 +66625,10 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="166" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B53" s="167" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C53" s="174">
         <v>140</v>
@@ -66576,10 +66696,10 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="166" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B54" s="167" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C54" s="174">
         <v>140</v>
@@ -66647,10 +66767,10 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="166" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B55" s="167" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C55" s="174">
         <v>100</v>
@@ -66718,10 +66838,10 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="166" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B56" s="167" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C56" s="174">
         <v>100</v>
@@ -66789,10 +66909,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="166" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B57" s="167" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C57" s="174">
         <v>230</v>
@@ -66860,10 +66980,10 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="166" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B58" s="167" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C58" s="174">
         <v>230</v>
@@ -66931,10 +67051,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="166" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B59" s="167" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C59" s="174">
         <v>0</v>
@@ -67002,10 +67122,10 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="166" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B60" s="167" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C60" s="174">
         <v>100</v>
@@ -67073,10 +67193,10 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="166" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B61" s="167" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C61" s="174">
         <v>0</v>
@@ -67144,10 +67264,10 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="166" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B62" s="167" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C62" s="174">
         <v>75</v>
@@ -67215,10 +67335,10 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="166" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B63" s="167" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C63" s="174">
         <v>95</v>
@@ -67286,10 +67406,10 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="166" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B64" s="167" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C64" s="174">
         <v>205</v>
@@ -67357,10 +67477,10 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="166" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B65" s="167" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C65" s="174">
         <v>0</v>
@@ -67428,10 +67548,10 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="166" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B66" s="167" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C66" s="174">
         <v>0</v>
@@ -67499,10 +67619,10 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="166" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B67" s="167" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C67" s="174">
         <v>36</v>
@@ -67570,10 +67690,10 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="166" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B68" s="167" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C68" s="174">
         <v>36</v>
@@ -67641,10 +67761,10 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="166" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B69" s="167" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C69" s="174">
         <v>0</v>
@@ -67712,10 +67832,10 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="166" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B70" s="167" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C70" s="174">
         <v>76</v>
@@ -67783,10 +67903,10 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="166" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B71" s="167" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C71" s="174">
         <v>0</v>
@@ -67854,10 +67974,10 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="166" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B72" s="167" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C72" s="174">
         <v>36</v>
@@ -67925,10 +68045,10 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="166" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B73" s="167" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C73" s="174">
         <v>0</v>
@@ -67996,10 +68116,10 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="166" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B74" s="167" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C74" s="174">
         <v>195</v>
@@ -68067,10 +68187,10 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="166" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B75" s="167" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C75" s="174">
         <v>0</v>
@@ -68138,10 +68258,10 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="166" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B76" s="167" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C76" s="174">
         <v>225</v>
@@ -68209,10 +68329,10 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="166" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B77" s="182" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C77" s="174">
         <v>0</v>
@@ -68280,10 +68400,10 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="166" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B78" s="182" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C78" s="174">
         <v>236</v>
@@ -68351,10 +68471,10 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="166" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B79" s="167" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C79" s="174">
         <v>0</v>
@@ -68422,10 +68542,10 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="166" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B80" s="167" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C80" s="174">
         <v>236</v>
@@ -68493,10 +68613,10 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="166" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B81" s="167" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C81" s="174">
         <v>0</v>
@@ -68564,10 +68684,10 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="166" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B82" s="167" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C82" s="174">
         <v>195</v>
@@ -68635,10 +68755,10 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="166" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B83" s="167" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C83" s="174">
         <v>40</v>
@@ -68706,10 +68826,10 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="166" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B84" s="167" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C84" s="174">
         <v>80</v>
@@ -68777,10 +68897,10 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="166" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B85" s="182" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C85" s="174">
         <v>0</v>
@@ -68848,10 +68968,10 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="166" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B86" s="182" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C86" s="174">
         <v>0</v>
@@ -68919,10 +69039,10 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="166" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B87" s="183" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C87" s="174">
         <v>0</v>
@@ -68990,10 +69110,10 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="166" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B88" s="183" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C88" s="174">
         <v>171</v>
@@ -69061,10 +69181,10 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="166" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B89" s="183" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C89" s="174">
         <v>0</v>
@@ -69132,10 +69252,10 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="166" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B90" s="183" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C90" s="174">
         <v>120</v>
@@ -69203,143 +69323,143 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="166" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B91" s="183" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C91" s="174">
-        <v>152</v>
-      </c>
-      <c r="D91" s="174">
-        <v>152</v>
-      </c>
-      <c r="E91" s="174">
-        <v>0</v>
-      </c>
-      <c r="F91" s="174">
-        <v>0</v>
-      </c>
-      <c r="G91" s="174">
-        <v>0</v>
-      </c>
-      <c r="H91" s="174">
-        <v>0</v>
-      </c>
-      <c r="I91" s="174">
+        <v>160</v>
+      </c>
+      <c r="D91" s="229">
+        <v>160</v>
+      </c>
+      <c r="E91" s="229">
+        <v>0</v>
+      </c>
+      <c r="F91" s="229">
+        <v>0</v>
+      </c>
+      <c r="G91" s="229">
+        <v>0</v>
+      </c>
+      <c r="H91" s="229">
+        <v>0</v>
+      </c>
+      <c r="I91" s="229">
         <v>26</v>
       </c>
-      <c r="J91" s="174">
-        <v>0</v>
-      </c>
-      <c r="K91" s="174">
+      <c r="J91" s="229">
+        <v>0</v>
+      </c>
+      <c r="K91" s="229">
         <v>1</v>
       </c>
-      <c r="L91" s="175">
+      <c r="L91" s="229">
         <v>1</v>
       </c>
-      <c r="M91" s="174">
-        <v>0</v>
-      </c>
-      <c r="N91" s="174">
-        <v>0</v>
-      </c>
-      <c r="O91" s="174">
-        <v>0</v>
-      </c>
-      <c r="P91" s="174">
-        <v>2</v>
-      </c>
-      <c r="Q91" s="174">
+      <c r="M91" s="229">
+        <v>0</v>
+      </c>
+      <c r="N91" s="229">
+        <v>0</v>
+      </c>
+      <c r="O91" s="229">
+        <v>0</v>
+      </c>
+      <c r="P91" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="229">
         <v>0</v>
       </c>
       <c r="R91" s="179">
         <v>0</v>
       </c>
-      <c r="S91" s="176">
-        <v>0</v>
-      </c>
-      <c r="T91" s="176">
-        <v>0</v>
-      </c>
-      <c r="U91" s="176">
-        <v>0</v>
-      </c>
-      <c r="V91" s="176">
-        <v>0</v>
-      </c>
-      <c r="W91" s="173">
+      <c r="S91" s="229">
+        <v>0</v>
+      </c>
+      <c r="T91" s="229">
+        <v>0</v>
+      </c>
+      <c r="U91" s="229">
+        <v>0</v>
+      </c>
+      <c r="V91" s="229">
+        <v>0</v>
+      </c>
+      <c r="W91" s="229">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="166" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B92" s="183" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C92" s="174">
+        <v>1248</v>
+      </c>
+      <c r="C92" s="229">
         <v>247</v>
       </c>
-      <c r="D92" s="174">
+      <c r="D92" s="229">
         <v>209</v>
       </c>
-      <c r="E92" s="174">
+      <c r="E92" s="229">
         <v>3</v>
       </c>
-      <c r="F92" s="174">
-        <v>0</v>
-      </c>
-      <c r="G92" s="174">
-        <v>0</v>
-      </c>
-      <c r="H92" s="174">
-        <v>0</v>
-      </c>
-      <c r="I92" s="174">
-        <v>50</v>
-      </c>
-      <c r="J92" s="174">
-        <v>0</v>
-      </c>
-      <c r="K92" s="174">
+      <c r="F92" s="229">
+        <v>0</v>
+      </c>
+      <c r="G92" s="229">
+        <v>0</v>
+      </c>
+      <c r="H92" s="229">
+        <v>0</v>
+      </c>
+      <c r="I92" s="229">
+        <v>26</v>
+      </c>
+      <c r="J92" s="229">
+        <v>0</v>
+      </c>
+      <c r="K92" s="229">
         <v>1</v>
       </c>
-      <c r="L92" s="175">
+      <c r="L92" s="229">
         <v>2</v>
       </c>
-      <c r="M92" s="174">
-        <v>0</v>
-      </c>
-      <c r="N92" s="174">
-        <v>0</v>
-      </c>
-      <c r="O92" s="174">
-        <v>0</v>
-      </c>
-      <c r="P92" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="174">
+      <c r="M92" s="229">
+        <v>0</v>
+      </c>
+      <c r="N92" s="229">
+        <v>0</v>
+      </c>
+      <c r="O92" s="229">
+        <v>0</v>
+      </c>
+      <c r="P92" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="229">
         <v>0</v>
       </c>
       <c r="R92" s="179">
         <v>0</v>
       </c>
-      <c r="S92" s="176">
-        <v>0</v>
-      </c>
-      <c r="T92" s="176">
-        <v>0</v>
-      </c>
-      <c r="U92" s="176">
-        <v>0</v>
-      </c>
-      <c r="V92" s="176">
-        <v>0</v>
-      </c>
-      <c r="W92" s="173">
+      <c r="S92" s="229">
+        <v>0</v>
+      </c>
+      <c r="T92" s="229">
+        <v>0</v>
+      </c>
+      <c r="U92" s="229">
+        <v>0</v>
+      </c>
+      <c r="V92" s="229">
+        <v>0</v>
+      </c>
+      <c r="W92" s="229">
         <v>0</v>
       </c>
     </row>
@@ -78365,78 +78485,78 @@
         <v>843</v>
       </c>
       <c r="B220" s="167" t="s">
-        <v>844</v>
-      </c>
-      <c r="C220" s="174">
-        <v>162</v>
-      </c>
-      <c r="D220" s="174">
-        <v>285</v>
-      </c>
-      <c r="E220" s="174">
-        <v>3</v>
-      </c>
-      <c r="F220" s="174">
-        <v>0</v>
-      </c>
-      <c r="G220" s="174">
-        <v>0</v>
-      </c>
-      <c r="H220" s="174">
-        <v>0</v>
-      </c>
-      <c r="I220" s="174">
-        <v>0</v>
-      </c>
-      <c r="J220" s="174">
-        <v>0</v>
-      </c>
-      <c r="K220" s="174">
-        <v>0</v>
-      </c>
-      <c r="L220" s="175">
-        <v>0</v>
-      </c>
-      <c r="M220" s="174">
-        <v>0</v>
-      </c>
-      <c r="N220" s="174">
-        <v>0</v>
-      </c>
-      <c r="O220" s="174">
-        <v>0</v>
-      </c>
-      <c r="P220" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q220" s="174">
+        <v>1617</v>
+      </c>
+      <c r="C220" s="230">
+        <v>170</v>
+      </c>
+      <c r="D220" s="230">
+        <v>300</v>
+      </c>
+      <c r="E220" s="230">
+        <v>4</v>
+      </c>
+      <c r="F220" s="230">
+        <v>0</v>
+      </c>
+      <c r="G220" s="230">
+        <v>0</v>
+      </c>
+      <c r="H220" s="230">
+        <v>0</v>
+      </c>
+      <c r="I220" s="230">
+        <v>0</v>
+      </c>
+      <c r="J220" s="230">
+        <v>0</v>
+      </c>
+      <c r="K220" s="230">
+        <v>0</v>
+      </c>
+      <c r="L220" s="230">
+        <v>0</v>
+      </c>
+      <c r="M220" s="230">
+        <v>0</v>
+      </c>
+      <c r="N220" s="230">
+        <v>0</v>
+      </c>
+      <c r="O220" s="230">
+        <v>0</v>
+      </c>
+      <c r="P220" s="230">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="230">
         <v>0</v>
       </c>
       <c r="R220" s="179">
         <v>0</v>
       </c>
-      <c r="S220" s="176">
-        <v>0</v>
-      </c>
-      <c r="T220" s="176">
-        <v>0</v>
-      </c>
-      <c r="U220" s="176">
-        <v>0</v>
-      </c>
-      <c r="V220" s="176">
-        <v>0</v>
-      </c>
-      <c r="W220" s="173">
+      <c r="S220" s="230">
+        <v>0</v>
+      </c>
+      <c r="T220" s="230">
+        <v>0</v>
+      </c>
+      <c r="U220" s="230">
+        <v>0</v>
+      </c>
+      <c r="V220" s="230">
+        <v>0</v>
+      </c>
+      <c r="W220" s="230">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
       <c r="A221" s="166" t="s">
+        <v>844</v>
+      </c>
+      <c r="B221" s="167" t="s">
         <v>845</v>
-      </c>
-      <c r="B221" s="167" t="s">
-        <v>846</v>
       </c>
       <c r="C221" s="174">
         <v>394</v>
@@ -78504,10 +78624,10 @@
     </row>
     <row r="222" spans="1:23">
       <c r="A222" s="166" t="s">
+        <v>848</v>
+      </c>
+      <c r="B222" s="167" t="s">
         <v>849</v>
-      </c>
-      <c r="B222" s="167" t="s">
-        <v>850</v>
       </c>
       <c r="C222" s="174">
         <v>271</v>
@@ -78575,10 +78695,10 @@
     </row>
     <row r="223" spans="1:23">
       <c r="A223" s="166" t="s">
+        <v>852</v>
+      </c>
+      <c r="B223" s="167" t="s">
         <v>853</v>
-      </c>
-      <c r="B223" s="167" t="s">
-        <v>854</v>
       </c>
       <c r="C223" s="174">
         <v>381</v>
@@ -78646,10 +78766,10 @@
     </row>
     <row r="224" spans="1:23">
       <c r="A224" s="166" t="s">
+        <v>856</v>
+      </c>
+      <c r="B224" s="167" t="s">
         <v>857</v>
-      </c>
-      <c r="B224" s="167" t="s">
-        <v>858</v>
       </c>
       <c r="C224" s="174">
         <v>381</v>
@@ -78717,10 +78837,10 @@
     </row>
     <row r="225" spans="1:23">
       <c r="A225" s="166" t="s">
+        <v>860</v>
+      </c>
+      <c r="B225" s="167" t="s">
         <v>861</v>
-      </c>
-      <c r="B225" s="167" t="s">
-        <v>862</v>
       </c>
       <c r="C225" s="174">
         <v>251</v>
@@ -78788,10 +78908,10 @@
     </row>
     <row r="226" spans="1:23">
       <c r="A226" s="166" t="s">
+        <v>864</v>
+      </c>
+      <c r="B226" s="167" t="s">
         <v>865</v>
-      </c>
-      <c r="B226" s="167" t="s">
-        <v>866</v>
       </c>
       <c r="C226" s="174">
         <v>365</v>
@@ -78859,10 +78979,10 @@
     </row>
     <row r="227" spans="1:23">
       <c r="A227" s="166" t="s">
+        <v>868</v>
+      </c>
+      <c r="B227" s="167" t="s">
         <v>869</v>
-      </c>
-      <c r="B227" s="167" t="s">
-        <v>870</v>
       </c>
       <c r="C227" s="174">
         <v>381</v>
@@ -78930,10 +79050,10 @@
     </row>
     <row r="228" spans="1:23">
       <c r="A228" s="166" t="s">
+        <v>872</v>
+      </c>
+      <c r="B228" s="167" t="s">
         <v>873</v>
-      </c>
-      <c r="B228" s="167" t="s">
-        <v>874</v>
       </c>
       <c r="C228" s="174">
         <v>381</v>
@@ -79001,81 +79121,81 @@
     </row>
     <row r="229" spans="1:23">
       <c r="A229" s="166" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B229" s="185" t="s">
-        <v>878</v>
+        <v>1613</v>
       </c>
       <c r="C229" s="174">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="D229" s="174">
-        <v>189</v>
-      </c>
-      <c r="E229" s="174">
-        <v>0</v>
-      </c>
-      <c r="F229" s="174">
-        <v>3</v>
-      </c>
-      <c r="G229" s="174">
-        <v>0</v>
-      </c>
-      <c r="H229" s="174">
-        <v>0</v>
-      </c>
-      <c r="I229" s="174">
-        <v>0</v>
-      </c>
-      <c r="J229" s="174">
-        <v>0</v>
-      </c>
-      <c r="K229" s="174">
-        <v>0</v>
-      </c>
-      <c r="L229" s="175">
-        <v>0</v>
-      </c>
-      <c r="M229" s="174">
-        <v>0</v>
-      </c>
-      <c r="N229" s="174">
-        <v>0</v>
-      </c>
-      <c r="O229" s="174">
-        <v>0</v>
-      </c>
-      <c r="P229" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q229" s="174">
+        <v>151</v>
+      </c>
+      <c r="E229" s="229">
+        <v>0</v>
+      </c>
+      <c r="F229" s="229">
+        <v>4</v>
+      </c>
+      <c r="G229" s="229">
+        <v>0</v>
+      </c>
+      <c r="H229" s="229">
+        <v>0</v>
+      </c>
+      <c r="I229" s="229">
+        <v>0</v>
+      </c>
+      <c r="J229" s="229">
+        <v>0</v>
+      </c>
+      <c r="K229" s="229">
+        <v>0</v>
+      </c>
+      <c r="L229" s="229">
+        <v>0</v>
+      </c>
+      <c r="M229" s="229">
+        <v>0</v>
+      </c>
+      <c r="N229" s="229">
+        <v>0</v>
+      </c>
+      <c r="O229" s="229">
+        <v>0</v>
+      </c>
+      <c r="P229" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="229">
         <v>0</v>
       </c>
       <c r="R229" s="179">
         <v>0</v>
       </c>
-      <c r="S229" s="176">
-        <v>0</v>
-      </c>
-      <c r="T229" s="176">
-        <v>0</v>
-      </c>
-      <c r="U229" s="176">
-        <v>0</v>
-      </c>
-      <c r="V229" s="176">
-        <v>0</v>
-      </c>
-      <c r="W229" s="173">
+      <c r="S229" s="229">
+        <v>0</v>
+      </c>
+      <c r="T229" s="229">
+        <v>0</v>
+      </c>
+      <c r="U229" s="229">
+        <v>0</v>
+      </c>
+      <c r="V229" s="229">
+        <v>0</v>
+      </c>
+      <c r="W229" s="229">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
       <c r="A230" s="166" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B230" s="167" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C230" s="174">
         <v>266</v>
@@ -79143,10 +79263,10 @@
     </row>
     <row r="231" spans="1:23">
       <c r="A231" s="166" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B231" s="167" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C231" s="174">
         <v>181</v>
@@ -79214,10 +79334,10 @@
     </row>
     <row r="232" spans="1:23">
       <c r="A232" s="166" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B232" s="167" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C232" s="174">
         <v>266</v>
@@ -79285,10 +79405,10 @@
     </row>
     <row r="233" spans="1:23">
       <c r="A233" s="166" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B233" s="167" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C233" s="174">
         <v>266</v>
@@ -79356,10 +79476,10 @@
     </row>
     <row r="234" spans="1:23">
       <c r="A234" s="166" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B234" s="167" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C234" s="174">
         <v>299</v>
@@ -79427,10 +79547,10 @@
     </row>
     <row r="235" spans="1:23">
       <c r="A235" s="166" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B235" s="167" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C235" s="174">
         <v>246</v>
@@ -79498,10 +79618,10 @@
     </row>
     <row r="236" spans="1:23">
       <c r="A236" s="166" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B236" s="167" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C236" s="174">
         <v>253</v>
@@ -79569,10 +79689,10 @@
     </row>
     <row r="237" spans="1:23">
       <c r="A237" s="166" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B237" s="182" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C237" s="174">
         <v>266</v>
@@ -79640,81 +79760,81 @@
     </row>
     <row r="238" spans="1:23">
       <c r="A238" s="166" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B238" s="185" t="s">
-        <v>912</v>
+        <v>1612</v>
       </c>
       <c r="C238" s="174">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D238" s="174">
-        <v>197</v>
-      </c>
-      <c r="E238" s="174">
-        <v>3</v>
-      </c>
-      <c r="F238" s="174">
-        <v>0</v>
-      </c>
-      <c r="G238" s="174">
-        <v>0</v>
-      </c>
-      <c r="H238" s="174">
-        <v>0</v>
-      </c>
-      <c r="I238" s="174">
-        <v>0</v>
-      </c>
-      <c r="J238" s="174">
-        <v>0</v>
-      </c>
-      <c r="K238" s="174">
-        <v>0</v>
-      </c>
-      <c r="L238" s="175">
-        <v>0</v>
-      </c>
-      <c r="M238" s="174">
-        <v>0</v>
-      </c>
-      <c r="N238" s="174">
-        <v>0</v>
-      </c>
-      <c r="O238" s="174">
-        <v>0</v>
-      </c>
-      <c r="P238" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q238" s="174">
+        <v>136</v>
+      </c>
+      <c r="E238" s="229">
+        <v>4</v>
+      </c>
+      <c r="F238" s="229">
+        <v>0</v>
+      </c>
+      <c r="G238" s="229">
+        <v>0</v>
+      </c>
+      <c r="H238" s="229">
+        <v>0</v>
+      </c>
+      <c r="I238" s="229">
+        <v>0</v>
+      </c>
+      <c r="J238" s="229">
+        <v>0</v>
+      </c>
+      <c r="K238" s="229">
+        <v>0</v>
+      </c>
+      <c r="L238" s="229">
+        <v>0</v>
+      </c>
+      <c r="M238" s="229">
+        <v>0</v>
+      </c>
+      <c r="N238" s="229">
+        <v>0</v>
+      </c>
+      <c r="O238" s="229">
+        <v>0</v>
+      </c>
+      <c r="P238" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="229">
         <v>0</v>
       </c>
       <c r="R238" s="179">
         <v>0</v>
       </c>
-      <c r="S238" s="176">
-        <v>0</v>
-      </c>
-      <c r="T238" s="176">
-        <v>0</v>
-      </c>
-      <c r="U238" s="176">
-        <v>0</v>
-      </c>
-      <c r="V238" s="176">
-        <v>0</v>
-      </c>
-      <c r="W238" s="173">
+      <c r="S238" s="229">
+        <v>0</v>
+      </c>
+      <c r="T238" s="229">
+        <v>0</v>
+      </c>
+      <c r="U238" s="229">
+        <v>0</v>
+      </c>
+      <c r="V238" s="229">
+        <v>0</v>
+      </c>
+      <c r="W238" s="229">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
       <c r="A239" s="166" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B239" s="167" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C239" s="174">
         <v>254</v>
@@ -79782,10 +79902,10 @@
     </row>
     <row r="240" spans="1:23">
       <c r="A240" s="166" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B240" s="167" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C240" s="174">
         <v>241</v>
@@ -79853,10 +79973,10 @@
     </row>
     <row r="241" spans="1:23">
       <c r="A241" s="166" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B241" s="167" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C241" s="174">
         <v>241</v>
@@ -79924,10 +80044,10 @@
     </row>
     <row r="242" spans="1:23">
       <c r="A242" s="166" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B242" s="182" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C242" s="174">
         <v>254</v>
@@ -79995,10 +80115,10 @@
     </row>
     <row r="243" spans="1:23">
       <c r="A243" s="166" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B243" s="167" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C243" s="174">
         <v>254</v>
@@ -80066,10 +80186,10 @@
     </row>
     <row r="244" spans="1:23">
       <c r="A244" s="166" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B244" s="167" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C244" s="174">
         <v>241</v>
@@ -80137,10 +80257,10 @@
     </row>
     <row r="245" spans="1:23">
       <c r="A245" s="166" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B245" s="167" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C245" s="174">
         <v>254</v>
@@ -80208,10 +80328,10 @@
     </row>
     <row r="246" spans="1:23">
       <c r="A246" s="166" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B246" s="167" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C246" s="174">
         <v>254</v>
@@ -80279,81 +80399,81 @@
     </row>
     <row r="247" spans="1:23">
       <c r="A247" s="166" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B247" s="185" t="s">
-        <v>946</v>
+        <v>1614</v>
       </c>
       <c r="C247" s="174">
-        <v>153</v>
-      </c>
-      <c r="D247" s="174">
-        <v>173</v>
-      </c>
-      <c r="E247" s="174">
-        <v>0</v>
-      </c>
-      <c r="F247" s="174">
-        <v>0</v>
-      </c>
-      <c r="G247" s="174">
-        <v>3</v>
-      </c>
-      <c r="H247" s="174">
-        <v>0</v>
-      </c>
-      <c r="I247" s="174">
-        <v>0</v>
-      </c>
-      <c r="J247" s="174">
-        <v>0</v>
-      </c>
-      <c r="K247" s="174">
-        <v>0</v>
-      </c>
-      <c r="L247" s="175">
+        <v>108</v>
+      </c>
+      <c r="D247" s="229">
+        <v>128</v>
+      </c>
+      <c r="E247" s="229">
+        <v>0</v>
+      </c>
+      <c r="F247" s="229">
+        <v>0</v>
+      </c>
+      <c r="G247" s="229">
+        <v>4</v>
+      </c>
+      <c r="H247" s="229">
+        <v>0</v>
+      </c>
+      <c r="I247" s="229">
+        <v>0</v>
+      </c>
+      <c r="J247" s="229">
+        <v>0</v>
+      </c>
+      <c r="K247" s="229">
+        <v>0</v>
+      </c>
+      <c r="L247" s="229">
         <v>1</v>
       </c>
-      <c r="M247" s="174">
-        <v>0</v>
-      </c>
-      <c r="N247" s="174">
-        <v>0</v>
-      </c>
-      <c r="O247" s="174">
-        <v>0</v>
-      </c>
-      <c r="P247" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q247" s="174">
+      <c r="M247" s="229">
+        <v>0</v>
+      </c>
+      <c r="N247" s="229">
+        <v>0</v>
+      </c>
+      <c r="O247" s="229">
+        <v>0</v>
+      </c>
+      <c r="P247" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="229">
         <v>0</v>
       </c>
       <c r="R247" s="179">
         <v>0</v>
       </c>
-      <c r="S247" s="176">
-        <v>0</v>
-      </c>
-      <c r="T247" s="176">
-        <v>0</v>
-      </c>
-      <c r="U247" s="176">
-        <v>0</v>
-      </c>
-      <c r="V247" s="176">
-        <v>0</v>
-      </c>
-      <c r="W247" s="173">
+      <c r="S247" s="229">
+        <v>0</v>
+      </c>
+      <c r="T247" s="229">
+        <v>0</v>
+      </c>
+      <c r="U247" s="229">
+        <v>0</v>
+      </c>
+      <c r="V247" s="229">
+        <v>0</v>
+      </c>
+      <c r="W247" s="229">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
       <c r="A248" s="166" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B248" s="167" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C248" s="174">
         <v>239</v>
@@ -80421,10 +80541,10 @@
     </row>
     <row r="249" spans="1:23">
       <c r="A249" s="166" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B249" s="167" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C249" s="174">
         <v>219</v>
@@ -80492,10 +80612,10 @@
     </row>
     <row r="250" spans="1:23">
       <c r="A250" s="166" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B250" s="167" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C250" s="174">
         <v>207</v>
@@ -80563,10 +80683,10 @@
     </row>
     <row r="251" spans="1:23">
       <c r="A251" s="166" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B251" s="167" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C251" s="174">
         <v>199</v>
@@ -80634,10 +80754,10 @@
     </row>
     <row r="252" spans="1:23">
       <c r="A252" s="166" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B252" s="167" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C252" s="174">
         <v>264</v>
@@ -80705,10 +80825,10 @@
     </row>
     <row r="253" spans="1:23">
       <c r="A253" s="166" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B253" s="167" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C253" s="174">
         <v>211</v>
@@ -80776,10 +80896,10 @@
     </row>
     <row r="254" spans="1:23">
       <c r="A254" s="166" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B254" s="167" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C254" s="174">
         <v>224</v>
@@ -80847,10 +80967,10 @@
     </row>
     <row r="255" spans="1:23">
       <c r="A255" s="166" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B255" s="167" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C255" s="174">
         <v>239</v>
@@ -80918,81 +81038,81 @@
     </row>
     <row r="256" spans="1:23">
       <c r="A256" s="166" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B256" s="167" t="s">
-        <v>980</v>
-      </c>
-      <c r="C256" s="174">
-        <v>187</v>
-      </c>
-      <c r="D256" s="174">
-        <v>193</v>
-      </c>
-      <c r="E256" s="174">
-        <v>3</v>
-      </c>
-      <c r="F256" s="174">
-        <v>0</v>
-      </c>
-      <c r="G256" s="174">
-        <v>0</v>
-      </c>
-      <c r="H256" s="174">
-        <v>0</v>
-      </c>
-      <c r="I256" s="174">
-        <v>20</v>
-      </c>
-      <c r="J256" s="174">
-        <v>0</v>
-      </c>
-      <c r="K256" s="174">
+        <v>1615</v>
+      </c>
+      <c r="C256" s="229">
+        <v>120</v>
+      </c>
+      <c r="D256" s="229">
+        <v>126</v>
+      </c>
+      <c r="E256" s="229">
+        <v>4</v>
+      </c>
+      <c r="F256" s="229">
+        <v>0</v>
+      </c>
+      <c r="G256" s="229">
+        <v>0</v>
+      </c>
+      <c r="H256" s="229">
+        <v>0</v>
+      </c>
+      <c r="I256" s="229">
+        <v>0</v>
+      </c>
+      <c r="J256" s="229">
+        <v>0</v>
+      </c>
+      <c r="K256" s="229">
         <v>1</v>
       </c>
-      <c r="L256" s="175">
-        <v>0</v>
-      </c>
-      <c r="M256" s="174">
-        <v>0</v>
-      </c>
-      <c r="N256" s="174">
-        <v>0</v>
-      </c>
-      <c r="O256" s="174">
-        <v>0</v>
-      </c>
-      <c r="P256" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q256" s="174">
+      <c r="L256" s="229">
+        <v>1</v>
+      </c>
+      <c r="M256" s="229">
+        <v>0</v>
+      </c>
+      <c r="N256" s="229">
+        <v>0</v>
+      </c>
+      <c r="O256" s="229">
+        <v>0</v>
+      </c>
+      <c r="P256" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="229">
         <v>0</v>
       </c>
       <c r="R256" s="179">
         <v>0</v>
       </c>
-      <c r="S256" s="176">
-        <v>0</v>
-      </c>
-      <c r="T256" s="176">
-        <v>0</v>
-      </c>
-      <c r="U256" s="176">
-        <v>0</v>
-      </c>
-      <c r="V256" s="176">
-        <v>0</v>
-      </c>
-      <c r="W256" s="173">
+      <c r="S256" s="229">
+        <v>0</v>
+      </c>
+      <c r="T256" s="229">
+        <v>0</v>
+      </c>
+      <c r="U256" s="229">
+        <v>0</v>
+      </c>
+      <c r="V256" s="229">
+        <v>0</v>
+      </c>
+      <c r="W256" s="229">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
       <c r="A257" s="166" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B257" s="167" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C257" s="174">
         <v>227</v>
@@ -81060,10 +81180,10 @@
     </row>
     <row r="258" spans="1:23">
       <c r="A258" s="166" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B258" s="167" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C258" s="174">
         <v>388</v>
@@ -81131,10 +81251,10 @@
     </row>
     <row r="259" spans="1:23">
       <c r="A259" s="166" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B259" s="182" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C259" s="174">
         <v>212</v>
@@ -81202,10 +81322,10 @@
     </row>
     <row r="260" spans="1:23">
       <c r="A260" s="166" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B260" s="167" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C260" s="174">
         <v>513</v>
@@ -81273,10 +81393,10 @@
     </row>
     <row r="261" spans="1:23">
       <c r="A261" s="166" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B261" s="167" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C261" s="174">
         <v>212</v>
@@ -81344,10 +81464,10 @@
     </row>
     <row r="262" spans="1:23">
       <c r="A262" s="166" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B262" s="167" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C262" s="174">
         <v>413</v>
@@ -81415,10 +81535,10 @@
     </row>
     <row r="263" spans="1:23">
       <c r="A263" s="166" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B263" s="167" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C263" s="174">
         <v>227</v>
@@ -81486,10 +81606,10 @@
     </row>
     <row r="264" spans="1:23">
       <c r="A264" s="166" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B264" s="185" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C264" s="174">
         <v>448</v>
@@ -81557,10 +81677,10 @@
     </row>
     <row r="265" spans="1:23">
       <c r="A265" s="166" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B265" s="167" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C265" s="174">
         <v>261</v>
@@ -81628,10 +81748,10 @@
     </row>
     <row r="266" spans="1:23">
       <c r="A266" s="166" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B266" s="167" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C266" s="174">
         <v>502</v>
@@ -81699,10 +81819,10 @@
     </row>
     <row r="267" spans="1:23">
       <c r="A267" s="166" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B267" s="167" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C267" s="174">
         <v>247</v>
@@ -81770,10 +81890,10 @@
     </row>
     <row r="268" spans="1:23">
       <c r="A268" s="166" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B268" s="167" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C268" s="174">
         <v>548</v>
@@ -81841,10 +81961,10 @@
     </row>
     <row r="269" spans="1:23">
       <c r="A269" s="166" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B269" s="167" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C269" s="174">
         <v>215</v>
@@ -81912,10 +82032,10 @@
     </row>
     <row r="270" spans="1:23">
       <c r="A270" s="166" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B270" s="167" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C270" s="174">
         <v>216</v>
@@ -81983,10 +82103,10 @@
     </row>
     <row r="271" spans="1:23">
       <c r="A271" s="166" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B271" s="167" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C271" s="174">
         <v>235</v>
@@ -82054,10 +82174,10 @@
     </row>
     <row r="272" spans="1:23">
       <c r="A272" s="166" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B272" s="167" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C272" s="174">
         <v>376</v>
@@ -82125,72 +82245,72 @@
     </row>
     <row r="273" spans="1:23">
       <c r="A273" s="166" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B273" s="167" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C273" s="174">
-        <v>183</v>
-      </c>
-      <c r="D273" s="174">
-        <v>183</v>
-      </c>
-      <c r="E273" s="174">
-        <v>0</v>
-      </c>
-      <c r="F273" s="174">
-        <v>0</v>
-      </c>
-      <c r="G273" s="174">
-        <v>0</v>
-      </c>
-      <c r="H273" s="174">
-        <v>3</v>
-      </c>
-      <c r="I273" s="174">
-        <v>0</v>
-      </c>
-      <c r="J273" s="174">
-        <v>0</v>
-      </c>
-      <c r="K273" s="174">
-        <v>0</v>
-      </c>
-      <c r="L273" s="175">
-        <v>0</v>
-      </c>
-      <c r="M273" s="174">
-        <v>0</v>
-      </c>
-      <c r="N273" s="174">
-        <v>0</v>
-      </c>
-      <c r="O273" s="174">
-        <v>0</v>
-      </c>
-      <c r="P273" s="174">
-        <v>0</v>
-      </c>
-      <c r="Q273" s="174">
+        <v>1616</v>
+      </c>
+      <c r="C273" s="229">
+        <v>116</v>
+      </c>
+      <c r="D273" s="229">
+        <v>116</v>
+      </c>
+      <c r="E273" s="229">
+        <v>0</v>
+      </c>
+      <c r="F273" s="229">
+        <v>0</v>
+      </c>
+      <c r="G273" s="229">
+        <v>0</v>
+      </c>
+      <c r="H273" s="229">
+        <v>4</v>
+      </c>
+      <c r="I273" s="229">
+        <v>0</v>
+      </c>
+      <c r="J273" s="229">
+        <v>0</v>
+      </c>
+      <c r="K273" s="229">
+        <v>0</v>
+      </c>
+      <c r="L273" s="229">
+        <v>0</v>
+      </c>
+      <c r="M273" s="229">
+        <v>0</v>
+      </c>
+      <c r="N273" s="229">
+        <v>0</v>
+      </c>
+      <c r="O273" s="229">
+        <v>0</v>
+      </c>
+      <c r="P273" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="229">
         <v>0</v>
       </c>
       <c r="R273" s="179">
         <v>0</v>
       </c>
-      <c r="S273" s="176">
-        <v>0</v>
-      </c>
-      <c r="T273" s="176">
-        <v>0</v>
-      </c>
-      <c r="U273" s="176">
-        <v>0</v>
-      </c>
-      <c r="V273" s="176">
-        <v>0</v>
-      </c>
-      <c r="W273" s="173">
+      <c r="S273" s="229">
+        <v>0</v>
+      </c>
+      <c r="T273" s="229">
+        <v>0</v>
+      </c>
+      <c r="U273" s="229">
+        <v>0</v>
+      </c>
+      <c r="V273" s="229">
+        <v>0</v>
+      </c>
+      <c r="W273" s="229">
         <v>0</v>
       </c>
     </row>
@@ -82199,7 +82319,7 @@
         <v>45</v>
       </c>
       <c r="B274" s="167" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="C274" s="174">
         <v>221</v>
@@ -82267,7 +82387,7 @@
     </row>
     <row r="275" spans="1:23">
       <c r="A275" s="166" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="B275" s="167" t="s">
         <v>202</v>
@@ -82551,7 +82671,7 @@
     </row>
     <row r="279" spans="1:23">
       <c r="A279" s="166" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B279" s="167"/>
       <c r="C279" s="174">
@@ -82620,7 +82740,7 @@
     </row>
     <row r="280" spans="1:23">
       <c r="A280" s="166" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B280" s="167"/>
       <c r="C280" s="174">
@@ -82689,7 +82809,7 @@
     </row>
     <row r="281" spans="1:23">
       <c r="A281" s="166" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B281" s="167"/>
       <c r="C281" s="174">
@@ -82759,7 +82879,7 @@
     <row r="282" spans="1:23">
       <c r="A282" s="162"/>
       <c r="B282" s="164" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="C282" s="163"/>
       <c r="D282" s="163"/>
@@ -82917,7 +83037,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="B2">
         <v>164</v>
@@ -83042,7 +83162,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B3">
         <v>43</v>
@@ -83167,7 +83287,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -83203,7 +83323,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -83269,7 +83389,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="B6">
         <v>72</v>
@@ -83379,7 +83499,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B7">
         <v>131</v>
@@ -83504,7 +83624,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -83629,7 +83749,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -83722,7 +83842,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -83788,7 +83908,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -83898,7 +84018,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="B12">
         <v>43</v>
@@ -84023,7 +84143,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -84064,7 +84184,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -84174,7 +84294,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="B1" s="12">
         <v>0</v>
@@ -84253,7 +84373,7 @@
       </c>
       <c r="AA1" s="155"/>
       <c r="AB1" s="12" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="AC1" s="12">
         <v>2600</v>
@@ -84264,7 +84384,7 @@
     </row>
     <row r="2" spans="1:30" ht="16.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="B2" s="12">
         <v>30</v>
@@ -84343,7 +84463,7 @@
       </c>
       <c r="AA2" s="155"/>
       <c r="AB2" s="12" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="AC2" s="14">
         <v>2.13070556763084E-2</v>
@@ -84351,7 +84471,7 @@
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -84432,7 +84552,7 @@
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -84513,7 +84633,7 @@
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -84594,7 +84714,7 @@
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -84675,7 +84795,7 @@
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -84754,7 +84874,7 @@
       </c>
       <c r="AA7" s="155"/>
       <c r="AB7" s="12" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="AC7" s="12">
         <v>0</v>
@@ -84765,7 +84885,7 @@
     </row>
     <row r="8" spans="1:30" ht="16.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -84844,7 +84964,7 @@
       </c>
       <c r="AA8" s="155"/>
       <c r="AB8" s="12" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="AC8" s="15">
         <v>6.7400547114465595E-2</v>
@@ -84852,7 +84972,7 @@
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -84933,7 +85053,7 @@
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="B10" s="12">
         <v>86</v>
@@ -85014,7 +85134,7 @@
     </row>
     <row r="11" spans="1:30" ht="16.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -85095,7 +85215,7 @@
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -85176,7 +85296,7 @@
     </row>
     <row r="13" spans="1:30" ht="16.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -85255,7 +85375,7 @@
       </c>
       <c r="AA13" s="155"/>
       <c r="AB13" s="12" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="AC13" s="12">
         <v>300</v>
@@ -85266,7 +85386,7 @@
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B14" s="12">
         <v>86</v>
@@ -85347,7 +85467,7 @@
     </row>
     <row r="15" spans="1:30" ht="16.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -85428,7 +85548,7 @@
     </row>
     <row r="16" spans="1:30" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -85509,7 +85629,7 @@
     </row>
     <row r="17" spans="1:29" ht="16.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -85590,7 +85710,7 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -85669,7 +85789,7 @@
       </c>
       <c r="AA18" s="155"/>
       <c r="AB18" s="12" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="AC18" s="15">
         <v>0.18825271821068101</v>
@@ -85677,7 +85797,7 @@
     </row>
     <row r="19" spans="1:29" ht="16.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -85756,7 +85876,7 @@
       </c>
       <c r="AA19" s="155"/>
       <c r="AB19" s="12" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="AC19" s="15">
         <v>0.12030062403291999</v>
@@ -85764,7 +85884,7 @@
     </row>
     <row r="20" spans="1:29" ht="16.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
@@ -85845,7 +85965,7 @@
     </row>
     <row r="21" spans="1:29" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -85926,7 +86046,7 @@
     </row>
     <row r="22" spans="1:29" ht="16.5" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -86007,7 +86127,7 @@
     </row>
     <row r="23" spans="1:29" ht="16.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -86088,7 +86208,7 @@
     </row>
     <row r="24" spans="1:29" ht="16.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -86169,7 +86289,7 @@
     </row>
     <row r="25" spans="1:29" ht="16.5" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -86250,7 +86370,7 @@
     </row>
     <row r="26" spans="1:29" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B26" s="12">
         <v>76</v>
@@ -86331,7 +86451,7 @@
     </row>
     <row r="27" spans="1:29" ht="16.5" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="B27" s="12">
         <v>70</v>
@@ -86412,7 +86532,7 @@
     </row>
     <row r="28" spans="1:29" ht="16.5" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
@@ -86493,7 +86613,7 @@
     </row>
     <row r="29" spans="1:29" ht="16.5" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="B29" s="12">
         <v>0</v>
@@ -86574,7 +86694,7 @@
     </row>
     <row r="30" spans="1:29" ht="16.5" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="B30" s="12">
         <v>0</v>
@@ -86655,7 +86775,7 @@
     </row>
     <row r="31" spans="1:29" ht="16.5" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -86736,7 +86856,7 @@
     </row>
     <row r="32" spans="1:29" ht="16.5" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="B32" s="12">
         <v>22</v>
@@ -86817,7 +86937,7 @@
     </row>
     <row r="33" spans="1:30" ht="16.5" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
@@ -86898,7 +87018,7 @@
     </row>
     <row r="34" spans="1:30" ht="16.5" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
@@ -86979,7 +87099,7 @@
     </row>
     <row r="35" spans="1:30" ht="16.5" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="B35" s="12">
         <v>-60</v>
@@ -87059,7 +87179,7 @@
     </row>
     <row r="36" spans="1:30" ht="16.5" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="B36" s="12">
         <v>-60</v>
@@ -87139,7 +87259,7 @@
     </row>
     <row r="37" spans="1:30" ht="16.5" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
@@ -87220,7 +87340,7 @@
     </row>
     <row r="38" spans="1:30" ht="16.5" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
@@ -87301,7 +87421,7 @@
     </row>
     <row r="39" spans="1:30" ht="16.5" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
@@ -87382,7 +87502,7 @@
     </row>
     <row r="40" spans="1:30" ht="16.5" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="B40" s="12">
         <v>0</v>
@@ -87463,7 +87583,7 @@
     </row>
     <row r="41" spans="1:30" ht="16.5" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="B41" s="12">
         <v>-60</v>
@@ -87543,7 +87663,7 @@
     </row>
     <row r="42" spans="1:30" ht="16.5" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="B42" s="12">
         <v>0</v>
@@ -87624,7 +87744,7 @@
     </row>
     <row r="43" spans="1:30" ht="16.5" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="B43" s="12">
         <v>0</v>
@@ -87705,7 +87825,7 @@
     </row>
     <row r="44" spans="1:30" ht="16.5" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
@@ -87786,7 +87906,7 @@
     </row>
     <row r="45" spans="1:30" ht="16.5" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
@@ -87867,7 +87987,7 @@
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="B46" s="12">
         <v>78</v>
@@ -87948,7 +88068,7 @@
     </row>
     <row r="47" spans="1:30" ht="16.5" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="B47" s="12">
         <v>66</v>
@@ -88029,7 +88149,7 @@
     </row>
     <row r="48" spans="1:30" ht="16.5" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="B48" s="12">
         <v>0</v>
@@ -88108,7 +88228,7 @@
       </c>
       <c r="AA48" s="155"/>
       <c r="AB48" s="12" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="AC48" s="12">
         <v>170</v>
@@ -88119,7 +88239,7 @@
     </row>
     <row r="49" spans="1:30" ht="16.5" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="B49" s="12">
         <v>0</v>
@@ -88198,15 +88318,15 @@
       </c>
       <c r="AA49" s="155"/>
       <c r="AC49" s="12" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="AD49" s="12" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="16.5" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B50" s="12">
         <v>0</v>
@@ -88287,7 +88407,7 @@
     </row>
     <row r="51" spans="1:30" ht="16.5" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -88368,7 +88488,7 @@
     </row>
     <row r="52" spans="1:30" ht="16.5" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -88447,7 +88567,7 @@
       </c>
       <c r="AA52" s="155"/>
       <c r="AB52" s="12" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="AC52" s="15">
         <v>6.5295648802820905E-2</v>
@@ -88455,7 +88575,7 @@
     </row>
     <row r="53" spans="1:30" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="B53" s="12">
         <v>0</v>
@@ -88536,7 +88656,7 @@
     </row>
     <row r="54" spans="1:30" ht="16.5" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="B54" s="12">
         <v>0</v>
@@ -88615,7 +88735,7 @@
       </c>
       <c r="AA54" s="155"/>
       <c r="AB54" s="12" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="AC54" s="14">
         <v>0.04</v>
@@ -88623,7 +88743,7 @@
     </row>
     <row r="55" spans="1:30" ht="16.5" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="B55" s="12">
         <v>0</v>
@@ -88704,7 +88824,7 @@
     </row>
     <row r="56" spans="1:30" ht="16.5" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="B56" s="12">
         <v>70</v>
@@ -88785,7 +88905,7 @@
     </row>
     <row r="57" spans="1:30" ht="16.5" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="B57" s="12">
         <v>0</v>
@@ -88864,7 +88984,7 @@
       </c>
       <c r="AA57" s="155"/>
       <c r="AB57" s="12" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="AC57" s="12">
         <v>1400</v>
@@ -88875,7 +88995,7 @@
     </row>
     <row r="58" spans="1:30" ht="16.5" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="B58" s="12">
         <v>0</v>
@@ -88954,7 +89074,7 @@
       </c>
       <c r="AA58" s="155"/>
       <c r="AB58" s="79" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="AC58" s="15">
         <v>4.1666666666666699E-2</v>
@@ -88962,7 +89082,7 @@
     </row>
     <row r="59" spans="1:30" ht="16.5" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
@@ -89043,7 +89163,7 @@
     </row>
     <row r="60" spans="1:30" ht="16.5" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="B60" s="12">
         <v>0</v>
@@ -89124,7 +89244,7 @@
     </row>
     <row r="61" spans="1:30" ht="16.5" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
@@ -89205,7 +89325,7 @@
     </row>
     <row r="62" spans="1:30" ht="16.5" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="B62" s="12">
         <v>0</v>
@@ -89286,55 +89406,55 @@
     </row>
     <row r="63" spans="1:30" ht="16.5" customHeight="1">
       <c r="A63" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D63" s="156" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E63" s="156" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F63" s="156" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G63" s="156" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H63" s="157" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I63" s="157" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J63" s="157" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K63" s="157" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L63" s="157" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M63" s="158" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N63" s="158" t="s">
         <v>1488</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D63" s="156" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E63" s="156" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F63" s="156" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G63" s="156" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H63" s="157" t="s">
-        <v>1491</v>
-      </c>
-      <c r="I63" s="157" t="s">
-        <v>1492</v>
-      </c>
-      <c r="J63" s="157" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K63" s="157" t="s">
-        <v>1481</v>
-      </c>
-      <c r="L63" s="157" t="s">
-        <v>1416</v>
-      </c>
-      <c r="M63" s="158" t="s">
-        <v>1493</v>
-      </c>
-      <c r="N63" s="158" t="s">
-        <v>1494</v>
-      </c>
       <c r="O63" s="159" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="P63" s="159">
         <v>50</v>
       </c>
       <c r="Q63" s="159" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="R63" s="159">
         <v>85</v>
@@ -89346,13 +89466,13 @@
         <v>100</v>
       </c>
       <c r="U63" s="160" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="V63" s="160">
         <v>50</v>
       </c>
       <c r="W63" s="160" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="X63" s="160">
         <v>85</v>
@@ -89364,15 +89484,15 @@
         <v>100</v>
       </c>
       <c r="AC63" s="79" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="AD63" s="79" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="13" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="B64" s="13">
         <v>1</v>
@@ -89452,7 +89572,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="12" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="B65" s="12">
         <v>0</v>
@@ -89532,24 +89652,24 @@
     </row>
     <row r="66" spans="1:26" ht="21.75" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>1497</v>
-      </c>
-      <c r="O66" s="231" t="s">
-        <v>1481</v>
-      </c>
-      <c r="P66" s="232"/>
-      <c r="Q66" s="232"/>
-      <c r="R66" s="232"/>
-      <c r="S66" s="232"/>
-      <c r="T66" s="232"/>
-      <c r="U66" s="231" t="s">
-        <v>1416</v>
-      </c>
-      <c r="V66" s="232"/>
-      <c r="W66" s="232"/>
-      <c r="X66" s="232"/>
-      <c r="Y66" s="232"/>
-      <c r="Z66" s="232"/>
+        <v>1491</v>
+      </c>
+      <c r="O66" s="233" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P66" s="234"/>
+      <c r="Q66" s="234"/>
+      <c r="R66" s="234"/>
+      <c r="S66" s="234"/>
+      <c r="T66" s="234"/>
+      <c r="U66" s="233" t="s">
+        <v>1410</v>
+      </c>
+      <c r="V66" s="234"/>
+      <c r="W66" s="234"/>
+      <c r="X66" s="234"/>
+      <c r="Y66" s="234"/>
+      <c r="Z66" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -89586,40 +89706,40 @@
   <sheetData>
     <row r="3" spans="2:17">
       <c r="B3" s="80" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E3" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H3" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H4" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="E5" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H5" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="G6" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -89639,13 +89759,13 @@
     </row>
     <row r="7" spans="2:17">
       <c r="E7" s="81" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="H7" s="1">
         <v>11</v>
@@ -89653,276 +89773,276 @@
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
       <c r="E8" s="81" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="P8" s="233" t="s">
-        <v>1589</v>
-      </c>
-      <c r="Q8" s="233"/>
+      <c r="P8" s="235" t="s">
+        <v>1583</v>
+      </c>
+      <c r="Q8" s="235"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="E9" s="81" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="P9" s="233" t="s">
-        <v>1608</v>
-      </c>
-      <c r="Q9" s="233"/>
+        <v>1508</v>
+      </c>
+      <c r="P9" s="235" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q9" s="235"/>
     </row>
     <row r="10" spans="2:17" ht="17.25" customHeight="1">
       <c r="E10" s="81" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H10" s="1">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
         <v>4308</v>
       </c>
       <c r="P10" s="187" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="Q10" s="187" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="18" customHeight="1" thickBot="1">
       <c r="E11" s="81" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H11" s="1">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
         <v>4308</v>
       </c>
       <c r="P11" s="187" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="Q11" s="187" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="17.25" customHeight="1">
       <c r="E12" s="81" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H12" s="1">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
         <v>4166</v>
       </c>
       <c r="P12" s="187" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q12" s="187" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1">
       <c r="E13" s="81" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H13" s="1">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10">
         <v>4166</v>
       </c>
       <c r="P13" s="187" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="Q13" s="187" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="17.25" customHeight="1">
       <c r="E14" s="81" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="H14" s="1">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
         <v>4166</v>
       </c>
       <c r="P14" s="187" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="Q14" s="187" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="17.25" customHeight="1">
       <c r="E15" s="81" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H15" s="1">
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="10">
         <v>4166</v>
       </c>
       <c r="P15" s="187" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="Q15" s="187" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
       <c r="E16" s="81" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="H16" s="1">
         <v>32</v>
       </c>
       <c r="P16" s="187" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="Q16" s="187" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="16.5" customHeight="1">
       <c r="E17" s="83" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="H17" s="1">
         <v>33</v>
       </c>
       <c r="P17" s="187" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="Q17" s="187" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="18" spans="5:17">
       <c r="E18" s="83" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="P18" s="187" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="Q18" s="187" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="19" spans="5:17">
       <c r="E19" s="83" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="11" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="K19">
         <v>630</v>
@@ -89930,288 +90050,288 @@
     </row>
     <row r="20" spans="5:17">
       <c r="E20" s="83" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="K20">
         <v>675</v>
       </c>
-      <c r="P20" s="233" t="s">
-        <v>1609</v>
-      </c>
-      <c r="Q20" s="233"/>
+      <c r="P20" s="235" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q20" s="235"/>
     </row>
     <row r="21" spans="5:17">
       <c r="E21" s="83" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="K21">
         <v>665</v>
       </c>
       <c r="P21" s="187" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="Q21" s="187" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="22" spans="5:17">
       <c r="E22" s="83" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="P22" s="187" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="Q22" s="187" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="23" spans="5:17">
       <c r="E23" s="83" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="J23" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="P23" s="187" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="Q23" s="187" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="24" spans="5:17">
       <c r="E24" s="83" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="P24" s="187" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="Q24" s="187" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="25" spans="5:17">
       <c r="E25" s="83" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="P25" s="187" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="Q25" s="187" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="26" spans="5:17">
       <c r="E26" s="83" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="P26" s="187" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="Q26" s="187" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="27" spans="5:17">
       <c r="E27" s="83" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="P27" s="187" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="Q27" s="187" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="28" spans="5:17">
       <c r="E28" s="83" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="5:17">
       <c r="E29" s="83" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="5:17">
       <c r="E30" s="83" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="5:17">
       <c r="E31" s="83" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="5:17">
       <c r="E32" s="83" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="83" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="83" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" s="83" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="83" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="83" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="83" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="83" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" s="83" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="83" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="83" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="F42" s="84">
         <v>36</v>
@@ -90219,7 +90339,7 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="83" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="F43" s="84">
         <v>37</v>
@@ -90227,7 +90347,7 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="83" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="F44" s="84">
         <v>38</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\Python\dnf_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206C5A5-FCDE-4C3C-A34E-D93D4F22E60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264514A9-C14A-4CB0-8DD1-459F79E016FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -7387,16 +7387,6 @@
     <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="142">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12650,6 +12640,16 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -12672,54 +12672,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDFDD7E9-3B23-4A64-9C6F-489BAA38C942}" name="表1" displayName="表1" ref="A1:AT401" headerRowCount="0" headerRowDxfId="141" dataDxfId="140" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDFDD7E9-3B23-4A64-9C6F-489BAA38C942}" name="表1" displayName="表1" ref="A1:AT401" headerRowCount="0" headerRowDxfId="140" dataDxfId="139" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{0589DFBE-D28E-4D12-AA82-5EF4B6108CC2}" name="列1" totalsRowLabel="汇总" headerRowDxfId="139" dataDxfId="138" totalsRowDxfId="137" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{FB3D9499-F4CC-4A84-ACBC-09229CACC65B}" name="列2" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="134" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="3" xr3:uid="{E674787C-B1EE-4BB6-97B1-19D85D8EBF7F}" name="列3" headerRowDxfId="133" dataDxfId="132" totalsRowDxfId="131" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="4" xr3:uid="{0BAF38BB-25E2-4FF3-A68B-7A21187FE6D1}" name="列4" headerRowDxfId="130" dataDxfId="129" totalsRowDxfId="128" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="5" xr3:uid="{D1257E7B-F77A-41BD-80EA-B79077085DF2}" name="列5" headerRowDxfId="127" dataDxfId="126" totalsRowDxfId="125" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="6" xr3:uid="{F3A5B883-4E57-4A28-80A3-F60499BEB9BD}" name="列6" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="122" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="7" xr3:uid="{B3B0C3AA-D4EC-4A81-BCFB-A797D113DF44}" name="列7" headerRowDxfId="121" dataDxfId="120" totalsRowDxfId="119" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="8" xr3:uid="{A55DB1F2-2670-4FEE-BF8D-207EB5557EA9}" name="列8" headerRowDxfId="118" dataDxfId="117" totalsRowDxfId="116" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="9" xr3:uid="{0709DC2B-AF89-48E0-9B97-CD50F633DEA0}" name="列9" headerRowDxfId="115" dataDxfId="114" totalsRowDxfId="113" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="10" xr3:uid="{FABFF08F-6457-4842-95F6-BAEFAF230539}" name="列10" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="110" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="11" xr3:uid="{E232611A-BDA4-4574-86FD-36721D6B2655}" name="列11" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="12" xr3:uid="{4E2D5367-6A56-4D7D-8DEC-43E426D43F1F}" name="列12" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="13" xr3:uid="{0D11287D-9443-41C9-802A-78EC98219A78}" name="列13" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="14" xr3:uid="{D0486014-EE51-4206-BB30-E88DF17FF026}" name="列14" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="98" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="15" xr3:uid="{F2E53A65-C17D-42AE-8CA3-11368D1188D4}" name="列15" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="16" xr3:uid="{DD2D29D0-D401-4FF3-B337-8237F1BBC887}" name="列16" headerRowDxfId="94" dataDxfId="93" totalsRowDxfId="92" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="17" xr3:uid="{96958946-40E3-447C-9B1A-A3FCB4864B0C}" name="列17" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="18" xr3:uid="{0C673BA8-1A3C-4533-B1A7-48F2FBCC91CD}" name="列18" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="86" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="19" xr3:uid="{2F7FAAEB-8349-45E5-8D55-936DD686F839}" name="列19" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="83" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="20" xr3:uid="{78D6D419-4A29-4946-B94F-F805013989B1}" name="列20" headerRowDxfId="82" dataDxfId="81" totalsRowDxfId="80" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="21" xr3:uid="{37BA1CF3-F24C-4DA3-B845-3C7DEA053DEB}" name="列21" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="22" xr3:uid="{BE1BB6F9-5FFE-4618-8291-569EC0367842}" name="列22" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="23" xr3:uid="{506B4632-6A71-4460-AB1F-F47C5CE437C7}" name="列23" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="24" xr3:uid="{A4F6D5DE-BD07-4C14-B6E9-9C49021DF110}" name="列24" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="25" xr3:uid="{420EBA2F-05DD-4B5D-89BD-9D76F55D3D06}" name="列25" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="26" xr3:uid="{C59F87DC-C697-458F-9666-1D89B0A1BCCD}" name="列26" headerRowDxfId="64" dataDxfId="63" totalsRowDxfId="62" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="27" xr3:uid="{D4A62B29-5361-4930-8B15-44C0D856C12D}" name="列27" headerRowDxfId="61" dataDxfId="60" totalsRowDxfId="59" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="28" xr3:uid="{093420BE-CE74-461F-8AE2-6B3AD4981C1C}" name="列28" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="29" xr3:uid="{F735D7DD-ED57-4CA2-95E6-644A16C9951E}" name="列29" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="30" xr3:uid="{EEE11725-AFD3-4903-B011-9CC199FBA021}" name="列30" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="50" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="31" xr3:uid="{3BCDD235-7820-4EEA-BB5A-ACFCA5282CA0}" name="列31" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="32" xr3:uid="{937B7E5A-9C69-435F-BB33-1B6249400DEA}" name="列32" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="33" xr3:uid="{EC782FF1-0425-4605-9F11-BCC3B58BA789}" name="列33" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="34" xr3:uid="{4351DA1A-0BEF-4C23-A329-DB41BA76CFDC}" name="列34" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="35" xr3:uid="{4765DAFA-66AE-4648-B569-3CE761C8FB6D}" name="列35" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="36" xr3:uid="{92500F77-7D0A-4981-A930-D64AAAF9CF9C}" name="列36" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="37" xr3:uid="{1AEBA838-BB9A-48D0-8456-1F3A502284DC}" name="列37" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="38" xr3:uid="{3CB48204-F104-4EA3-AACC-08790FA9153B}" name="列38" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="39" xr3:uid="{5F1EEEFB-3821-4CEA-8A54-E85F3767E1E5}" name="列39" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="40" xr3:uid="{517D212C-8243-44CC-A1B0-9AA84E9C045E}" name="列40" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="41" xr3:uid="{86428E36-83B3-4CB3-9072-D5E33D695950}" name="列41" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="17" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="42" xr3:uid="{3BB97803-79AA-4AB2-9A9C-C52407F6250C}" name="列42" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="43" xr3:uid="{481F666C-3C02-4CE4-9D98-82582D42140F}" name="列43" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="44" xr3:uid="{D9F45012-4220-4C4E-AD2D-90A578B56459}" name="列44" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="45" xr3:uid="{BD51C7F1-636F-4400-9622-98E817F1D957}" name="列45" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
-    <tableColumn id="46" xr3:uid="{1279420A-385D-4C40-B6E3-15C649D4741B}" name="列46" totalsRowFunction="count" headerRowDxfId="4" dataDxfId="3" totalsRowDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{0589DFBE-D28E-4D12-AA82-5EF4B6108CC2}" name="列1" totalsRowLabel="汇总" headerRowDxfId="138" dataDxfId="137" totalsRowDxfId="136" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{FB3D9499-F4CC-4A84-ACBC-09229CACC65B}" name="列2" headerRowDxfId="135" dataDxfId="134" totalsRowDxfId="133" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="3" xr3:uid="{E674787C-B1EE-4BB6-97B1-19D85D8EBF7F}" name="列3" headerRowDxfId="132" dataDxfId="131" totalsRowDxfId="130" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="4" xr3:uid="{0BAF38BB-25E2-4FF3-A68B-7A21187FE6D1}" name="列4" headerRowDxfId="129" dataDxfId="128" totalsRowDxfId="127" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="5" xr3:uid="{D1257E7B-F77A-41BD-80EA-B79077085DF2}" name="列5" headerRowDxfId="126" dataDxfId="125" totalsRowDxfId="124" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="6" xr3:uid="{F3A5B883-4E57-4A28-80A3-F60499BEB9BD}" name="列6" headerRowDxfId="123" dataDxfId="122" totalsRowDxfId="121" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="7" xr3:uid="{B3B0C3AA-D4EC-4A81-BCFB-A797D113DF44}" name="列7" headerRowDxfId="120" dataDxfId="119" totalsRowDxfId="118" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="8" xr3:uid="{A55DB1F2-2670-4FEE-BF8D-207EB5557EA9}" name="列8" headerRowDxfId="117" dataDxfId="116" totalsRowDxfId="115" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="9" xr3:uid="{0709DC2B-AF89-48E0-9B97-CD50F633DEA0}" name="列9" headerRowDxfId="114" dataDxfId="113" totalsRowDxfId="112" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="10" xr3:uid="{FABFF08F-6457-4842-95F6-BAEFAF230539}" name="列10" headerRowDxfId="111" dataDxfId="110" totalsRowDxfId="109" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="11" xr3:uid="{E232611A-BDA4-4574-86FD-36721D6B2655}" name="列11" headerRowDxfId="108" dataDxfId="107" totalsRowDxfId="106" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="12" xr3:uid="{4E2D5367-6A56-4D7D-8DEC-43E426D43F1F}" name="列12" headerRowDxfId="105" dataDxfId="104" totalsRowDxfId="103" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="13" xr3:uid="{0D11287D-9443-41C9-802A-78EC98219A78}" name="列13" headerRowDxfId="102" dataDxfId="101" totalsRowDxfId="100" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="14" xr3:uid="{D0486014-EE51-4206-BB30-E88DF17FF026}" name="列14" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="15" xr3:uid="{F2E53A65-C17D-42AE-8CA3-11368D1188D4}" name="列15" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="16" xr3:uid="{DD2D29D0-D401-4FF3-B337-8237F1BBC887}" name="列16" headerRowDxfId="93" dataDxfId="92" totalsRowDxfId="91" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="17" xr3:uid="{96958946-40E3-447C-9B1A-A3FCB4864B0C}" name="列17" headerRowDxfId="90" dataDxfId="89" totalsRowDxfId="88" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="18" xr3:uid="{0C673BA8-1A3C-4533-B1A7-48F2FBCC91CD}" name="列18" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="19" xr3:uid="{2F7FAAEB-8349-45E5-8D55-936DD686F839}" name="列19" headerRowDxfId="84" dataDxfId="83" totalsRowDxfId="82" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="20" xr3:uid="{78D6D419-4A29-4946-B94F-F805013989B1}" name="列20" headerRowDxfId="81" dataDxfId="80" totalsRowDxfId="79" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="21" xr3:uid="{37BA1CF3-F24C-4DA3-B845-3C7DEA053DEB}" name="列21" headerRowDxfId="78" dataDxfId="77" totalsRowDxfId="76" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="22" xr3:uid="{BE1BB6F9-5FFE-4618-8291-569EC0367842}" name="列22" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="23" xr3:uid="{506B4632-6A71-4460-AB1F-F47C5CE437C7}" name="列23" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="24" xr3:uid="{A4F6D5DE-BD07-4C14-B6E9-9C49021DF110}" name="列24" headerRowDxfId="69" dataDxfId="68" totalsRowDxfId="67" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="25" xr3:uid="{420EBA2F-05DD-4B5D-89BD-9D76F55D3D06}" name="列25" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="26" xr3:uid="{C59F87DC-C697-458F-9666-1D89B0A1BCCD}" name="列26" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="27" xr3:uid="{D4A62B29-5361-4930-8B15-44C0D856C12D}" name="列27" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="28" xr3:uid="{093420BE-CE74-461F-8AE2-6B3AD4981C1C}" name="列28" headerRowDxfId="57" dataDxfId="56" totalsRowDxfId="55" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="29" xr3:uid="{F735D7DD-ED57-4CA2-95E6-644A16C9951E}" name="列29" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="30" xr3:uid="{EEE11725-AFD3-4903-B011-9CC199FBA021}" name="列30" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="31" xr3:uid="{3BCDD235-7820-4EEA-BB5A-ACFCA5282CA0}" name="列31" headerRowDxfId="48" dataDxfId="47" totalsRowDxfId="46" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="32" xr3:uid="{937B7E5A-9C69-435F-BB33-1B6249400DEA}" name="列32" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="33" xr3:uid="{EC782FF1-0425-4605-9F11-BCC3B58BA789}" name="列33" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="34" xr3:uid="{4351DA1A-0BEF-4C23-A329-DB41BA76CFDC}" name="列34" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="35" xr3:uid="{4765DAFA-66AE-4648-B569-3CE761C8FB6D}" name="列35" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="36" xr3:uid="{92500F77-7D0A-4981-A930-D64AAAF9CF9C}" name="列36" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="37" xr3:uid="{1AEBA838-BB9A-48D0-8456-1F3A502284DC}" name="列37" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="38" xr3:uid="{3CB48204-F104-4EA3-AACC-08790FA9153B}" name="列38" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="39" xr3:uid="{5F1EEEFB-3821-4CEA-8A54-E85F3767E1E5}" name="列39" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="40" xr3:uid="{517D212C-8243-44CC-A1B0-9AA84E9C045E}" name="列40" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="41" xr3:uid="{86428E36-83B3-4CB3-9072-D5E33D695950}" name="列41" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="42" xr3:uid="{3BB97803-79AA-4AB2-9A9C-C52407F6250C}" name="列42" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="43" xr3:uid="{481F666C-3C02-4CE4-9D98-82582D42140F}" name="列43" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="44" xr3:uid="{D9F45012-4220-4C4E-AD2D-90A578B56459}" name="列44" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="45" xr3:uid="{BD51C7F1-636F-4400-9622-98E817F1D957}" name="列45" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
+    <tableColumn id="46" xr3:uid="{1279420A-385D-4C40-B6E3-15C649D4741B}" name="列46" totalsRowFunction="count" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12985,11 +12985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C406" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E434" sqref="E434"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -62920,7 +62920,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:AT362">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="141" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -71050,11 +71050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W282"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
@@ -84788,7 +84788,7 @@
         <v>100</v>
       </c>
       <c r="D194" s="115">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="E194" s="115">
         <v>5</v>
